--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="224">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -796,6 +796,33 @@
   </si>
   <si>
     <t>28-Feb-23--03-Mar-23</t>
+  </si>
+  <si>
+    <t>GUARDIA</t>
+  </si>
+  <si>
+    <t>CAMARAS</t>
+  </si>
+  <si>
+    <t>DESECHABLES</t>
+  </si>
+  <si>
+    <t>RES ANTICIPO</t>
+  </si>
+  <si>
+    <t>pulpa res-hueso blanco</t>
+  </si>
+  <si>
+    <t>RES EL CIEN</t>
+  </si>
+  <si>
+    <t>PERDIDA</t>
+  </si>
+  <si>
+    <t>FLETE</t>
+  </si>
+  <si>
+    <t>PINES</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2950,6 +2977,81 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,81 +3085,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3108,6 +3135,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4304,8 +4341,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4331,23 +4368,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="364" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="363"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4357,24 +4394,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="367"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="368" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="368"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="360" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="344" t="s">
+      <c r="R3" s="333" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4389,14 +4426,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="346" t="s">
+      <c r="E4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="347"/>
-      <c r="H4" s="348" t="s">
+      <c r="F4" s="336"/>
+      <c r="H4" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="349"/>
+      <c r="I4" s="338"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4406,11 +4443,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="361"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="345"/>
+      <c r="R4" s="334"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5474,17 +5511,29 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="32">
+        <v>44997</v>
+      </c>
+      <c r="C28" s="33">
+        <v>4025.53</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="E28" s="35"/>
       <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="68"/>
+      <c r="J28" s="74">
+        <v>44940</v>
+      </c>
+      <c r="K28" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="49">
+        <v>23711</v>
+      </c>
       <c r="M28" s="42">
         <v>0</v>
       </c>
@@ -5493,11 +5542,11 @@
       </c>
       <c r="P28" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27736.53</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27736.53</v>
       </c>
       <c r="R28" s="46">
         <v>0</v>
@@ -5505,17 +5554,29 @@
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="B29" s="32">
+        <v>44944</v>
+      </c>
+      <c r="C29" s="33">
+        <v>200000</v>
+      </c>
+      <c r="D29" s="386" t="s">
+        <v>218</v>
+      </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
       <c r="G29" s="37"/>
       <c r="H29" s="38"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="68"/>
+      <c r="J29" s="87">
+        <v>44947</v>
+      </c>
+      <c r="K29" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="89">
+        <v>20083.5</v>
+      </c>
       <c r="M29" s="42">
         <v>0</v>
       </c>
@@ -5524,11 +5585,11 @@
       </c>
       <c r="P29" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>220083.5</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220083.5</v>
       </c>
       <c r="R29" s="46">
         <v>0</v>
@@ -5536,17 +5597,29 @@
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="B30" s="32">
+        <v>44945</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2399.15</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>91</v>
+      </c>
       <c r="E30" s="35"/>
       <c r="F30" s="36"/>
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
+      <c r="J30" s="74">
+        <v>44954</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="49">
+        <v>19643.560000000001</v>
+      </c>
       <c r="M30" s="42">
         <v>0</v>
       </c>
@@ -5555,11 +5628,11 @@
       </c>
       <c r="P30" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22042.710000000003</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22042.710000000003</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -5567,9 +5640,15 @@
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="B31" s="32">
+        <v>44950</v>
+      </c>
+      <c r="C31" s="33">
+        <v>453654.75</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>219</v>
+      </c>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
       <c r="G31" s="37"/>
@@ -5586,11 +5665,11 @@
       </c>
       <c r="P31" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>453654.75</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>453654.75</v>
       </c>
       <c r="R31" s="46">
         <v>0</v>
@@ -5598,9 +5677,15 @@
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="81"/>
+      <c r="B32" s="32">
+        <v>44950</v>
+      </c>
+      <c r="C32" s="33">
+        <v>204403.20000000001</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>220</v>
+      </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36"/>
       <c r="G32" s="37"/>
@@ -5617,11 +5702,11 @@
       </c>
       <c r="P32" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>204403.20000000001</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>204403.20000000001</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -5637,9 +5722,15 @@
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="84"/>
+      <c r="J33" s="74">
+        <v>44932</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" s="84">
+        <v>31059</v>
+      </c>
       <c r="M33" s="42">
         <v>0</v>
       </c>
@@ -5668,13 +5759,13 @@
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="74">
-        <v>44940</v>
+        <v>44938</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="L34" s="49">
-        <v>23711</v>
+        <v>18328</v>
       </c>
       <c r="M34" s="42">
         <v>0</v>
@@ -5707,13 +5798,13 @@
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="87">
-        <v>44947</v>
+        <v>44944</v>
       </c>
       <c r="K35" s="88" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="L35" s="89">
-        <v>20083.5</v>
+        <v>7271.18</v>
       </c>
       <c r="M35" s="42">
         <v>0</v>
@@ -5743,13 +5834,13 @@
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
       <c r="J36" s="74">
-        <v>44954</v>
+        <v>44952</v>
       </c>
       <c r="K36" s="85" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="L36" s="49">
-        <v>19643.560000000001</v>
+        <v>8321.48</v>
       </c>
       <c r="M36" s="42">
         <v>0</v>
@@ -6136,21 +6227,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="355">
+      <c r="M49" s="344">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="355">
+      <c r="N49" s="344">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3236981.46</v>
-      </c>
-      <c r="Q49" s="367">
+        <v>4164902.15</v>
+      </c>
+      <c r="Q49" s="356">
         <f>SUM(Q5:Q40)</f>
-        <v>-199</v>
+        <v>927721.69</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -6169,10 +6260,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="356"/>
-      <c r="N50" s="356"/>
+      <c r="M50" s="345"/>
+      <c r="N50" s="345"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="368"/>
+      <c r="Q50" s="357"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -6227,11 +6318,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="358">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="359"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -6614,7 +6705,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>318226.5</v>
+        <v>1182709.1300000001</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -6638,7 +6729,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>618672.52</v>
+        <v>683652.18</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -6656,50 +6747,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="363" t="s">
+      <c r="H77" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="364"/>
+      <c r="I77" s="353"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="365">
+      <c r="K77" s="354">
         <f>I75+L75</f>
-        <v>671983.52</v>
-      </c>
-      <c r="L77" s="366"/>
+        <v>736963.18</v>
+      </c>
+      <c r="L77" s="355"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="357" t="s">
+      <c r="D78" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="357"/>
+      <c r="E78" s="346"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1675036.98</v>
+        <v>745574.68999999971</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="358" t="s">
+      <c r="D79" s="347" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="358"/>
+      <c r="E79" s="347"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="359" t="s">
+      <c r="I79" s="348" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="360"/>
-      <c r="K79" s="361">
+      <c r="J79" s="349"/>
+      <c r="K79" s="350">
         <f>F81+F82+F83</f>
-        <v>3594568.57</v>
-      </c>
-      <c r="L79" s="361"/>
+        <v>2808538.2799999993</v>
+      </c>
+      <c r="L79" s="350"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6733,18 +6824,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>90390.500000000044</v>
+        <v>-839071.79000000027</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="362">
+      <c r="K81" s="351">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="361"/>
+      <c r="L81" s="350"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6754,29 +6845,29 @@
         <v>23</v>
       </c>
       <c r="F82" s="101">
-        <v>0</v>
+        <v>143432</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="350" t="s">
+      <c r="D83" s="339" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="351"/>
+      <c r="E83" s="340"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="352" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="353"/>
-      <c r="K83" s="354">
+      <c r="I83" s="387" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="388"/>
+      <c r="K83" s="389">
         <f>K79+K81</f>
-        <v>149163.5</v>
-      </c>
-      <c r="L83" s="354"/>
+        <v>-636866.7900000005</v>
+      </c>
+      <c r="L83" s="389"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -6920,6 +7011,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6936,12 +7033,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9551,10 +9642,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9580,23 +9671,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="337"/>
-      <c r="C1" s="339" t="s">
+      <c r="B1" s="362"/>
+      <c r="C1" s="364" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="338"/>
+      <c r="B2" s="363"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9606,24 +9697,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="342"/>
+      <c r="B3" s="366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="367"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="343" t="s">
+      <c r="H3" s="368" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="343"/>
+      <c r="I3" s="368"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="335" t="s">
+      <c r="P3" s="360" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="344" t="s">
+      <c r="R3" s="333" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9638,14 +9729,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="346" t="s">
+      <c r="E4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="347"/>
-      <c r="H4" s="348" t="s">
+      <c r="F4" s="336"/>
+      <c r="H4" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="349"/>
+      <c r="I4" s="338"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9655,11 +9746,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="336"/>
+      <c r="P4" s="361"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="345"/>
+      <c r="R4" s="334"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11499,9 +11590,15 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="74">
+        <v>44956</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="L46" s="49">
+        <v>28000</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -11529,9 +11626,15 @@
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="74">
+        <v>44957</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" s="49">
+        <v>7617.72</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -11587,11 +11690,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="355">
+      <c r="M49" s="344">
         <f>SUM(M5:M40)</f>
         <v>1813712.8699999999</v>
       </c>
-      <c r="N49" s="355">
+      <c r="N49" s="344">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -11599,7 +11702,7 @@
         <f>SUM(P5:P40)</f>
         <v>3805932.8699999996</v>
       </c>
-      <c r="Q49" s="367">
+      <c r="Q49" s="356">
         <f>SUM(Q5:Q40)</f>
         <v>-151621.13</v>
       </c>
@@ -11620,10 +11723,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="356"/>
-      <c r="N50" s="356"/>
+      <c r="M50" s="345"/>
+      <c r="N50" s="345"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="368"/>
+      <c r="Q50" s="357"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11678,11 +11781,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="333">
+      <c r="M53" s="358">
         <f>M49+N49</f>
         <v>3128649.87</v>
       </c>
-      <c r="N53" s="334"/>
+      <c r="N53" s="359"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12089,7 +12192,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>177943.15</v>
+        <v>213560.87</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -12107,50 +12210,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="363" t="s">
+      <c r="H77" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="364"/>
+      <c r="I77" s="353"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="365">
+      <c r="K77" s="354">
         <f>I75+L75</f>
-        <v>253818.65</v>
-      </c>
-      <c r="L77" s="366"/>
+        <v>289436.37</v>
+      </c>
+      <c r="L77" s="355"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="357" t="s">
+      <c r="D78" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="357"/>
+      <c r="E78" s="346"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>3123814.85</v>
+        <v>3088197.13</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="358" t="s">
+      <c r="D79" s="347" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="358"/>
+      <c r="E79" s="347"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="359" t="s">
+      <c r="I79" s="348" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="360"/>
-      <c r="K79" s="361">
+      <c r="J79" s="349"/>
+      <c r="K79" s="350">
         <f>F81+F82+F83</f>
-        <v>1521502.1800000002</v>
-      </c>
-      <c r="L79" s="361"/>
+        <v>1485884.46</v>
+      </c>
+      <c r="L79" s="350"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12184,18 +12287,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1292965.1800000002</v>
+        <v>1257347.46</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="362">
+      <c r="K81" s="351">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="361"/>
+      <c r="L81" s="350"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12212,22 +12315,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="350" t="s">
+      <c r="D83" s="339" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="351"/>
+      <c r="E83" s="340"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="352" t="s">
+      <c r="I83" s="341" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="353"/>
-      <c r="K83" s="354">
+      <c r="J83" s="342"/>
+      <c r="K83" s="343">
         <f>K79+K81</f>
-        <v>-1982675.8899999997</v>
-      </c>
-      <c r="L83" s="354"/>
+        <v>-2018293.6099999999</v>
+      </c>
+      <c r="L83" s="343"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12371,12 +12474,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12393,6 +12490,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="COMPRAS  ENERO  2023  " sheetId="3" r:id="rId3"/>
     <sheet name="  F E B R E R O      2 0 2 3   " sheetId="4" r:id="rId4"/>
     <sheet name="COMPRAS   FEBRERERO  2023    " sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="   M A R Z O     2 0 2 3    " sheetId="6" r:id="rId6"/>
+    <sheet name=" COMPRAS  MARZO   2023     " sheetId="7" r:id="rId7"/>
     <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
     <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
     <sheet name="Hoja10" sheetId="10" r:id="rId10"/>
@@ -150,8 +150,66 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="268">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -823,6 +881,138 @@
   </si>
   <si>
     <t>PINES</t>
+  </si>
+  <si>
+    <t>RECOLECCION BASURA</t>
+  </si>
+  <si>
+    <t>FUMIGACION</t>
+  </si>
+  <si>
+    <t>TELMEX</t>
+  </si>
+  <si>
+    <t>SALSAS</t>
+  </si>
+  <si>
+    <t>VIDRIOS</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>CAMIONETA AUDI</t>
+  </si>
+  <si>
+    <t>seguro audi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUMIGACION </t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>CARBON</t>
+  </si>
+  <si>
+    <t>CANALES RES</t>
+  </si>
+  <si>
+    <t>ROLLO TERMICO</t>
+  </si>
+  <si>
+    <t>ANTICIPO RES</t>
+  </si>
+  <si>
+    <t>SEGURO RES</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    Z A V A L E T A     MARZO           2 0 2 3</t>
+  </si>
+  <si>
+    <t>Comision banco</t>
+  </si>
+  <si>
+    <t>3140 E</t>
+  </si>
+  <si>
+    <t>3087 E</t>
+  </si>
+  <si>
+    <t>3171 E</t>
+  </si>
+  <si>
+    <t>3268 E</t>
+  </si>
+  <si>
+    <t>3372 E</t>
+  </si>
+  <si>
+    <t>3468 E</t>
+  </si>
+  <si>
+    <t>3579 E</t>
+  </si>
+  <si>
+    <t>3654 E</t>
+  </si>
+  <si>
+    <t>3774 E</t>
+  </si>
+  <si>
+    <t>3889 E</t>
+  </si>
+  <si>
+    <t>3988 E</t>
+  </si>
+  <si>
+    <t>4204--4207 E</t>
+  </si>
+  <si>
+    <t>4286 E</t>
+  </si>
+  <si>
+    <t>4364 E</t>
+  </si>
+  <si>
+    <t>4582 E</t>
+  </si>
+  <si>
+    <t>4638 E</t>
+  </si>
+  <si>
+    <t>4799 E</t>
+  </si>
+  <si>
+    <t>4822 E</t>
+  </si>
+  <si>
+    <t>4837 E</t>
+  </si>
+  <si>
+    <t>4961 E</t>
+  </si>
+  <si>
+    <t>4102 E   4103</t>
+  </si>
+  <si>
+    <t>5157 E</t>
+  </si>
+  <si>
+    <t>5297 E</t>
+  </si>
+  <si>
+    <t>5302 E</t>
+  </si>
+  <si>
+    <t>5326 E</t>
+  </si>
+  <si>
+    <t>5395 E</t>
+  </si>
+  <si>
+    <t>5412 E</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -2342,12 +2532,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2977,6 +3180,14 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3001,6 +3212,135 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="15" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3010,140 +3350,67 @@
     <xf numFmtId="166" fontId="15" fillId="8" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3155,6 +3422,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
@@ -4025,6 +4293,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5524500" y="16849724"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="16354425"/>
+          <a:ext cx="419100" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5524500" y="16849724"/>
+          <a:ext cx="85725" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="16335375"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8110538" y="15473360"/>
+          <a:ext cx="200026" cy="2228852"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="17152100"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5486400" y="17173575"/>
+          <a:ext cx="819150" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4341,8 +5035,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="L31" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4368,23 +5062,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="362"/>
-      <c r="C1" s="364" t="s">
+      <c r="B1" s="366"/>
+      <c r="C1" s="368" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="363"/>
+      <c r="B2" s="367"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -4394,24 +5088,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="366" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="367"/>
+      <c r="B3" s="370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="371"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="368" t="s">
+      <c r="H3" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="368"/>
+      <c r="I3" s="372"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="364" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="333" t="s">
+      <c r="R3" s="337" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4426,14 +5120,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -4443,11 +5137,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="361"/>
+      <c r="P4" s="365"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="334"/>
+      <c r="R4" s="338"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -4762,7 +5456,7 @@
         <v>60674</v>
       </c>
       <c r="P11" s="49">
-        <f t="shared" ref="P11:P32" si="2">N11+M11+L11+I11+C11</f>
+        <f t="shared" ref="P11:P27" si="2">N11+M11+L11+I11+C11</f>
         <v>121023</v>
       </c>
       <c r="Q11" s="45">
@@ -5512,7 +6206,7 @@
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31"/>
       <c r="B28" s="32">
-        <v>44997</v>
+        <v>44938</v>
       </c>
       <c r="C28" s="33">
         <v>4025.53</v>
@@ -5541,12 +6235,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="69">
-        <f t="shared" si="2"/>
-        <v>27736.53</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="0"/>
-        <v>27736.53</v>
+        <v>0</v>
       </c>
       <c r="R28" s="46">
         <v>0</v>
@@ -5560,7 +6253,7 @@
       <c r="C29" s="33">
         <v>200000</v>
       </c>
-      <c r="D29" s="386" t="s">
+      <c r="D29" s="333" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="35"/>
@@ -5584,12 +6277,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="69">
-        <f t="shared" si="2"/>
-        <v>220083.5</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="0"/>
-        <v>220083.5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="46">
         <v>0</v>
@@ -5627,12 +6319,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="69">
-        <f t="shared" si="2"/>
-        <v>22042.710000000003</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="0"/>
-        <v>22042.710000000003</v>
+        <v>0</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -5641,13 +6332,13 @@
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31"/>
       <c r="B31" s="32">
-        <v>44950</v>
+        <v>44945</v>
       </c>
       <c r="C31" s="33">
-        <v>453654.75</v>
-      </c>
-      <c r="D31" s="79" t="s">
-        <v>219</v>
+        <v>45777</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>145</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="36"/>
@@ -5664,12 +6355,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="69">
-        <f t="shared" si="2"/>
-        <v>453654.75</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="0"/>
-        <v>453654.75</v>
+        <v>0</v>
       </c>
       <c r="R31" s="46">
         <v>0</v>
@@ -5681,10 +6371,10 @@
         <v>44950</v>
       </c>
       <c r="C32" s="33">
-        <v>204403.20000000001</v>
-      </c>
-      <c r="D32" s="81" t="s">
-        <v>220</v>
+        <v>453654.75</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>219</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36"/>
@@ -5701,12 +6391,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="69">
-        <f t="shared" si="2"/>
-        <v>204403.20000000001</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="0"/>
-        <v>204403.20000000001</v>
+        <v>0</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -5714,9 +6403,15 @@
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="32">
+        <v>44950</v>
+      </c>
+      <c r="C33" s="33">
+        <v>204403.20000000001</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>220</v>
+      </c>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
@@ -5725,7 +6420,7 @@
       <c r="J33" s="74">
         <v>44932</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="335" t="s">
         <v>215</v>
       </c>
       <c r="L33" s="84">
@@ -5750,22 +6445,28 @@
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="32">
+        <v>44950</v>
+      </c>
+      <c r="C34" s="33">
+        <v>6811.81</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>227</v>
+      </c>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="74">
-        <v>44938</v>
-      </c>
-      <c r="K34" s="85" t="s">
-        <v>216</v>
+        <v>44932</v>
+      </c>
+      <c r="K34" s="334" t="s">
+        <v>224</v>
       </c>
       <c r="L34" s="49">
-        <v>18328</v>
+        <v>4363.07</v>
       </c>
       <c r="M34" s="42">
         <v>0</v>
@@ -5798,13 +6499,13 @@
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="87">
-        <v>44944</v>
+        <v>44938</v>
       </c>
       <c r="K35" s="88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" s="89">
-        <v>7271.18</v>
+        <v>18328</v>
       </c>
       <c r="M35" s="42">
         <v>0</v>
@@ -5834,13 +6535,13 @@
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
       <c r="J36" s="74">
-        <v>44952</v>
-      </c>
-      <c r="K36" s="85" t="s">
-        <v>217</v>
+        <v>44938</v>
+      </c>
+      <c r="K36" s="95" t="s">
+        <v>225</v>
       </c>
       <c r="L36" s="49">
-        <v>8321.48</v>
+        <v>1856</v>
       </c>
       <c r="M36" s="42">
         <v>0</v>
@@ -5869,9 +6570,15 @@
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="49"/>
+      <c r="J37" s="82">
+        <v>44943</v>
+      </c>
+      <c r="K37" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="49">
+        <v>512</v>
+      </c>
       <c r="M37" s="42">
         <v>0</v>
       </c>
@@ -5899,9 +6606,15 @@
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="49"/>
+      <c r="J38" s="74">
+        <v>44943</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" s="49">
+        <v>6960</v>
+      </c>
       <c r="M38" s="42">
         <v>0</v>
       </c>
@@ -5929,9 +6642,15 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="49"/>
+      <c r="J39" s="74">
+        <v>44944</v>
+      </c>
+      <c r="K39" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="49">
+        <v>7271.18</v>
+      </c>
       <c r="M39" s="42">
         <v>0</v>
       </c>
@@ -5959,9 +6678,15 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="74">
+        <v>44950</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="49">
+        <v>2320</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
@@ -5989,9 +6714,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="74">
+        <v>44950</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="L41" s="49">
+        <v>1232.79</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -6019,9 +6750,15 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="74">
+        <v>44952</v>
+      </c>
+      <c r="K42" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="L42" s="49">
+        <v>8321.48</v>
+      </c>
       <c r="M42" s="42">
         <v>0</v>
       </c>
@@ -6049,9 +6786,15 @@
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="74">
+        <v>44952</v>
+      </c>
+      <c r="K43" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="L43" s="49">
+        <v>400000</v>
+      </c>
       <c r="M43" s="42">
         <v>0</v>
       </c>
@@ -6079,9 +6822,15 @@
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="74">
+        <v>44953</v>
+      </c>
+      <c r="K44" s="125" t="s">
+        <v>230</v>
+      </c>
+      <c r="L44" s="49">
+        <v>398750</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -6227,21 +6976,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="344">
+      <c r="M49" s="348">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="344">
+      <c r="N49" s="348">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4164902.15</v>
-      </c>
-      <c r="Q49" s="356">
+        <v>3236981.46</v>
+      </c>
+      <c r="Q49" s="360">
         <f>SUM(Q5:Q40)</f>
-        <v>927721.69</v>
+        <v>-199</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -6260,10 +7009,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="345"/>
-      <c r="N50" s="345"/>
+      <c r="M50" s="349"/>
+      <c r="N50" s="349"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="357"/>
+      <c r="Q50" s="361"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -6318,15 +7067,15 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="358">
+      <c r="M53" s="362">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="359"/>
+      <c r="N53" s="363"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
-    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31"/>
       <c r="B54" s="32"/>
       <c r="C54" s="93"/>
@@ -6344,7 +7093,7 @@
       <c r="P54" s="44"/>
       <c r="Q54" s="19"/>
     </row>
-    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
       <c r="B55" s="32"/>
       <c r="C55" s="93"/>
@@ -6362,7 +7111,7 @@
       <c r="P55" s="44"/>
       <c r="Q55" s="19"/>
     </row>
-    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
       <c r="B56" s="32"/>
       <c r="C56" s="93"/>
@@ -6380,7 +7129,7 @@
       <c r="P56" s="44"/>
       <c r="Q56" s="19"/>
     </row>
-    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
       <c r="B57" s="32"/>
       <c r="C57" s="93"/>
@@ -6398,7 +7147,7 @@
       <c r="P57" s="44"/>
       <c r="Q57" s="19"/>
     </row>
-    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31"/>
       <c r="B58" s="32"/>
       <c r="C58" s="93"/>
@@ -6416,7 +7165,7 @@
       <c r="P58" s="44"/>
       <c r="Q58" s="19"/>
     </row>
-    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31"/>
       <c r="B59" s="32"/>
       <c r="C59" s="93"/>
@@ -6434,7 +7183,7 @@
       <c r="P59" s="44"/>
       <c r="Q59" s="19"/>
     </row>
-    <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31"/>
       <c r="B60" s="32"/>
       <c r="C60" s="93"/>
@@ -6452,7 +7201,7 @@
       <c r="P60" s="44"/>
       <c r="Q60" s="19"/>
     </row>
-    <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="32"/>
       <c r="C61" s="93"/>
@@ -6470,7 +7219,7 @@
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31"/>
       <c r="B62" s="32"/>
       <c r="C62" s="122"/>
@@ -6488,7 +7237,7 @@
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="18.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31"/>
       <c r="B63" s="32"/>
       <c r="C63" s="124"/>
@@ -6506,7 +7255,7 @@
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="31"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
@@ -6524,7 +7273,7 @@
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
-    <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31"/>
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
@@ -6542,7 +7291,7 @@
       <c r="P65" s="44"/>
       <c r="Q65" s="19"/>
     </row>
-    <row r="66" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31"/>
       <c r="B66" s="32"/>
       <c r="C66" s="33"/>
@@ -6560,7 +7309,7 @@
       <c r="P66" s="44"/>
       <c r="Q66" s="19"/>
     </row>
-    <row r="67" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="31"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
@@ -6578,7 +7327,7 @@
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="31"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
@@ -6705,7 +7454,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>1182709.1300000001</v>
+        <v>1235297.9400000002</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -6729,7 +7478,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>683652.18</v>
+        <v>1499646.04</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -6747,50 +7496,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="352" t="s">
+      <c r="H77" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="353"/>
+      <c r="I77" s="357"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="354">
+      <c r="K77" s="358">
         <f>I75+L75</f>
-        <v>736963.18</v>
-      </c>
-      <c r="L77" s="355"/>
+        <v>1552957.04</v>
+      </c>
+      <c r="L77" s="359"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="346" t="s">
+      <c r="D78" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="346"/>
+      <c r="E78" s="350"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>745574.68999999971</v>
+        <v>-123007.98000000021</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="347" t="s">
+      <c r="D79" s="351" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="347"/>
+      <c r="E79" s="351"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="348" t="s">
+      <c r="I79" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="349"/>
-      <c r="K79" s="350">
+      <c r="J79" s="353"/>
+      <c r="K79" s="354">
         <f>F81+F82+F83</f>
-        <v>2808538.2799999993</v>
-      </c>
-      <c r="L79" s="350"/>
+        <v>1939955.6099999996</v>
+      </c>
+      <c r="L79" s="354"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -6824,18 +7573,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-839071.79000000027</v>
+        <v>-1707654.4600000002</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="351">
+      <c r="K81" s="355">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="350"/>
+      <c r="L81" s="354"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -6852,22 +7601,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="339" t="s">
+      <c r="D83" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="340"/>
+      <c r="E83" s="344"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="387" t="s">
+      <c r="I83" s="345" t="s">
         <v>221</v>
       </c>
-      <c r="J83" s="388"/>
-      <c r="K83" s="389">
+      <c r="J83" s="346"/>
+      <c r="K83" s="347">
         <f>K79+K81</f>
-        <v>-636866.7900000005</v>
-      </c>
-      <c r="L83" s="389"/>
+        <v>-1505449.4600000002</v>
+      </c>
+      <c r="L83" s="347"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7010,6 +7759,9 @@
       <c r="F105" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="J33:L44">
+    <sortCondition ref="J33:J44"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -8363,10 +9115,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="369"/>
-      <c r="J36" s="370"/>
-      <c r="K36" s="370"/>
-      <c r="L36" s="371"/>
+      <c r="I36" s="373"/>
+      <c r="J36" s="374"/>
+      <c r="K36" s="374"/>
+      <c r="L36" s="375"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -8389,10 +9141,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="369"/>
-      <c r="J37" s="370"/>
-      <c r="K37" s="370"/>
-      <c r="L37" s="371"/>
+      <c r="I37" s="373"/>
+      <c r="J37" s="374"/>
+      <c r="K37" s="374"/>
+      <c r="L37" s="375"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -8449,10 +9201,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="372" t="s">
+      <c r="I40" s="376" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="373"/>
+      <c r="J40" s="377"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -8471,8 +9223,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="374"/>
-      <c r="J41" s="375"/>
+      <c r="I41" s="378"/>
+      <c r="J41" s="379"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -8491,8 +9243,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="376"/>
-      <c r="J42" s="377"/>
+      <c r="I42" s="380"/>
+      <c r="J42" s="381"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -8996,10 +9748,10 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="378" t="s">
+      <c r="I67" s="382" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="379"/>
+      <c r="J67" s="383"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>102200.40000000001</v>
@@ -9019,11 +9771,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="382" t="s">
+      <c r="G68" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="380"/>
-      <c r="J68" s="381"/>
+      <c r="I68" s="384"/>
+      <c r="J68" s="385"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9034,7 +9786,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="383"/>
+      <c r="G69" s="387"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -9641,11 +10393,11 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9671,23 +10423,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="362"/>
-      <c r="C1" s="364" t="s">
+      <c r="B1" s="366"/>
+      <c r="C1" s="368" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="363"/>
+      <c r="B2" s="367"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -9697,24 +10449,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="366" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="367"/>
+      <c r="B3" s="370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="371"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="368" t="s">
+      <c r="H3" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="368"/>
+      <c r="I3" s="372"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="360" t="s">
+      <c r="P3" s="364" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="333" t="s">
+      <c r="R3" s="337" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9729,14 +10481,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -9746,11 +10498,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="361"/>
+      <c r="P4" s="365"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="334"/>
+      <c r="R4" s="338"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11582,9 +12334,15 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="32">
+        <v>44971</v>
+      </c>
+      <c r="C46" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D46" s="114" t="s">
+        <v>233</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
@@ -11618,9 +12376,15 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="102"/>
+      <c r="B47" s="32">
+        <v>44972</v>
+      </c>
+      <c r="C47" s="93">
+        <v>102381</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>233</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
@@ -11654,17 +12418,29 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="102"/>
+      <c r="B48" s="32">
+        <v>44972</v>
+      </c>
+      <c r="C48" s="93">
+        <v>130732.8</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>235</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="74">
+        <v>44958</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="L48" s="49">
+        <v>7344.44</v>
+      </c>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
@@ -11679,22 +12455,34 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="32">
+        <v>44984</v>
+      </c>
+      <c r="C49" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>237</v>
+      </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="344">
+      <c r="J49" s="74">
+        <v>44967</v>
+      </c>
+      <c r="K49" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="L49" s="49">
+        <v>1856</v>
+      </c>
+      <c r="M49" s="348">
         <f>SUM(M5:M40)</f>
         <v>1813712.8699999999</v>
       </c>
-      <c r="N49" s="344">
+      <c r="N49" s="348">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -11702,7 +12490,7 @@
         <f>SUM(P5:P40)</f>
         <v>3805932.8699999996</v>
       </c>
-      <c r="Q49" s="356">
+      <c r="Q49" s="360">
         <f>SUM(Q5:Q40)</f>
         <v>-151621.13</v>
       </c>
@@ -11712,21 +12500,33 @@
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="109"/>
+      <c r="B50" s="32">
+        <v>44987</v>
+      </c>
+      <c r="C50" s="93">
+        <v>121132.8</v>
+      </c>
+      <c r="D50" s="109" t="s">
+        <v>233</v>
+      </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="345"/>
-      <c r="N50" s="345"/>
+      <c r="J50" s="87">
+        <v>44971</v>
+      </c>
+      <c r="K50" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="L50" s="89">
+        <v>4698</v>
+      </c>
+      <c r="M50" s="349"/>
+      <c r="N50" s="349"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="357"/>
+      <c r="Q50" s="361"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -11742,9 +12542,15 @@
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="74">
+        <v>44974</v>
+      </c>
+      <c r="K51" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="L51" s="49">
+        <v>28000</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -11760,9 +12566,15 @@
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="49"/>
+      <c r="J52" s="74">
+        <v>44977</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="L52" s="49">
+        <v>8178</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -11778,14 +12590,20 @@
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="358">
+      <c r="J53" s="74">
+        <v>44977</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" s="49">
+        <v>3340</v>
+      </c>
+      <c r="M53" s="362">
         <f>M49+N49</f>
         <v>3128649.87</v>
       </c>
-      <c r="N53" s="359"/>
+      <c r="N53" s="363"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -11799,9 +12617,15 @@
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="74">
+        <v>44980</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="L54" s="49">
+        <v>1381.27</v>
+      </c>
       <c r="M54" s="113"/>
       <c r="N54" s="113"/>
       <c r="P54" s="44"/>
@@ -11817,9 +12641,15 @@
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="117"/>
+      <c r="J55" s="74">
+        <v>44984</v>
+      </c>
+      <c r="K55" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="L55" s="49">
+        <v>2320</v>
+      </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
       <c r="P55" s="44"/>
@@ -11835,9 +12665,15 @@
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="68"/>
+      <c r="J56" s="118">
+        <v>44985</v>
+      </c>
+      <c r="K56" s="336" t="s">
+        <v>238</v>
+      </c>
+      <c r="L56" s="68">
+        <v>5104</v>
+      </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
       <c r="P56" s="44"/>
@@ -11853,9 +12689,15 @@
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="121"/>
-      <c r="L57" s="84"/>
+      <c r="J57" s="120">
+        <v>44988</v>
+      </c>
+      <c r="K57" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="L57" s="84">
+        <v>48121.13</v>
+      </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
       <c r="P57" s="44"/>
@@ -12168,7 +13010,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>563153.5</v>
+        <v>1317400.1000000001</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -12192,7 +13034,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>213560.87</v>
+        <v>323903.71000000002</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -12210,50 +13052,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="352" t="s">
+      <c r="H77" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="353"/>
+      <c r="I77" s="357"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="354">
+      <c r="K77" s="358">
         <f>I75+L75</f>
-        <v>289436.37</v>
-      </c>
-      <c r="L77" s="355"/>
+        <v>399779.21</v>
+      </c>
+      <c r="L77" s="359"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="346" t="s">
+      <c r="D78" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="346"/>
+      <c r="E78" s="350"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>3088197.13</v>
+        <v>2223607.69</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="347" t="s">
+      <c r="D79" s="351" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="347"/>
+      <c r="E79" s="351"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="348" t="s">
+      <c r="I79" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="349"/>
-      <c r="K79" s="350">
+      <c r="J79" s="353"/>
+      <c r="K79" s="354">
         <f>F81+F82+F83</f>
-        <v>1485884.46</v>
-      </c>
-      <c r="L79" s="350"/>
+        <v>621295.02</v>
+      </c>
+      <c r="L79" s="354"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -12287,18 +13129,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1257347.46</v>
+        <v>392758.02</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="351">
+      <c r="K81" s="355">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="350"/>
+      <c r="L81" s="354"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -12315,22 +13157,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="339" t="s">
+      <c r="D83" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="340"/>
+      <c r="E83" s="344"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="341" t="s">
+      <c r="I83" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="342"/>
-      <c r="K83" s="343">
+      <c r="J83" s="389"/>
+      <c r="K83" s="390">
         <f>K79+K81</f>
-        <v>-2018293.6099999999</v>
-      </c>
-      <c r="L83" s="343"/>
+        <v>-2882883.05</v>
+      </c>
+      <c r="L83" s="390"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12473,6 +13315,9 @@
       <c r="F105" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="J46:L56">
+    <sortCondition ref="J46:J56"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
@@ -12511,8 +13356,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13487,10 +14332,10 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="369"/>
-      <c r="J36" s="370"/>
-      <c r="K36" s="370"/>
-      <c r="L36" s="371"/>
+      <c r="I36" s="373"/>
+      <c r="J36" s="374"/>
+      <c r="K36" s="374"/>
+      <c r="L36" s="375"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -13513,10 +14358,10 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="369"/>
-      <c r="J37" s="370"/>
-      <c r="K37" s="370"/>
-      <c r="L37" s="371"/>
+      <c r="I37" s="373"/>
+      <c r="J37" s="374"/>
+      <c r="K37" s="374"/>
+      <c r="L37" s="375"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -13579,10 +14424,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="372" t="s">
+      <c r="I40" s="376" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="373"/>
+      <c r="J40" s="377"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -13601,8 +14446,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="374"/>
-      <c r="J41" s="375"/>
+      <c r="I41" s="378"/>
+      <c r="J41" s="379"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -13621,8 +14466,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="376"/>
-      <c r="J42" s="377"/>
+      <c r="I42" s="380"/>
+      <c r="J42" s="381"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -14126,10 +14971,10 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="378" t="s">
+      <c r="I67" s="382" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="379"/>
+      <c r="J67" s="383"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -14149,11 +14994,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="382" t="s">
+      <c r="G68" s="386" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="384"/>
-      <c r="J68" s="385"/>
+      <c r="I68" s="391"/>
+      <c r="J68" s="392"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -14164,7 +15009,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="383"/>
+      <c r="G69" s="387"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -14720,25 +15565,4618 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="151" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="366"/>
+      <c r="C1" s="368" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
+      <c r="J1" s="369"/>
+      <c r="K1" s="369"/>
+      <c r="L1" s="369"/>
+      <c r="M1" s="369"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="367"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="371"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="372" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="372"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="P3" s="364" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>3504178.07</v>
+      </c>
+      <c r="D4" s="24">
+        <v>44955</v>
+      </c>
+      <c r="E4" s="339" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="342"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="365"/>
+      <c r="Q4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="338"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32">
+        <v>44989</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35">
+        <v>44989</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38">
+        <v>44989</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="411"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="42">
+        <v>0</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="45">
+        <f t="shared" ref="Q5:Q47" si="0">P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32">
+        <v>44990</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="35">
+        <v>44990</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38">
+        <v>44990</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="42">
+        <v>0</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32">
+        <v>44991</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="35">
+        <v>44991</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38">
+        <v>44991</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="42">
+        <v>0</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0</v>
+      </c>
+      <c r="P7" s="49">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32">
+        <v>44992</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="35">
+        <v>44992</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38">
+        <v>44992</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
+        <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32">
+        <v>44993</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="35">
+        <v>44993</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38">
+        <v>44993</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0</v>
+      </c>
+      <c r="P9" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32">
+        <v>44994</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="35">
+        <v>44994</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38">
+        <v>44994</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="43">
+        <v>0</v>
+      </c>
+      <c r="P10" s="49">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32">
+        <v>44995</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="35">
+        <v>44995</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38">
+        <v>44995</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="42">
+        <v>0</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0</v>
+      </c>
+      <c r="P11" s="49">
+        <f t="shared" ref="P11:P40" si="2">N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32">
+        <v>44996</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="35">
+        <v>44996</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38">
+        <v>44996</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="42">
+        <v>0</v>
+      </c>
+      <c r="N12" s="43">
+        <v>0</v>
+      </c>
+      <c r="O12" s="192"/>
+      <c r="P12" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32">
+        <v>44997</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="35">
+        <v>44997</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38">
+        <v>44997</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="400"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="42">
+        <v>0</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0</v>
+      </c>
+      <c r="O13" s="192"/>
+      <c r="P13" s="49">
+        <f>N13+M13+L13+I13+C13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32">
+        <v>44998</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="35">
+        <v>44998</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38">
+        <v>44998</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="42">
+        <v>0</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0</v>
+      </c>
+      <c r="O14" s="193"/>
+      <c r="P14" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="35">
+        <v>44999</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38">
+        <v>44999</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="42">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32">
+        <v>45000</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="35">
+        <v>45000</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38">
+        <v>45000</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="42">
+        <v>0</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0</v>
+      </c>
+      <c r="P16" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32">
+        <v>45001</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="35">
+        <v>45001</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38">
+        <v>45001</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="42">
+        <v>0</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0</v>
+      </c>
+      <c r="P17" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32">
+        <v>45002</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="35">
+        <v>45002</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38">
+        <v>45002</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="43">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>0</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32">
+        <v>45003</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="35">
+        <v>45003</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38">
+        <v>45003</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="401"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
+      <c r="N19" s="43">
+        <v>0</v>
+      </c>
+      <c r="P19" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32">
+        <v>45004</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="35">
+        <v>45004</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38">
+        <v>45004</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="42">
+        <v>0</v>
+      </c>
+      <c r="N20" s="43">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32">
+        <v>45005</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="35">
+        <v>45005</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38">
+        <v>45005</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="42">
+        <v>0</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0</v>
+      </c>
+      <c r="P21" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32">
+        <v>45006</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="35">
+        <v>45006</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38">
+        <v>45006</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="402"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="42">
+        <v>0</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0</v>
+      </c>
+      <c r="P22" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="63"/>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32">
+        <v>45007</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="35">
+        <v>45007</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38">
+        <v>45007</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="42">
+        <v>0</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0</v>
+      </c>
+      <c r="P23" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32">
+        <v>45008</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="35">
+        <v>45008</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38">
+        <v>45008</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="42">
+        <v>0</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0</v>
+      </c>
+      <c r="P24" s="49">
+        <f>N24+M24+L24+I24+C24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32">
+        <v>45009</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="35">
+        <v>45009</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38">
+        <v>45009</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="42">
+        <v>0</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0</v>
+      </c>
+      <c r="P25" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32">
+        <v>45010</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="35">
+        <v>45010</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38">
+        <v>45010</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="42">
+        <v>0</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0</v>
+      </c>
+      <c r="P26" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32">
+        <v>45011</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="35">
+        <v>45011</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38">
+        <v>45011</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="393"/>
+      <c r="K27" s="403"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="42">
+        <v>0</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0</v>
+      </c>
+      <c r="P27" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32">
+        <v>45012</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="35">
+        <v>45012</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38">
+        <v>45012</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="394"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="42">
+        <v>0</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0</v>
+      </c>
+      <c r="P28" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32">
+        <v>45013</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="35">
+        <v>45013</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38">
+        <v>45013</v>
+      </c>
+      <c r="I29" s="39"/>
+      <c r="J29" s="395"/>
+      <c r="K29" s="404"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="42">
+        <v>0</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0</v>
+      </c>
+      <c r="P29" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32">
+        <v>45014</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="35">
+        <v>45014</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38">
+        <v>45014</v>
+      </c>
+      <c r="I30" s="39"/>
+      <c r="J30" s="394"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="42">
+        <v>0</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0</v>
+      </c>
+      <c r="P30" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="394"/>
+      <c r="K31" s="405"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="42">
+        <v>0</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0</v>
+      </c>
+      <c r="P31" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="305"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="396"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="42">
+        <v>0</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0</v>
+      </c>
+      <c r="P32" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="394"/>
+      <c r="K33" s="406"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="42">
+        <v>0</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0</v>
+      </c>
+      <c r="P33" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="394"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="42">
+        <v>0</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0</v>
+      </c>
+      <c r="P34" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="42">
+        <v>0</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0</v>
+      </c>
+      <c r="P35" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="394"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="42">
+        <v>0</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0</v>
+      </c>
+      <c r="P36" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="394"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="42">
+        <v>0</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0</v>
+      </c>
+      <c r="P37" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="394"/>
+      <c r="K38" s="407"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="42">
+        <v>0</v>
+      </c>
+      <c r="N38" s="43">
+        <v>0</v>
+      </c>
+      <c r="P38" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="396"/>
+      <c r="K39" s="407"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="42">
+        <v>0</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0</v>
+      </c>
+      <c r="P39" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="42">
+        <v>0</v>
+      </c>
+      <c r="N40" s="43">
+        <v>0</v>
+      </c>
+      <c r="P40" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="394"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="42">
+        <v>0</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0</v>
+      </c>
+      <c r="P41" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="394"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0</v>
+      </c>
+      <c r="P42" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="394"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="42">
+        <v>0</v>
+      </c>
+      <c r="N43" s="43">
+        <v>0</v>
+      </c>
+      <c r="P43" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="394"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="42">
+        <v>0</v>
+      </c>
+      <c r="N44" s="43">
+        <v>0</v>
+      </c>
+      <c r="P44" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="394"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="43">
+        <v>0</v>
+      </c>
+      <c r="P45" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="394"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="43">
+        <v>0</v>
+      </c>
+      <c r="P46" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="394"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="42">
+        <v>0</v>
+      </c>
+      <c r="N47" s="100">
+        <v>0</v>
+      </c>
+      <c r="P47" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="394"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="44"/>
+      <c r="P48" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="108">
+        <v>0</v>
+      </c>
+      <c r="R48" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="394"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="348">
+        <f>SUM(M5:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="348">
+        <f>SUM(N5:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="111">
+        <f>SUM(P5:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="360">
+        <f>SUM(Q5:Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="349"/>
+      <c r="N50" s="349"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="361"/>
+      <c r="R50" s="112">
+        <f>SUM(R5:R49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="394"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="394"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="394"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="362">
+        <f>M49+N49</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="363"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="394"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="394"/>
+      <c r="K55" s="400"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="397"/>
+      <c r="K56" s="408"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="398"/>
+      <c r="K57" s="400"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="398"/>
+      <c r="K58" s="400"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="398"/>
+      <c r="K59" s="400"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="19"/>
+    </row>
+    <row r="60" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="400"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="398"/>
+      <c r="K61" s="400"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="19"/>
+    </row>
+    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="409"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="19"/>
+    </row>
+    <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="398"/>
+      <c r="K63" s="400"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="19"/>
+    </row>
+    <row r="64" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="398"/>
+      <c r="K64" s="409"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="19"/>
+    </row>
+    <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="398"/>
+      <c r="K65" s="400"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="19"/>
+    </row>
+    <row r="66" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="398"/>
+      <c r="K66" s="400"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="19"/>
+    </row>
+    <row r="67" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="398"/>
+      <c r="K67" s="410"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="44"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="136"/>
+      <c r="F71" s="44"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="19"/>
+    </row>
+    <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="44"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="125"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="44"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="19"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="136"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="139"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="141">
+        <f>SUM(C5:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="144">
+        <f>SUM(F5:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="145"/>
+      <c r="H75" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="146">
+        <f>SUM(I5:I68)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="147"/>
+      <c r="K75" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="149">
+        <f>SUM(L5:L73)-L26</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="150"/>
+      <c r="N75" s="150"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="19"/>
+    </row>
+    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="152"/>
+      <c r="B77" s="153"/>
+      <c r="C77" s="1"/>
+      <c r="H77" s="356" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="357"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="358">
+        <f>I75+L75</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="359"/>
+      <c r="M77" s="155"/>
+      <c r="N77" s="155"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="19"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D78" s="350" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="350"/>
+      <c r="F78" s="156">
+        <f>F75-K77-C75</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="157"/>
+      <c r="J78" s="158"/>
+    </row>
+    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D79" s="351" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="351"/>
+      <c r="F79" s="101">
+        <v>-1830849.67</v>
+      </c>
+      <c r="I79" s="352" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="353"/>
+      <c r="K79" s="354">
+        <f>F81+F82+F83</f>
+        <v>-1602312.67</v>
+      </c>
+      <c r="L79" s="354"/>
+      <c r="M79" s="159"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="160"/>
+      <c r="P79" s="159"/>
+      <c r="Q79" s="159"/>
+    </row>
+    <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D80" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="162"/>
+      <c r="F80" s="163">
+        <v>0</v>
+      </c>
+      <c r="I80" s="164"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="167"/>
+      <c r="M80" s="159"/>
+      <c r="N80" s="159"/>
+      <c r="O80" s="160"/>
+      <c r="P80" s="159"/>
+      <c r="Q80" s="159"/>
+    </row>
+    <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="150">
+        <f>SUM(F78:F80)</f>
+        <v>-1830849.67</v>
+      </c>
+      <c r="H81" s="168"/>
+      <c r="I81" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="170"/>
+      <c r="K81" s="355">
+        <f>-C4</f>
+        <v>-3504178.07</v>
+      </c>
+      <c r="L81" s="354"/>
+    </row>
+    <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="152" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="101">
+        <v>228537</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="172">
+        <v>44988</v>
+      </c>
+      <c r="D83" s="343" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="344"/>
+      <c r="F83" s="173">
+        <v>0</v>
+      </c>
+      <c r="I83" s="388" t="s">
+        <v>25</v>
+      </c>
+      <c r="J83" s="389"/>
+      <c r="K83" s="390">
+        <f>K79+K81</f>
+        <v>-5106490.74</v>
+      </c>
+      <c r="L83" s="390"/>
+    </row>
+    <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C84" s="174"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="152"/>
+      <c r="F84" s="176"/>
+      <c r="J84" s="177"/>
+    </row>
+    <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="178"/>
+      <c r="J85" s="178"/>
+      <c r="K85" s="179"/>
+      <c r="L85" s="180"/>
+    </row>
+    <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="181"/>
+      <c r="C86" s="182"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="44"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="178"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="180"/>
+      <c r="M86" s="184"/>
+      <c r="N86" s="152"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="181"/>
+      <c r="C87" s="185"/>
+      <c r="E87" s="44"/>
+      <c r="M87" s="184"/>
+      <c r="N87" s="152"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="181"/>
+      <c r="C88" s="185"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="186"/>
+      <c r="L88" s="187"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="181"/>
+      <c r="C89" s="185"/>
+      <c r="E89" s="44"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="181"/>
+      <c r="C90" s="185"/>
+      <c r="D90" s="188"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="189"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D91" s="188"/>
+      <c r="E91" s="190"/>
+      <c r="F91" s="44"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D92" s="188"/>
+      <c r="E92" s="190"/>
+      <c r="F92" s="44"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D93" s="188"/>
+      <c r="E93" s="190"/>
+      <c r="F93" s="44"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D94" s="188"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="44"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D95" s="188"/>
+      <c r="E95" s="190"/>
+      <c r="F95" s="44"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D96" s="188"/>
+      <c r="E96" s="190"/>
+      <c r="F96" s="44"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D97" s="188"/>
+      <c r="E97" s="190"/>
+      <c r="F97" s="44"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D98" s="188"/>
+      <c r="E98" s="190"/>
+      <c r="F98" s="44"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D99" s="188"/>
+      <c r="E99" s="190"/>
+      <c r="F99" s="44"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D100" s="188"/>
+      <c r="E100" s="190"/>
+      <c r="F100" s="44"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D101" s="188"/>
+      <c r="E101" s="190"/>
+      <c r="F101" s="44"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D102" s="188"/>
+      <c r="E102" s="190"/>
+      <c r="F102" s="44"/>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D103" s="188"/>
+      <c r="E103" s="191"/>
+      <c r="F103" s="189"/>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D104" s="188"/>
+      <c r="E104" s="191"/>
+      <c r="F104" s="189"/>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D105" s="188"/>
+      <c r="E105" s="191"/>
+      <c r="F105" s="189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K81:L81"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="258" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="280" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="271" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="274" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="43.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="195"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="198" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="199" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="208" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="209" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="211" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="213" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="212" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="214" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="215">
+        <v>44989</v>
+      </c>
+      <c r="C3" s="216" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="217">
+        <v>28031.5</v>
+      </c>
+      <c r="E3" s="218"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="219">
+        <f>D3-F3</f>
+        <v>28031.5</v>
+      </c>
+      <c r="I3" s="287"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221">
+        <f>K3-M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="222">
+        <v>44989</v>
+      </c>
+      <c r="C4" s="223" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="101">
+        <v>16713.439999999999</v>
+      </c>
+      <c r="E4" s="224"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="225">
+        <f t="shared" ref="G4:G65" si="0">D4-F4</f>
+        <v>16713.439999999999</v>
+      </c>
+      <c r="H4" s="226"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="227">
+        <f>N3+K4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="222">
+        <v>44989</v>
+      </c>
+      <c r="C5" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="101">
+        <v>38403.300000000003</v>
+      </c>
+      <c r="E5" s="224"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="225">
+        <f t="shared" si="0"/>
+        <v>38403.300000000003</v>
+      </c>
+      <c r="I5" s="287"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="289"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="227">
+        <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="222">
+        <v>44991</v>
+      </c>
+      <c r="C6" s="223" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="101">
+        <v>47508.800000000003</v>
+      </c>
+      <c r="E6" s="224"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="225">
+        <f t="shared" si="0"/>
+        <v>47508.800000000003</v>
+      </c>
+      <c r="I6" s="287"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="289"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="222">
+        <v>44992</v>
+      </c>
+      <c r="C7" s="223" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="101">
+        <v>7298.8</v>
+      </c>
+      <c r="E7" s="224"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="225">
+        <f t="shared" si="0"/>
+        <v>7298.8</v>
+      </c>
+      <c r="I7" s="287"/>
+      <c r="J7" s="288"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="222">
+        <v>44993</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="101">
+        <v>63925.72</v>
+      </c>
+      <c r="E8" s="224"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="225">
+        <f t="shared" si="0"/>
+        <v>63925.72</v>
+      </c>
+      <c r="I8" s="287"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="289"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="222">
+        <v>44994</v>
+      </c>
+      <c r="C9" s="223" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="101">
+        <v>48335.199999999997</v>
+      </c>
+      <c r="E9" s="224"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="225">
+        <f t="shared" si="0"/>
+        <v>48335.199999999997</v>
+      </c>
+      <c r="I9" s="228"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="222">
+        <v>44995</v>
+      </c>
+      <c r="C10" s="223" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="101">
+        <v>29634.58</v>
+      </c>
+      <c r="E10" s="224"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="225">
+        <f t="shared" si="0"/>
+        <v>29634.58</v>
+      </c>
+      <c r="H10" s="226"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="289"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="222">
+        <v>44996</v>
+      </c>
+      <c r="C11" s="223" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="101">
+        <v>50269.72</v>
+      </c>
+      <c r="E11" s="224"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="225">
+        <f t="shared" si="0"/>
+        <v>50269.72</v>
+      </c>
+      <c r="I11" s="228"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="222">
+        <v>44998</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="101">
+        <v>207174.23</v>
+      </c>
+      <c r="E12" s="224"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="225">
+        <f t="shared" si="0"/>
+        <v>207174.23</v>
+      </c>
+      <c r="I12" s="228"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="222">
+        <v>44999</v>
+      </c>
+      <c r="C13" s="223" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="101">
+        <v>101397.09</v>
+      </c>
+      <c r="E13" s="224"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="225">
+        <f t="shared" si="0"/>
+        <v>101397.09</v>
+      </c>
+      <c r="I13" s="287"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="222">
+        <v>45000</v>
+      </c>
+      <c r="C14" s="223" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="101">
+        <v>94085.5</v>
+      </c>
+      <c r="E14" s="224"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="225">
+        <f t="shared" si="0"/>
+        <v>94085.5</v>
+      </c>
+      <c r="I14" s="287"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="222">
+        <v>45001</v>
+      </c>
+      <c r="C15" s="223" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="101">
+        <v>13348.5</v>
+      </c>
+      <c r="E15" s="224"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="225">
+        <f t="shared" si="0"/>
+        <v>13348.5</v>
+      </c>
+      <c r="I15" s="228"/>
+      <c r="J15" s="286"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="220"/>
+      <c r="N15" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="222">
+        <v>45002</v>
+      </c>
+      <c r="C16" s="223" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="101">
+        <v>97253.73</v>
+      </c>
+      <c r="E16" s="224"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="225">
+        <f t="shared" si="0"/>
+        <v>97253.73</v>
+      </c>
+      <c r="I16" s="287"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="222">
+        <v>45003</v>
+      </c>
+      <c r="C17" s="223" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="101">
+        <v>39552.720000000001</v>
+      </c>
+      <c r="E17" s="224"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="225">
+        <f t="shared" si="0"/>
+        <v>39552.720000000001</v>
+      </c>
+      <c r="I17" s="228"/>
+      <c r="J17" s="286"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="222">
+        <v>45005</v>
+      </c>
+      <c r="C18" s="223" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="101">
+        <v>108979.1</v>
+      </c>
+      <c r="E18" s="224"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="225">
+        <f t="shared" si="0"/>
+        <v>108979.1</v>
+      </c>
+      <c r="I18" s="228"/>
+      <c r="J18" s="286"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="222">
+        <v>45006</v>
+      </c>
+      <c r="C19" s="223" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="101">
+        <v>16327.98</v>
+      </c>
+      <c r="E19" s="224"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="225">
+        <f t="shared" si="0"/>
+        <v>16327.98</v>
+      </c>
+      <c r="I19" s="287"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="222">
+        <v>45007</v>
+      </c>
+      <c r="C20" s="223" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="101">
+        <v>4721.6000000000004</v>
+      </c>
+      <c r="E20" s="224"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="225">
+        <f t="shared" si="0"/>
+        <v>4721.6000000000004</v>
+      </c>
+      <c r="I20" s="228"/>
+      <c r="J20" s="286"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="231"/>
+      <c r="N20" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="222">
+        <v>45007</v>
+      </c>
+      <c r="C21" s="223" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="101">
+        <v>2870.4</v>
+      </c>
+      <c r="E21" s="224"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="225">
+        <f t="shared" si="0"/>
+        <v>2870.4</v>
+      </c>
+      <c r="I21" s="287"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="289"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="231"/>
+      <c r="N21" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="222">
+        <v>45008</v>
+      </c>
+      <c r="C22" s="223" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="101">
+        <v>62616.82</v>
+      </c>
+      <c r="E22" s="224"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="225">
+        <f t="shared" si="0"/>
+        <v>62616.82</v>
+      </c>
+      <c r="H22" s="232"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="290"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="231"/>
+      <c r="N22" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="222">
+        <v>45009</v>
+      </c>
+      <c r="C23" s="223" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="101">
+        <v>13706.8</v>
+      </c>
+      <c r="E23" s="224"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="225">
+        <f t="shared" si="0"/>
+        <v>13706.8</v>
+      </c>
+      <c r="H23" s="233"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="290"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="222">
+        <v>45010</v>
+      </c>
+      <c r="C24" s="223" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="101">
+        <v>60713.06</v>
+      </c>
+      <c r="E24" s="224"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="225">
+        <f t="shared" si="0"/>
+        <v>60713.06</v>
+      </c>
+      <c r="H24" s="233"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="222">
+        <v>45012</v>
+      </c>
+      <c r="C25" s="223" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="101">
+        <v>89935.7</v>
+      </c>
+      <c r="E25" s="224"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="225">
+        <f t="shared" si="0"/>
+        <v>89935.7</v>
+      </c>
+      <c r="H25" s="234"/>
+      <c r="I25" s="235"/>
+      <c r="J25" s="290"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="222">
+        <v>45012</v>
+      </c>
+      <c r="C26" s="223" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="101">
+        <v>6879.4</v>
+      </c>
+      <c r="E26" s="224"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="225">
+        <f t="shared" si="0"/>
+        <v>6879.4</v>
+      </c>
+      <c r="H26" s="234"/>
+      <c r="I26" s="235"/>
+      <c r="J26" s="290"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="222">
+        <v>45012</v>
+      </c>
+      <c r="C27" s="223" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="101">
+        <v>5900.8</v>
+      </c>
+      <c r="E27" s="224"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="225">
+        <f t="shared" si="0"/>
+        <v>5900.8</v>
+      </c>
+      <c r="H27" s="234"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="222">
+        <v>45013</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="101">
+        <v>15687.72</v>
+      </c>
+      <c r="E28" s="224"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="225">
+        <f t="shared" si="0"/>
+        <v>15687.72</v>
+      </c>
+      <c r="H28" s="234"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="281"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="222">
+        <v>45013</v>
+      </c>
+      <c r="C29" s="223" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="101">
+        <v>3153.6</v>
+      </c>
+      <c r="E29" s="224"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="225">
+        <f t="shared" si="0"/>
+        <v>3153.6</v>
+      </c>
+      <c r="H29" s="234"/>
+      <c r="I29" s="277"/>
+      <c r="J29" s="281"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="234"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="281"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="222"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="233"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="224"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="222"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="233"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="224"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="222"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="224"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="222"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="222"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="235"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="237"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="222"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="373"/>
+      <c r="J36" s="374"/>
+      <c r="K36" s="374"/>
+      <c r="L36" s="375"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="222"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="373"/>
+      <c r="J37" s="374"/>
+      <c r="K37" s="374"/>
+      <c r="L37" s="375"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="222"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="228"/>
+      <c r="J38" s="229"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="222"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="239"/>
+      <c r="J39" s="240"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="222"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="376" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="377"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="238"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="241"/>
+      <c r="C41" s="242"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="378"/>
+      <c r="J41" s="379"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="238"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="241"/>
+      <c r="C42" s="242"/>
+      <c r="D42" s="243"/>
+      <c r="E42" s="238"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="380"/>
+      <c r="J42" s="381"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="238"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="244"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="238"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="246"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="239"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="246"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="238"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="238"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="247"/>
+      <c r="C46" s="248"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="239"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="238"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="239"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="239"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="238"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="239"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="238"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="239"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="238"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="239"/>
+      <c r="C49" s="249"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="239"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="251"/>
+      <c r="J50" s="252"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="177"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="239"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="250"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="251"/>
+      <c r="J51" s="252"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="177"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="239"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="250"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="251"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="177"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="239"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="250"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="251"/>
+      <c r="J53" s="252"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="239"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="250"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="251"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="177"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="251"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="251"/>
+      <c r="J55" s="252"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="177"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="239"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="239"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="239"/>
+      <c r="C57" s="240"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="239"/>
+      <c r="J57" s="240"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="250"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="239"/>
+      <c r="C58" s="240"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="250"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="239"/>
+      <c r="J58" s="240"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="250"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="239"/>
+      <c r="C59" s="240"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="250"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="239"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="250"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="239"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="250"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="239"/>
+      <c r="J60" s="240"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="250"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="239"/>
+      <c r="C61" s="240"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="250"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="239"/>
+      <c r="J61" s="240"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="250"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="239"/>
+      <c r="C62" s="240"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="250"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="239"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="250"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="239"/>
+      <c r="C63" s="240"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="250"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="239"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="250"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="239"/>
+      <c r="C64" s="240"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="250"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="239"/>
+      <c r="J64" s="240"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="250"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="239"/>
+      <c r="C65" s="240"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="250"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="239"/>
+      <c r="J65" s="240"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="250"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="227">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="253"/>
+      <c r="C66" s="254"/>
+      <c r="D66" s="44">
+        <v>0</v>
+      </c>
+      <c r="E66" s="255"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="227">
+        <v>0</v>
+      </c>
+      <c r="I66" s="253"/>
+      <c r="J66" s="257"/>
+      <c r="K66" s="256">
+        <v>0</v>
+      </c>
+      <c r="L66" s="255"/>
+      <c r="M66" s="256"/>
+      <c r="N66" s="227"/>
+    </row>
+    <row r="67" spans="2:14" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="259"/>
+      <c r="D67" s="260">
+        <f>SUM(D3:D66)</f>
+        <v>1274425.81</v>
+      </c>
+      <c r="E67" s="261"/>
+      <c r="F67" s="262">
+        <f>SUM(F3:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="263">
+        <f>SUM(G3:G66)</f>
+        <v>1274425.81</v>
+      </c>
+      <c r="I67" s="382" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="383"/>
+      <c r="K67" s="264">
+        <f>SUM(K3:K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="265"/>
+      <c r="M67" s="266">
+        <f>SUM(M3:M66)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="263">
+        <f>N66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="267"/>
+      <c r="D68" s="268"/>
+      <c r="E68" s="269"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="386" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="391"/>
+      <c r="J68" s="392"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="269"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="270"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="269"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="387"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="294"/>
+      <c r="K69" s="295"/>
+      <c r="L69" s="296"/>
+      <c r="M69" s="187"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="272"/>
+      <c r="C70" s="273"/>
+      <c r="D70" s="108"/>
+      <c r="F70"/>
+      <c r="I70" s="293"/>
+      <c r="J70" s="297"/>
+      <c r="K70" s="186"/>
+      <c r="L70" s="298"/>
+      <c r="M70" s="299"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="272"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="108"/>
+      <c r="F71"/>
+      <c r="H71" s="233"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="301"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="302"/>
+      <c r="M71" s="299"/>
+    </row>
+    <row r="72" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="275"/>
+      <c r="E72" s="276"/>
+      <c r="F72"/>
+      <c r="H72" s="233"/>
+      <c r="I72" s="303"/>
+      <c r="J72" s="191"/>
+      <c r="K72" s="304"/>
+      <c r="L72" s="304"/>
+      <c r="M72" s="299"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="275"/>
+      <c r="E73" s="276"/>
+      <c r="F73"/>
+      <c r="H73" s="233"/>
+      <c r="I73" s="303"/>
+      <c r="J73" s="191"/>
+      <c r="K73" s="304"/>
+      <c r="L73" s="304"/>
+      <c r="M73" s="299"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="275"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="276"/>
+      <c r="F74"/>
+      <c r="H74" s="233"/>
+      <c r="I74" s="303"/>
+      <c r="J74" s="191"/>
+      <c r="K74" s="304"/>
+      <c r="L74" s="304"/>
+      <c r="M74" s="299"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="275"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="276"/>
+      <c r="H75" s="233"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="188"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="302"/>
+      <c r="M75" s="299"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="275"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="276"/>
+      <c r="H76" s="233"/>
+      <c r="I76" s="188"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="302"/>
+      <c r="M76" s="299"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C77" s="275"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="276"/>
+      <c r="I77" s="299"/>
+      <c r="J77" s="299"/>
+      <c r="K77" s="299"/>
+      <c r="L77" s="298"/>
+      <c r="M77" s="299"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="275"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="276"/>
+      <c r="I78" s="299"/>
+      <c r="J78" s="299"/>
+      <c r="K78" s="299"/>
+      <c r="L78" s="298"/>
+      <c r="M78" s="299"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C79" s="275"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="276"/>
+      <c r="I79" s="299"/>
+      <c r="J79" s="299"/>
+      <c r="K79" s="299"/>
+      <c r="L79" s="298"/>
+      <c r="M79" s="299"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="275"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="276"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="271"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="276"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="271"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="276"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="271"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="276"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="271"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="276"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="271"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="276"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="271"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="276"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="271"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="276"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C88" s="271"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="276"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="271"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="276"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="271"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="276"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="271"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="276"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="271"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="276"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="271"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="276"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C94" s="271"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="276"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C95" s="271"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="276"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C96" s="271"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="276"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C97" s="271"/>
+      <c r="D97" s="189"/>
+      <c r="E97" s="276"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C98" s="271"/>
+      <c r="D98" s="189"/>
+      <c r="E98" s="276"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C99" s="271"/>
+      <c r="D99" s="189"/>
+      <c r="E99" s="276"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" s="271"/>
+      <c r="D100" s="189"/>
+      <c r="E100" s="276"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" s="271"/>
+      <c r="D101" s="189"/>
+      <c r="E101" s="276"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102" s="271"/>
+      <c r="E102" s="276"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" s="271"/>
+      <c r="E103" s="276"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C104" s="271"/>
+      <c r="E104" s="276"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C105" s="271"/>
+      <c r="E105" s="276"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C106" s="271"/>
+      <c r="E106" s="276"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C107" s="271"/>
+      <c r="E107" s="276"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C108" s="271"/>
+      <c r="E108" s="276"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C109" s="271"/>
+      <c r="E109" s="276"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C110" s="271"/>
+      <c r="E110" s="276"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C111" s="271"/>
+      <c r="E111" s="276"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="271"/>
+      <c r="E112" s="276"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" s="271"/>
+      <c r="E113" s="276"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" s="271"/>
+      <c r="E114" s="276"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C115" s="271"/>
+      <c r="E115" s="276"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C116" s="271"/>
+      <c r="E116" s="276"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="271"/>
+      <c r="E117" s="276"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C118" s="271"/>
+      <c r="E118" s="276"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="271"/>
+      <c r="E119" s="276"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="271"/>
+      <c r="E120" s="276"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="271"/>
+      <c r="E121" s="276"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C122" s="271"/>
+      <c r="E122" s="276"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C123" s="271"/>
+      <c r="E123" s="276"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I36:L37"/>
+    <mergeCell ref="I40:J42"/>
+    <mergeCell ref="I67:J68"/>
+    <mergeCell ref="G68:G69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="296">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -829,9 +829,6 @@
     <t>7-ene-2023</t>
   </si>
   <si>
-    <t>30-12-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">EL 26 DE ENERO 2023  SE APLICO CON VALE POR </t>
   </si>
   <si>
@@ -1013,6 +1010,93 @@
   </si>
   <si>
     <t>5412 E</t>
+  </si>
+  <si>
+    <t>1-feb-2023</t>
+  </si>
+  <si>
+    <t>2-feb-2023</t>
+  </si>
+  <si>
+    <t>3-feb-2023</t>
+  </si>
+  <si>
+    <t>4-feb-2023</t>
+  </si>
+  <si>
+    <t>6-feb-2023</t>
+  </si>
+  <si>
+    <t>7-feb-2023</t>
+  </si>
+  <si>
+    <t>8-feb-2023</t>
+  </si>
+  <si>
+    <t>10-feb-2023</t>
+  </si>
+  <si>
+    <t>11-feb-2023</t>
+  </si>
+  <si>
+    <t>13-feb-2023</t>
+  </si>
+  <si>
+    <t>14-feb-2023</t>
+  </si>
+  <si>
+    <t>15-feb-2023</t>
+  </si>
+  <si>
+    <t>17-feb-2023</t>
+  </si>
+  <si>
+    <t>18-feb-2023</t>
+  </si>
+  <si>
+    <t>20-feb-2023</t>
+  </si>
+  <si>
+    <t>21-feb-2023</t>
+  </si>
+  <si>
+    <t>24-feb-2023</t>
+  </si>
+  <si>
+    <t>25-feb-2023</t>
+  </si>
+  <si>
+    <t>27-feb-2023</t>
+  </si>
+  <si>
+    <t>28-feb-2023</t>
+  </si>
+  <si>
+    <t>quesos-pastor-pollo</t>
+  </si>
+  <si>
+    <t>Nomina #9 Y Vac Claudia Mtz</t>
+  </si>
+  <si>
+    <t>quesos-tocineta-chistorra</t>
+  </si>
+  <si>
+    <t>quesos-longaniza-chorizo-salmon-pollo</t>
+  </si>
+  <si>
+    <t>salchicha-pollo-quesos-jamon</t>
+  </si>
+  <si>
+    <t>queso-pollo</t>
+  </si>
+  <si>
+    <t>85-3</t>
+  </si>
+  <si>
+    <t>etiquetas verduras</t>
+  </si>
+  <si>
+    <t>longaniza-pollo-queso</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1470,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1489,6 +1573,12 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="84">
     <border>
@@ -2550,7 +2640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3188,6 +3278,72 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3356,62 +3512,11 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3422,6 +3527,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFF99CC"/>
@@ -5035,8 +5141,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="L31" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5062,23 +5168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="366"/>
-      <c r="C1" s="368" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="369"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5088,24 +5194,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="370" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="371"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="372" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="372"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="364" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="361" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5120,14 +5226,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5137,11 +5243,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="365"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="338"/>
+      <c r="R4" s="362"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -6254,7 +6360,7 @@
         <v>200000</v>
       </c>
       <c r="D29" s="333" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
@@ -6374,7 +6480,7 @@
         <v>453654.75</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36"/>
@@ -6410,7 +6516,7 @@
         <v>204403.20000000001</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
@@ -6418,10 +6524,10 @@
       <c r="H33" s="38"/>
       <c r="I33" s="39"/>
       <c r="J33" s="74">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="K33" s="335" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L33" s="84">
         <v>31059</v>
@@ -6452,7 +6558,7 @@
         <v>6811.81</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
@@ -6463,7 +6569,7 @@
         <v>44932</v>
       </c>
       <c r="K34" s="334" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L34" s="49">
         <v>4363.07</v>
@@ -6502,7 +6608,7 @@
         <v>44938</v>
       </c>
       <c r="K35" s="88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L35" s="89">
         <v>18328</v>
@@ -6538,7 +6644,7 @@
         <v>44938</v>
       </c>
       <c r="K36" s="95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L36" s="49">
         <v>1856</v>
@@ -6574,7 +6680,7 @@
         <v>44943</v>
       </c>
       <c r="K37" s="95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L37" s="49">
         <v>512</v>
@@ -6610,7 +6716,7 @@
         <v>44943</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L38" s="49">
         <v>6960</v>
@@ -6646,7 +6752,7 @@
         <v>44944</v>
       </c>
       <c r="K39" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L39" s="49">
         <v>7271.18</v>
@@ -6682,7 +6788,7 @@
         <v>44950</v>
       </c>
       <c r="K40" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L40" s="49">
         <v>2320</v>
@@ -6718,7 +6824,7 @@
         <v>44950</v>
       </c>
       <c r="K41" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L41" s="49">
         <v>1232.79</v>
@@ -6754,7 +6860,7 @@
         <v>44952</v>
       </c>
       <c r="K42" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L42" s="49">
         <v>8321.48</v>
@@ -6790,7 +6896,7 @@
         <v>44952</v>
       </c>
       <c r="K43" s="125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L43" s="49">
         <v>400000</v>
@@ -6826,7 +6932,7 @@
         <v>44953</v>
       </c>
       <c r="K44" s="125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L44" s="49">
         <v>398750</v>
@@ -6976,11 +7082,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="348">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="348">
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -6988,7 +7094,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="360">
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7009,10 +7115,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="349"/>
-      <c r="N50" s="349"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="361"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7067,11 +7173,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="362">
+      <c r="M53" s="386">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="363"/>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7496,26 +7602,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="356" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="357"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="358">
+      <c r="K77" s="382">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="359"/>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="350" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="350"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7524,22 +7630,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="351" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="351"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="352" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="353"/>
-      <c r="K79" s="354">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
-        <v>1939955.6099999996</v>
-      </c>
-      <c r="L79" s="354"/>
+        <v>1950142.8099999996</v>
+      </c>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7552,7 +7658,7 @@
       </c>
       <c r="E80" s="162"/>
       <c r="F80" s="163">
-        <v>-71084.800000000003</v>
+        <v>-60897.599999999999</v>
       </c>
       <c r="I80" s="164"/>
       <c r="J80" s="165"/>
@@ -7573,18 +7679,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-1707654.4600000002</v>
+        <v>-1697467.2600000002</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="355">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="354"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7601,22 +7707,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="343" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="344"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="345" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" s="346"/>
-      <c r="K83" s="347">
+      <c r="I83" s="369" t="s">
+        <v>220</v>
+      </c>
+      <c r="J83" s="370"/>
+      <c r="K83" s="371">
         <f>K79+K81</f>
-        <v>-1505449.4600000002</v>
-      </c>
-      <c r="L83" s="347"/>
+        <v>-1495262.2600000002</v>
+      </c>
+      <c r="L83" s="371"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7801,10 +7907,10 @@
   <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,8 +8042,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="287" t="s">
-        <v>206</v>
+      <c r="I4" s="356">
+        <v>44925</v>
       </c>
       <c r="J4" s="288">
         <v>11236</v>
@@ -8208,7 +8314,7 @@
         <v>73262.490000000005</v>
       </c>
       <c r="E11" s="332" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="101">
         <f>55584.1+17678.39</f>
@@ -8369,7 +8475,7 @@
         <v>79966.960000000006</v>
       </c>
       <c r="E15" s="332" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="101">
         <f>79615.61+351.35</f>
@@ -8570,7 +8676,7 @@
         <v>53428.12</v>
       </c>
       <c r="E20" s="332" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="101">
         <f>14697.56+38730.56</f>
@@ -8721,7 +8827,7 @@
         <v>22678.6</v>
       </c>
       <c r="E24" s="332" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="101">
         <f>11490.35+11188.25</f>
@@ -8880,20 +8986,14 @@
         <v>0</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="228" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="286">
-        <v>11442</v>
-      </c>
-      <c r="K28" s="230">
-        <v>9707.2000000000007</v>
-      </c>
+      <c r="I28" s="228"/>
+      <c r="J28" s="286"/>
+      <c r="K28" s="230"/>
       <c r="L28" s="218"/>
       <c r="M28" s="231"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>25520</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -8917,20 +9017,14 @@
         <v>92828.359999999986</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="287" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" s="288">
-        <v>11455</v>
-      </c>
-      <c r="K29" s="289">
-        <v>480</v>
-      </c>
+      <c r="I29" s="287"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="289"/>
       <c r="L29" s="218"/>
       <c r="M29" s="231"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8958,7 +9052,7 @@
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -8987,7 +9081,7 @@
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9016,7 +9110,7 @@
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9044,7 +9138,7 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -9070,7 +9164,7 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9096,7 +9190,7 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9115,14 +9209,14 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="373"/>
-      <c r="J36" s="374"/>
-      <c r="K36" s="374"/>
-      <c r="L36" s="375"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9141,14 +9235,14 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="373"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="375"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9168,7 +9262,7 @@
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9188,7 +9282,7 @@
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9201,16 +9295,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="376" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="377"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9223,14 +9317,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="378"/>
-      <c r="J41" s="379"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9243,14 +9337,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="380"/>
-      <c r="J42" s="381"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9270,7 +9364,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9290,7 +9384,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9310,7 +9404,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9330,7 +9424,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9350,7 +9444,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -9370,7 +9464,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9390,7 +9484,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9410,7 +9504,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9430,7 +9524,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9450,7 +9544,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9470,7 +9564,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9490,7 +9584,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9510,7 +9604,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9530,7 +9624,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9550,7 +9644,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9570,7 +9664,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9590,7 +9684,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9610,7 +9704,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9630,7 +9724,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9650,7 +9744,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9670,7 +9764,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9690,7 +9784,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9710,7 +9804,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>15812.8</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9748,13 +9842,13 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="382" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="383"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>102200.40000000001</v>
+        <v>92013.200000000012</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -9771,11 +9865,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="386" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="384"/>
-      <c r="J68" s="385"/>
+      <c r="I68" s="408"/>
+      <c r="J68" s="409"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9786,7 +9880,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="387"/>
+      <c r="G69" s="411"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -9812,7 +9906,7 @@
       <c r="H71" s="233"/>
       <c r="I71" s="317"/>
       <c r="J71" s="318" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K71" s="189"/>
       <c r="L71" s="302"/>
@@ -9844,7 +9938,7 @@
       <c r="H73" s="233"/>
       <c r="I73" s="320"/>
       <c r="J73" s="310" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K73" s="279"/>
       <c r="L73" s="279"/>
@@ -9863,7 +9957,7 @@
       <c r="H74" s="233"/>
       <c r="I74" s="320"/>
       <c r="J74" s="310" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K74" s="279"/>
       <c r="L74" s="279"/>
@@ -9897,7 +9991,7 @@
       <c r="H76" s="233"/>
       <c r="I76" s="322"/>
       <c r="J76" s="323" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K76" s="324"/>
       <c r="L76" s="325"/>
@@ -10394,10 +10488,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10423,23 +10517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="366"/>
-      <c r="C1" s="368" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="369"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10449,24 +10543,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="370" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="371"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="372" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="372"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="364" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="361" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10481,14 +10575,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10498,11 +10592,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="365"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="338"/>
+      <c r="R4" s="362"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -11949,19 +12043,19 @@
       <c r="K35" s="88"/>
       <c r="L35" s="89"/>
       <c r="M35" s="42">
-        <f>99843+6835.5</f>
-        <v>106678.5</v>
+        <f>99843+6835.5+200</f>
+        <v>106878.5</v>
       </c>
       <c r="N35" s="43">
         <v>5637</v>
       </c>
       <c r="P35" s="69">
         <f t="shared" si="2"/>
-        <v>128582.5</v>
+        <v>128782.5</v>
       </c>
       <c r="Q35" s="285">
         <f t="shared" si="0"/>
-        <v>-1000.5</v>
+        <v>-800.5</v>
       </c>
       <c r="R35" s="46">
         <v>0</v>
@@ -11995,19 +12089,19 @@
       <c r="K36" s="85"/>
       <c r="L36" s="49"/>
       <c r="M36" s="42">
-        <f>223</f>
-        <v>223</v>
+        <f>223+73292</f>
+        <v>73515</v>
       </c>
       <c r="N36" s="43">
         <v>0</v>
       </c>
       <c r="P36" s="69">
         <f t="shared" si="2"/>
-        <v>22711</v>
-      </c>
-      <c r="Q36" s="285">
-        <f t="shared" si="0"/>
-        <v>-73292</v>
+        <v>96003</v>
+      </c>
+      <c r="Q36" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -12041,18 +12135,18 @@
       <c r="K37" s="85"/>
       <c r="L37" s="49"/>
       <c r="M37" s="42">
-        <v>0</v>
+        <v>77333</v>
       </c>
       <c r="N37" s="43">
         <v>6544</v>
       </c>
       <c r="P37" s="69">
         <f t="shared" si="2"/>
-        <v>15423</v>
-      </c>
-      <c r="Q37" s="285">
-        <f t="shared" si="0"/>
-        <v>-77333</v>
+        <v>92756</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -12341,7 +12435,7 @@
         <v>200000</v>
       </c>
       <c r="D46" s="114" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -12352,7 +12446,7 @@
         <v>44956</v>
       </c>
       <c r="K46" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L46" s="49">
         <v>28000</v>
@@ -12383,7 +12477,7 @@
         <v>102381</v>
       </c>
       <c r="D47" s="114" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
@@ -12394,7 +12488,7 @@
         <v>44957</v>
       </c>
       <c r="K47" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L47" s="49">
         <v>7617.72</v>
@@ -12425,7 +12519,7 @@
         <v>130732.8</v>
       </c>
       <c r="D48" s="102" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
@@ -12436,7 +12530,7 @@
         <v>44958</v>
       </c>
       <c r="K48" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L48" s="49">
         <v>7344.44</v>
@@ -12462,7 +12556,7 @@
         <v>200000</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
@@ -12473,26 +12567,26 @@
         <v>44967</v>
       </c>
       <c r="K49" s="85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="348">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
-        <v>1813712.8699999999</v>
-      </c>
-      <c r="N49" s="348">
+        <v>1964537.8699999999</v>
+      </c>
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3805932.8699999996</v>
-      </c>
-      <c r="Q49" s="360">
+        <v>3956757.8699999996</v>
+      </c>
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
-        <v>-151621.13</v>
+        <v>-796.13000000000466</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -12507,7 +12601,7 @@
         <v>121132.8</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
@@ -12518,15 +12612,15 @@
         <v>44971</v>
       </c>
       <c r="K50" s="88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="349"/>
-      <c r="N50" s="349"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="361"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12546,7 +12640,7 @@
         <v>44974</v>
       </c>
       <c r="K51" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L51" s="49">
         <v>28000</v>
@@ -12570,7 +12664,7 @@
         <v>44977</v>
       </c>
       <c r="K52" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L52" s="49">
         <v>8178</v>
@@ -12594,16 +12688,16 @@
         <v>44977</v>
       </c>
       <c r="K53" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="362">
+      <c r="M53" s="386">
         <f>M49+N49</f>
-        <v>3128649.87</v>
-      </c>
-      <c r="N53" s="363"/>
+        <v>3279474.87</v>
+      </c>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -12621,7 +12715,7 @@
         <v>44980</v>
       </c>
       <c r="K54" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L54" s="49">
         <v>1381.27</v>
@@ -12645,7 +12739,7 @@
         <v>44984</v>
       </c>
       <c r="K55" s="121" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L55" s="49">
         <v>2320</v>
@@ -12669,7 +12763,7 @@
         <v>44985</v>
       </c>
       <c r="K56" s="336" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L56" s="68">
         <v>5104</v>
@@ -12693,7 +12787,7 @@
         <v>44988</v>
       </c>
       <c r="K57" s="121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L57" s="84">
         <v>48121.13</v>
@@ -13052,26 +13146,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="356" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="357"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="358">
+      <c r="K77" s="382">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="359"/>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="350" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="350"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13080,22 +13174,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="351" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="351"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="352" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="353"/>
-      <c r="K79" s="354">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="354"/>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13136,11 +13230,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="355">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="354"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13157,22 +13251,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="343" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="344"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="388" t="s">
+      <c r="I83" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="389"/>
-      <c r="K83" s="390">
+      <c r="J83" s="413"/>
+      <c r="K83" s="414">
         <f>K79+K81</f>
         <v>-2882883.05</v>
       </c>
-      <c r="L83" s="390"/>
+      <c r="L83" s="414"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13356,8 +13450,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="F13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13454,14 +13548,20 @@
         <f>D3-F3</f>
         <v>93517.24</v>
       </c>
-      <c r="I3" s="287"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289"/>
+      <c r="I3" s="235" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="290">
+        <v>11442</v>
+      </c>
+      <c r="K3" s="237">
+        <v>9707.2000000000007</v>
+      </c>
       <c r="L3" s="218"/>
       <c r="M3" s="220"/>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>0</v>
+        <v>9707.2000000000007</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -13481,14 +13581,20 @@
         <v>13098.5</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="287"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="289"/>
+      <c r="I4" s="287" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="288">
+        <v>11455</v>
+      </c>
+      <c r="K4" s="289">
+        <v>480</v>
+      </c>
       <c r="L4" s="218"/>
       <c r="M4" s="220"/>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>0</v>
+        <v>10187.200000000001</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13507,14 +13613,20 @@
         <f t="shared" si="0"/>
         <v>63500.3</v>
       </c>
-      <c r="I5" s="287"/>
-      <c r="J5" s="288"/>
-      <c r="K5" s="289"/>
+      <c r="I5" s="355" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="310">
+        <v>11457</v>
+      </c>
+      <c r="K5" s="220">
+        <v>480</v>
+      </c>
       <c r="L5" s="218"/>
       <c r="M5" s="220"/>
       <c r="N5" s="227">
         <f t="shared" ref="N5:N65" si="1">N4+K5-M5</f>
-        <v>0</v>
+        <v>10667.2</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13533,14 +13645,20 @@
         <f t="shared" si="0"/>
         <v>97811.32</v>
       </c>
-      <c r="I6" s="287"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="289"/>
+      <c r="I6" s="355" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="310">
+        <v>11469</v>
+      </c>
+      <c r="K6" s="220">
+        <v>360</v>
+      </c>
       <c r="L6" s="218"/>
       <c r="M6" s="220"/>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11027.2</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13559,14 +13677,20 @@
         <f t="shared" si="0"/>
         <v>23821.599999999999</v>
       </c>
-      <c r="I7" s="287"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="289"/>
+      <c r="I7" s="355" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="310">
+        <v>11483</v>
+      </c>
+      <c r="K7" s="220">
+        <v>3880</v>
+      </c>
       <c r="L7" s="218"/>
       <c r="M7" s="220"/>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14907.2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13585,14 +13709,20 @@
         <f t="shared" si="0"/>
         <v>28550.54</v>
       </c>
-      <c r="I8" s="287"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="289"/>
+      <c r="I8" s="355" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="310">
+        <v>11496</v>
+      </c>
+      <c r="K8" s="220">
+        <v>9763.2000000000007</v>
+      </c>
       <c r="L8" s="218"/>
       <c r="M8" s="220"/>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24670.400000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13611,14 +13741,20 @@
         <f t="shared" si="0"/>
         <v>54776.1</v>
       </c>
-      <c r="I9" s="228"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="230"/>
+      <c r="I9" s="355" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="310">
+        <v>11506</v>
+      </c>
+      <c r="K9" s="220">
+        <v>600</v>
+      </c>
       <c r="L9" s="218"/>
       <c r="M9" s="220"/>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25270.400000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -13638,14 +13774,20 @@
         <v>6216</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="289"/>
+      <c r="I10" s="355" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" s="310">
+        <v>11517</v>
+      </c>
+      <c r="K10" s="220">
+        <v>9568</v>
+      </c>
       <c r="L10" s="218"/>
       <c r="M10" s="220"/>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34838.400000000001</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13664,14 +13806,20 @@
         <f t="shared" si="0"/>
         <v>89707.48</v>
       </c>
-      <c r="I11" s="228"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="230"/>
+      <c r="I11" s="355" t="s">
+        <v>273</v>
+      </c>
+      <c r="J11" s="310">
+        <v>11519</v>
+      </c>
+      <c r="K11" s="220">
+        <v>360</v>
+      </c>
       <c r="L11" s="218"/>
       <c r="M11" s="220"/>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35198.400000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13690,14 +13838,20 @@
         <f t="shared" si="0"/>
         <v>44780.82</v>
       </c>
-      <c r="I12" s="228"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="230"/>
+      <c r="I12" s="355" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="310">
+        <v>11550</v>
+      </c>
+      <c r="K12" s="220">
+        <v>17701.599999999999</v>
+      </c>
       <c r="L12" s="218"/>
       <c r="M12" s="220"/>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52900</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13716,14 +13870,20 @@
         <f t="shared" si="0"/>
         <v>21573</v>
       </c>
-      <c r="I13" s="287"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="289"/>
+      <c r="I13" s="355" t="s">
+        <v>275</v>
+      </c>
+      <c r="J13" s="310">
+        <v>11554</v>
+      </c>
+      <c r="K13" s="220">
+        <v>600</v>
+      </c>
       <c r="L13" s="218"/>
       <c r="M13" s="220"/>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13742,14 +13902,20 @@
         <f t="shared" si="0"/>
         <v>30244.83</v>
       </c>
-      <c r="I14" s="287"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="289"/>
+      <c r="I14" s="355" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="310">
+        <v>11559</v>
+      </c>
+      <c r="K14" s="220">
+        <v>600</v>
+      </c>
       <c r="L14" s="218"/>
       <c r="M14" s="220"/>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54100</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13768,14 +13934,20 @@
         <f t="shared" si="0"/>
         <v>10627.4</v>
       </c>
-      <c r="I15" s="228"/>
-      <c r="J15" s="286"/>
-      <c r="K15" s="230"/>
+      <c r="I15" s="355" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="310">
+        <v>11572</v>
+      </c>
+      <c r="K15" s="220">
+        <v>15001</v>
+      </c>
       <c r="L15" s="218"/>
       <c r="M15" s="220"/>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69101</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13794,14 +13966,20 @@
         <f t="shared" si="0"/>
         <v>106320.8</v>
       </c>
-      <c r="I16" s="287"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
+      <c r="I16" s="355" t="s">
+        <v>277</v>
+      </c>
+      <c r="J16" s="310">
+        <v>11577</v>
+      </c>
+      <c r="K16" s="220">
+        <v>360</v>
+      </c>
       <c r="L16" s="218"/>
       <c r="M16" s="220"/>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69461</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13820,14 +13998,20 @@
         <f t="shared" si="0"/>
         <v>15558.9</v>
       </c>
-      <c r="I17" s="228"/>
-      <c r="J17" s="286"/>
-      <c r="K17" s="230"/>
+      <c r="I17" s="355" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="310">
+        <v>11582</v>
+      </c>
+      <c r="K17" s="220">
+        <v>6566.4</v>
+      </c>
       <c r="L17" s="218"/>
       <c r="M17" s="220"/>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76027.399999999994</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13846,14 +14030,20 @@
         <f t="shared" si="0"/>
         <v>38966</v>
       </c>
-      <c r="I18" s="228"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="230"/>
+      <c r="I18" s="355" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="310">
+        <v>11587</v>
+      </c>
+      <c r="K18" s="220">
+        <v>600</v>
+      </c>
       <c r="L18" s="218"/>
       <c r="M18" s="220"/>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76627.399999999994</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13872,14 +14062,20 @@
         <f t="shared" si="0"/>
         <v>22837.8</v>
       </c>
-      <c r="I19" s="287"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="289"/>
+      <c r="I19" s="355" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="310">
+        <v>11615</v>
+      </c>
+      <c r="K19" s="220">
+        <v>360</v>
+      </c>
       <c r="L19" s="218"/>
       <c r="M19" s="220"/>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76987.399999999994</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -13898,14 +14094,20 @@
         <f t="shared" si="0"/>
         <v>3940.89</v>
       </c>
-      <c r="I20" s="228"/>
-      <c r="J20" s="286"/>
-      <c r="K20" s="230"/>
+      <c r="I20" s="355" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="310">
+        <v>11637</v>
+      </c>
+      <c r="K20" s="220">
+        <v>9180</v>
+      </c>
       <c r="L20" s="218"/>
       <c r="M20" s="231"/>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86167.4</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -13924,14 +14126,20 @@
         <f t="shared" si="0"/>
         <v>91161.2</v>
       </c>
-      <c r="I21" s="287"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="289"/>
+      <c r="I21" s="355" t="s">
+        <v>281</v>
+      </c>
+      <c r="J21" s="310">
+        <v>11643</v>
+      </c>
+      <c r="K21" s="220">
+        <v>360</v>
+      </c>
       <c r="L21" s="218"/>
       <c r="M21" s="231"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86527.4</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -13951,14 +14159,20 @@
         <v>7864.6</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="290"/>
-      <c r="K22" s="237"/>
+      <c r="I22" s="355" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="310">
+        <v>11656</v>
+      </c>
+      <c r="K22" s="220">
+        <v>360</v>
+      </c>
       <c r="L22" s="218"/>
       <c r="M22" s="231"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86887.4</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -13978,14 +14192,20 @@
         <v>56418.54</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="237"/>
+      <c r="I23" s="355" t="s">
+        <v>283</v>
+      </c>
+      <c r="J23" s="310">
+        <v>11683</v>
+      </c>
+      <c r="K23" s="220">
+        <v>360</v>
+      </c>
       <c r="L23" s="224"/>
       <c r="M23" s="101"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87247.4</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14005,14 +14225,20 @@
         <v>255285.95</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="237"/>
+      <c r="I24" s="355" t="s">
+        <v>284</v>
+      </c>
+      <c r="J24" s="310">
+        <v>11694</v>
+      </c>
+      <c r="K24" s="220">
+        <v>11071.8</v>
+      </c>
       <c r="L24" s="224"/>
       <c r="M24" s="101"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98319.2</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14032,14 +14258,20 @@
         <v>7950</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="235"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="237"/>
+      <c r="I25" s="355" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25" s="310">
+        <v>11710</v>
+      </c>
+      <c r="K25" s="220">
+        <v>360</v>
+      </c>
       <c r="L25" s="224"/>
       <c r="M25" s="101"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98679.2</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14059,14 +14291,20 @@
         <v>48571.5</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="290"/>
-      <c r="K26" s="237"/>
+      <c r="I26" s="355" t="s">
+        <v>286</v>
+      </c>
+      <c r="J26" s="310">
+        <v>11715</v>
+      </c>
+      <c r="K26" s="220">
+        <v>600</v>
+      </c>
       <c r="L26" s="224"/>
       <c r="M26" s="101"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14086,14 +14324,16 @@
         <v>22975.1</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="237"/>
+      <c r="I27" s="357">
+        <v>44986</v>
+      </c>
+      <c r="J27" s="310"/>
+      <c r="K27" s="220"/>
       <c r="L27" s="224"/>
       <c r="M27" s="101"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14113,14 +14353,16 @@
         <v>6000</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="277"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="237"/>
+      <c r="I28" s="357">
+        <v>44987</v>
+      </c>
+      <c r="J28" s="310"/>
+      <c r="K28" s="220"/>
       <c r="L28" s="224"/>
       <c r="M28" s="101"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14140,14 +14382,16 @@
         <v>5547</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="277"/>
-      <c r="J29" s="281"/>
-      <c r="K29" s="237"/>
+      <c r="I29" s="357">
+        <v>44988</v>
+      </c>
+      <c r="J29" s="310"/>
+      <c r="K29" s="220"/>
       <c r="L29" s="224"/>
       <c r="M29" s="101"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14168,14 +14412,14 @@
         <v>89040.4</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="277"/>
+      <c r="I30" s="358"/>
       <c r="J30" s="281"/>
       <c r="K30" s="237"/>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14195,7 +14439,7 @@
         <v>119560.24</v>
       </c>
       <c r="H31" s="233"/>
-      <c r="I31"/>
+      <c r="I31" s="274"/>
       <c r="J31"/>
       <c r="K31" s="5">
         <v>0</v>
@@ -14204,7 +14448,7 @@
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14224,7 +14468,7 @@
         <v>84723.4</v>
       </c>
       <c r="H32" s="233"/>
-      <c r="I32"/>
+      <c r="I32" s="274"/>
       <c r="J32"/>
       <c r="K32" s="5">
         <v>0</v>
@@ -14233,7 +14477,7 @@
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14252,7 +14496,7 @@
         <f t="shared" si="0"/>
         <v>50119.18</v>
       </c>
-      <c r="I33"/>
+      <c r="I33" s="274"/>
       <c r="J33"/>
       <c r="K33" s="5">
         <v>0</v>
@@ -14261,7 +14505,7 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -14280,14 +14524,14 @@
         <f t="shared" si="0"/>
         <v>13491.2</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" s="274"/>
       <c r="J34"/>
       <c r="K34" s="167"/>
       <c r="L34" s="224"/>
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14313,7 +14557,7 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14332,14 +14576,14 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="373"/>
-      <c r="J36" s="374"/>
-      <c r="K36" s="374"/>
-      <c r="L36" s="375"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14358,14 +14602,14 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="373"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="375"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14391,7 +14635,7 @@
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14411,7 +14655,7 @@
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14424,16 +14668,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="376" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="377"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14446,14 +14690,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="378"/>
-      <c r="J41" s="379"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14466,14 +14710,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="380"/>
-      <c r="J42" s="381"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14493,7 +14737,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14513,7 +14757,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14533,7 +14777,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14553,7 +14797,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14573,7 +14817,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14593,7 +14837,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14613,7 +14857,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14633,7 +14877,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14653,7 +14897,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14673,7 +14917,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14693,7 +14937,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14713,7 +14957,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14733,7 +14977,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14753,7 +14997,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14773,7 +15017,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14793,7 +15037,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14813,7 +15057,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14833,7 +15077,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14853,7 +15097,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14873,7 +15117,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14893,7 +15137,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14913,7 +15157,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14933,7 +15177,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14971,13 +15215,13 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="382" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="383"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>0</v>
+        <v>99279.2</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -14994,11 +15238,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="386" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="391"/>
-      <c r="J68" s="392"/>
+      <c r="I68" s="415"/>
+      <c r="J68" s="416"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15009,7 +15253,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="387"/>
+      <c r="G69" s="411"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15571,8 +15815,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15598,23 +15842,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="366"/>
-      <c r="C1" s="368" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="369"/>
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="367"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15624,24 +15868,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="370" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="371"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="372" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="372"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="364" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="337" t="s">
+      <c r="R3" s="417" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15656,14 +15900,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15673,11 +15917,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="365"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="338"/>
+      <c r="R4" s="418"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -15686,36 +15930,49 @@
       <c r="B5" s="32">
         <v>44989</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="33">
+        <v>10705</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>287</v>
+      </c>
       <c r="E5" s="35">
         <v>44989</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38">
         <v>44989</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="411"/>
-      <c r="L5" s="13"/>
+      <c r="I5" s="39">
+        <v>2837</v>
+      </c>
+      <c r="J5" s="40">
+        <v>44989</v>
+      </c>
+      <c r="K5" s="359" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="13">
+        <v>22031</v>
+      </c>
       <c r="M5" s="42">
-        <v>0</v>
+        <v>68366</v>
       </c>
       <c r="N5" s="43">
-        <v>0</v>
+        <v>39573</v>
       </c>
       <c r="P5" s="44">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>143512</v>
       </c>
       <c r="Q5" s="45">
-        <f t="shared" ref="Q5:Q47" si="0">P5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="360">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15723,32 +15980,40 @@
       <c r="B6" s="32">
         <v>44990</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="33">
+        <v>11999</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>289</v>
+      </c>
       <c r="E6" s="35">
         <v>44990</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <v>92267</v>
+      </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38">
         <v>44990</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39">
+        <v>2652</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
       <c r="M6" s="42">
-        <v>0</v>
+        <v>39347</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>38269</v>
       </c>
       <c r="P6" s="49">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>92267</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
         <v>0</v>
       </c>
       <c r="R6" s="46">
@@ -15760,35 +16025,44 @@
       <c r="B7" s="32">
         <v>44991</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33">
+        <v>28081.5</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>290</v>
+      </c>
       <c r="E7" s="35">
         <v>44991</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>131688</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>44991</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="39">
+        <v>6180</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="65"/>
       <c r="L7" s="49"/>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>42674.5+7308</f>
+        <v>49982.5</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>47444</v>
       </c>
       <c r="P7" s="49">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>131688</v>
       </c>
       <c r="Q7" s="45">
         <v>0</v>
       </c>
-      <c r="R7" s="46">
-        <v>0</v>
+      <c r="R7" s="46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15796,29 +16070,38 @@
       <c r="B8" s="32">
         <v>44992</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>23275</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>291</v>
+      </c>
       <c r="E8" s="35">
         <v>44992</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>117095</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>44992</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>2437.5</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="65"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <f>51615.5+654</f>
+        <v>52269.5</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>39113</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>117095</v>
       </c>
       <c r="Q8" s="45">
         <v>0</v>
@@ -15832,29 +16115,44 @@
       <c r="B9" s="32">
         <v>44993</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>9439</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>292</v>
+      </c>
       <c r="E9" s="35">
         <v>44993</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>92137</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>44993</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="39">
+        <v>5788.5</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="350" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="49">
+        <v>4000</v>
+      </c>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>36478.5+8026</f>
+        <v>44504.5</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>28405</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92137</v>
       </c>
       <c r="Q9" s="45">
         <f t="shared" si="0"/>
@@ -15869,33 +16167,42 @@
       <c r="B10" s="32">
         <v>44994</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>9227</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>295</v>
+      </c>
       <c r="E10" s="35">
         <v>44994</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>109968</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>44994</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>1340</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <f>46519+6813.5</f>
+        <v>53332.5</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>46068</v>
       </c>
       <c r="P10" s="49">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>109967.5</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -15955,7 +16262,7 @@
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="399"/>
+      <c r="K12" s="343"/>
       <c r="L12" s="49"/>
       <c r="M12" s="42">
         <v>0</v>
@@ -15993,7 +16300,7 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="400"/>
+      <c r="K13" s="344"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
         <v>0</v>
@@ -16106,7 +16413,7 @@
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="399"/>
+      <c r="K16" s="343"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
         <v>0</v>
@@ -16216,7 +16523,7 @@
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="401"/>
+      <c r="K19" s="345"/>
       <c r="L19" s="59"/>
       <c r="M19" s="42">
         <v>0</v>
@@ -16327,7 +16634,7 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="402"/>
+      <c r="K22" s="346"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
         <v>0</v>
@@ -16515,8 +16822,8 @@
         <v>45011</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="393"/>
-      <c r="K27" s="403"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="347"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
         <v>0</v>
@@ -16552,7 +16859,7 @@
         <v>45012</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="394"/>
+      <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
@@ -16589,8 +16896,8 @@
         <v>45013</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="395"/>
-      <c r="K29" s="404"/>
+      <c r="J29" s="339"/>
+      <c r="K29" s="348"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
         <v>0</v>
@@ -16626,7 +16933,7 @@
         <v>45014</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="394"/>
+      <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
@@ -16656,8 +16963,8 @@
       <c r="G31" s="37"/>
       <c r="H31" s="38"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="394"/>
-      <c r="K31" s="405"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="349"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
         <v>0</v>
@@ -16687,7 +16994,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="396"/>
+      <c r="J32" s="340"/>
       <c r="K32" s="65"/>
       <c r="L32" s="49"/>
       <c r="M32" s="42">
@@ -16718,8 +17025,8 @@
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="394"/>
-      <c r="K33" s="406"/>
+      <c r="J33" s="338"/>
+      <c r="K33" s="350"/>
       <c r="L33" s="84"/>
       <c r="M33" s="42">
         <v>0</v>
@@ -16749,7 +17056,7 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="394"/>
+      <c r="J34" s="338"/>
       <c r="K34" s="88"/>
       <c r="L34" s="49"/>
       <c r="M34" s="42">
@@ -16814,7 +17121,7 @@
       <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="394"/>
+      <c r="J36" s="338"/>
       <c r="K36" s="88"/>
       <c r="L36" s="49"/>
       <c r="M36" s="42">
@@ -16845,7 +17152,7 @@
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="394"/>
+      <c r="J37" s="338"/>
       <c r="K37" s="88"/>
       <c r="L37" s="49"/>
       <c r="M37" s="42">
@@ -16876,8 +17183,8 @@
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="394"/>
-      <c r="K38" s="407"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="351"/>
       <c r="L38" s="49"/>
       <c r="M38" s="42">
         <v>0</v>
@@ -16907,8 +17214,8 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="396"/>
-      <c r="K39" s="407"/>
+      <c r="J39" s="340"/>
+      <c r="K39" s="351"/>
       <c r="L39" s="49"/>
       <c r="M39" s="42">
         <v>0</v>
@@ -16938,7 +17245,7 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="394"/>
+      <c r="J40" s="338"/>
       <c r="K40" s="65"/>
       <c r="L40" s="49"/>
       <c r="M40" s="42">
@@ -16969,7 +17276,7 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="394"/>
+      <c r="J41" s="338"/>
       <c r="K41" s="65"/>
       <c r="L41" s="49"/>
       <c r="M41" s="42">
@@ -16999,7 +17306,7 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="394"/>
+      <c r="J42" s="338"/>
       <c r="K42" s="65"/>
       <c r="L42" s="49"/>
       <c r="M42" s="42">
@@ -17029,7 +17336,7 @@
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="394"/>
+      <c r="J43" s="338"/>
       <c r="K43" s="65"/>
       <c r="L43" s="49"/>
       <c r="M43" s="42">
@@ -17059,7 +17366,7 @@
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="394"/>
+      <c r="J44" s="338"/>
       <c r="K44" s="65"/>
       <c r="L44" s="49"/>
       <c r="M44" s="42">
@@ -17089,7 +17396,7 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="394"/>
+      <c r="J45" s="338"/>
       <c r="K45" s="65"/>
       <c r="L45" s="49"/>
       <c r="M45" s="42">
@@ -17119,7 +17426,7 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="394"/>
+      <c r="J46" s="338"/>
       <c r="K46" s="65"/>
       <c r="L46" s="49"/>
       <c r="M46" s="42">
@@ -17149,7 +17456,7 @@
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="394"/>
+      <c r="J47" s="338"/>
       <c r="K47" s="65"/>
       <c r="L47" s="49"/>
       <c r="M47" s="42">
@@ -17179,7 +17486,7 @@
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="394"/>
+      <c r="J48" s="338"/>
       <c r="K48" s="65"/>
       <c r="L48" s="49"/>
       <c r="M48" s="107"/>
@@ -17204,24 +17511,24 @@
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="394"/>
+      <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="348">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="348">
+        <v>307802</v>
+      </c>
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>238872</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="360">
+        <v>686666.5</v>
+      </c>
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17240,13 +17547,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="349"/>
-      <c r="N50" s="349"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="361"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17259,7 +17566,7 @@
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="394"/>
+      <c r="J51" s="338"/>
       <c r="K51" s="88"/>
       <c r="L51" s="49"/>
       <c r="M51" s="113"/>
@@ -17277,7 +17584,7 @@
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="394"/>
+      <c r="J52" s="338"/>
       <c r="K52" s="65"/>
       <c r="L52" s="49"/>
       <c r="M52" s="113"/>
@@ -17295,14 +17602,14 @@
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="394"/>
+      <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="362">
+      <c r="M53" s="386">
         <f>M49+N49</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="363"/>
+        <v>546674</v>
+      </c>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17316,7 +17623,7 @@
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="394"/>
+      <c r="J54" s="338"/>
       <c r="K54" s="65"/>
       <c r="L54" s="49"/>
       <c r="M54" s="113"/>
@@ -17334,8 +17641,8 @@
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="394"/>
-      <c r="K55" s="400"/>
+      <c r="J55" s="338"/>
+      <c r="K55" s="344"/>
       <c r="L55" s="49"/>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
@@ -17352,8 +17659,8 @@
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="397"/>
-      <c r="K56" s="408"/>
+      <c r="J56" s="341"/>
+      <c r="K56" s="352"/>
       <c r="L56" s="68"/>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
@@ -17370,8 +17677,8 @@
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="398"/>
-      <c r="K57" s="400"/>
+      <c r="J57" s="342"/>
+      <c r="K57" s="344"/>
       <c r="L57" s="84"/>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
@@ -17388,8 +17695,8 @@
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="398"/>
-      <c r="K58" s="400"/>
+      <c r="J58" s="342"/>
+      <c r="K58" s="344"/>
       <c r="L58" s="84"/>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
@@ -17406,8 +17713,8 @@
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="398"/>
-      <c r="K59" s="400"/>
+      <c r="J59" s="342"/>
+      <c r="K59" s="344"/>
       <c r="L59" s="84"/>
       <c r="M59" s="113"/>
       <c r="N59" s="113"/>
@@ -17424,8 +17731,8 @@
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="398"/>
-      <c r="K60" s="400"/>
+      <c r="J60" s="342"/>
+      <c r="K60" s="344"/>
       <c r="L60" s="84"/>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
@@ -17442,8 +17749,8 @@
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="398"/>
-      <c r="K61" s="400"/>
+      <c r="J61" s="342"/>
+      <c r="K61" s="344"/>
       <c r="L61" s="84"/>
       <c r="M61" s="113"/>
       <c r="N61" s="113"/>
@@ -17460,8 +17767,8 @@
       <c r="G62" s="37"/>
       <c r="H62" s="106"/>
       <c r="I62" s="103"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="409"/>
+      <c r="J62" s="342"/>
+      <c r="K62" s="353"/>
       <c r="L62" s="84"/>
       <c r="M62" s="113"/>
       <c r="N62" s="113"/>
@@ -17478,8 +17785,8 @@
       <c r="G63" s="37"/>
       <c r="H63" s="106"/>
       <c r="I63" s="103"/>
-      <c r="J63" s="398"/>
-      <c r="K63" s="400"/>
+      <c r="J63" s="342"/>
+      <c r="K63" s="344"/>
       <c r="L63" s="84"/>
       <c r="M63" s="113"/>
       <c r="N63" s="113"/>
@@ -17496,8 +17803,8 @@
       <c r="G64" s="37"/>
       <c r="H64" s="106"/>
       <c r="I64" s="103"/>
-      <c r="J64" s="398"/>
-      <c r="K64" s="409"/>
+      <c r="J64" s="342"/>
+      <c r="K64" s="353"/>
       <c r="L64" s="84"/>
       <c r="M64" s="113"/>
       <c r="N64" s="113"/>
@@ -17514,8 +17821,8 @@
       <c r="G65" s="37"/>
       <c r="H65" s="106"/>
       <c r="I65" s="103"/>
-      <c r="J65" s="398"/>
-      <c r="K65" s="400"/>
+      <c r="J65" s="342"/>
+      <c r="K65" s="344"/>
       <c r="L65" s="84"/>
       <c r="M65" s="113"/>
       <c r="N65" s="113"/>
@@ -17532,8 +17839,8 @@
       <c r="G66" s="37"/>
       <c r="H66" s="106"/>
       <c r="I66" s="103"/>
-      <c r="J66" s="398"/>
-      <c r="K66" s="400"/>
+      <c r="J66" s="342"/>
+      <c r="K66" s="344"/>
       <c r="L66" s="84"/>
       <c r="M66" s="113"/>
       <c r="N66" s="113"/>
@@ -17550,8 +17857,8 @@
       <c r="G67" s="37"/>
       <c r="H67" s="106"/>
       <c r="I67" s="103"/>
-      <c r="J67" s="398"/>
-      <c r="K67" s="410"/>
+      <c r="J67" s="342"/>
+      <c r="K67" s="354"/>
       <c r="L67" s="84"/>
       <c r="M67" s="113"/>
       <c r="N67" s="113"/>
@@ -17685,7 +17992,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>0</v>
+        <v>92726.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -17693,7 +18000,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>0</v>
+        <v>543155</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -17701,7 +18008,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>0</v>
+        <v>21235</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -17709,7 +18016,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>0</v>
+        <v>26031</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -17727,50 +18034,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="356" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="357"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="358">
+      <c r="K77" s="382">
         <f>I75+L75</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="359"/>
+        <v>47266</v>
+      </c>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="350" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="350"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>0</v>
+        <v>403162.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="351" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="351"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="352" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="353"/>
-      <c r="K79" s="354">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
-        <v>-1602312.67</v>
-      </c>
-      <c r="L79" s="354"/>
+        <v>-1199150.17</v>
+      </c>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -17804,18 +18111,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-1830849.67</v>
+        <v>-1427687.17</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="355">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="354"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -17832,22 +18139,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="343" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="344"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="388" t="s">
+      <c r="I83" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="389"/>
-      <c r="K83" s="390">
+      <c r="J83" s="413"/>
+      <c r="K83" s="414">
         <f>K79+K81</f>
-        <v>-5106490.74</v>
-      </c>
-      <c r="L83" s="390"/>
+        <v>-4703328.24</v>
+      </c>
+      <c r="L83" s="414"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -17991,18 +18298,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -18013,6 +18318,8 @@
     <mergeCell ref="I79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K81:L81"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="K77:L77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18115,7 +18422,7 @@
         <v>44989</v>
       </c>
       <c r="C3" s="216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="217">
         <v>28031.5</v>
@@ -18141,7 +18448,7 @@
         <v>44989</v>
       </c>
       <c r="C4" s="223" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="101">
         <v>16713.439999999999</v>
@@ -18168,7 +18475,7 @@
         <v>44989</v>
       </c>
       <c r="C5" s="223" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="101">
         <v>38403.300000000003</v>
@@ -18194,7 +18501,7 @@
         <v>44991</v>
       </c>
       <c r="C6" s="223" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="101">
         <v>47508.800000000003</v>
@@ -18220,7 +18527,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="223" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="101">
         <v>7298.8</v>
@@ -18246,7 +18553,7 @@
         <v>44993</v>
       </c>
       <c r="C8" s="223" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="101">
         <v>63925.72</v>
@@ -18272,7 +18579,7 @@
         <v>44994</v>
       </c>
       <c r="C9" s="223" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="101">
         <v>48335.199999999997</v>
@@ -18298,7 +18605,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="223" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="101">
         <v>29634.58</v>
@@ -18325,7 +18632,7 @@
         <v>44996</v>
       </c>
       <c r="C11" s="223" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="101">
         <v>50269.72</v>
@@ -18351,7 +18658,7 @@
         <v>44998</v>
       </c>
       <c r="C12" s="223" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="101">
         <v>207174.23</v>
@@ -18377,7 +18684,7 @@
         <v>44999</v>
       </c>
       <c r="C13" s="223" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="101">
         <v>101397.09</v>
@@ -18403,7 +18710,7 @@
         <v>45000</v>
       </c>
       <c r="C14" s="223" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="101">
         <v>94085.5</v>
@@ -18429,7 +18736,7 @@
         <v>45001</v>
       </c>
       <c r="C15" s="223" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="101">
         <v>13348.5</v>
@@ -18455,7 +18762,7 @@
         <v>45002</v>
       </c>
       <c r="C16" s="223" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D16" s="101">
         <v>97253.73</v>
@@ -18481,7 +18788,7 @@
         <v>45003</v>
       </c>
       <c r="C17" s="223" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" s="101">
         <v>39552.720000000001</v>
@@ -18507,7 +18814,7 @@
         <v>45005</v>
       </c>
       <c r="C18" s="223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D18" s="101">
         <v>108979.1</v>
@@ -18533,7 +18840,7 @@
         <v>45006</v>
       </c>
       <c r="C19" s="223" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="101">
         <v>16327.98</v>
@@ -18559,7 +18866,7 @@
         <v>45007</v>
       </c>
       <c r="C20" s="223" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D20" s="101">
         <v>4721.6000000000004</v>
@@ -18585,7 +18892,7 @@
         <v>45007</v>
       </c>
       <c r="C21" s="223" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" s="101">
         <v>2870.4</v>
@@ -18611,7 +18918,7 @@
         <v>45008</v>
       </c>
       <c r="C22" s="223" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="101">
         <v>62616.82</v>
@@ -18638,7 +18945,7 @@
         <v>45009</v>
       </c>
       <c r="C23" s="223" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="101">
         <v>13706.8</v>
@@ -18665,7 +18972,7 @@
         <v>45010</v>
       </c>
       <c r="C24" s="223" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D24" s="101">
         <v>60713.06</v>
@@ -18692,7 +18999,7 @@
         <v>45012</v>
       </c>
       <c r="C25" s="223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="101">
         <v>89935.7</v>
@@ -18719,7 +19026,7 @@
         <v>45012</v>
       </c>
       <c r="C26" s="223" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="101">
         <v>6879.4</v>
@@ -18746,7 +19053,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="223" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="101">
         <v>5900.8</v>
@@ -18773,7 +19080,7 @@
         <v>45013</v>
       </c>
       <c r="C28" s="223" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="101">
         <v>15687.72</v>
@@ -18800,7 +19107,7 @@
         <v>45013</v>
       </c>
       <c r="C29" s="223" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="101">
         <v>3153.6</v>
@@ -18962,10 +19269,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="373"/>
-      <c r="J36" s="374"/>
-      <c r="K36" s="374"/>
-      <c r="L36" s="375"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -18982,10 +19289,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="373"/>
-      <c r="J37" s="374"/>
-      <c r="K37" s="374"/>
-      <c r="L37" s="375"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19042,10 +19349,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="376" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="377"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19064,8 +19371,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="378"/>
-      <c r="J41" s="379"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19084,8 +19391,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="380"/>
-      <c r="J42" s="381"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -19589,10 +19896,10 @@
         <f>SUM(G3:G66)</f>
         <v>1274425.81</v>
       </c>
-      <c r="I67" s="382" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="383"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -19612,11 +19919,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="386" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="391"/>
-      <c r="J68" s="392"/>
+      <c r="I68" s="415"/>
+      <c r="J68" s="416"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19627,7 +19934,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="387"/>
+      <c r="G69" s="411"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="303">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1090,13 +1090,34 @@
     <t>queso-pollo</t>
   </si>
   <si>
-    <t>85-3</t>
-  </si>
-  <si>
     <t>etiquetas verduras</t>
   </si>
   <si>
     <t>longaniza-pollo-queso</t>
+  </si>
+  <si>
+    <t>pollo-quesos</t>
+  </si>
+  <si>
+    <t>queso-pollo-longaniza</t>
+  </si>
+  <si>
+    <t>nomina # 10</t>
+  </si>
+  <si>
+    <t>NOMINA #  9</t>
+  </si>
+  <si>
+    <t>NOMINA # 10</t>
+  </si>
+  <si>
+    <t>PASTOR</t>
+  </si>
+  <si>
+    <t>pollo-quesos-roas-beef-chorizo-salchicha</t>
+  </si>
+  <si>
+    <t>pastor-tostadas-pollo-quesos-mixiotes-salchicas</t>
   </si>
 </sst>
 </file>
@@ -3338,12 +3359,42 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3419,39 +3470,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3517,6 +3535,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5168,23 +5189,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5194,24 +5215,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="371" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5226,14 +5247,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="374"/>
+      <c r="H4" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="376"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5243,11 +5264,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="363"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="362"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7082,11 +7103,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="372">
+      <c r="M49" s="382">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="372">
+      <c r="N49" s="382">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -7094,7 +7115,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="384">
+      <c r="Q49" s="394">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7115,10 +7136,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="383"/>
+      <c r="N50" s="383"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="395"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7173,11 +7194,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="386">
+      <c r="M53" s="360">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="387"/>
+      <c r="N53" s="361"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7602,26 +7623,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="390" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="391"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="392">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="383"/>
+      <c r="L77" s="393"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="384" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="384"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7630,22 +7651,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="385" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="385"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="386" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="387"/>
+      <c r="K79" s="388">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="378"/>
+      <c r="L79" s="388"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7686,11 +7707,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="389">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="388"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7707,22 +7728,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="377" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="378"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="369" t="s">
+      <c r="I83" s="379" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="370"/>
-      <c r="K83" s="371">
+      <c r="J83" s="380"/>
+      <c r="K83" s="381">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="371"/>
+      <c r="L83" s="381"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7869,12 +7890,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -7891,6 +7906,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9209,10 +9230,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -9235,10 +9256,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -9295,10 +9316,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -9317,8 +9338,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -9337,8 +9358,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -9842,10 +9863,10 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -9865,11 +9886,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="408"/>
-      <c r="J68" s="409"/>
+      <c r="I68" s="407"/>
+      <c r="J68" s="408"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9880,7 +9901,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -10488,10 +10509,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10517,23 +10538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10543,24 +10564,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="371" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10575,14 +10596,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="374"/>
+      <c r="H4" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="376"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10592,11 +10613,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="363"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="362"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12043,19 +12064,19 @@
       <c r="K35" s="88"/>
       <c r="L35" s="89"/>
       <c r="M35" s="42">
-        <f>99843+6835.5+200</f>
-        <v>106878.5</v>
+        <f>99843+6835.5</f>
+        <v>106678.5</v>
       </c>
       <c r="N35" s="43">
         <v>5637</v>
       </c>
       <c r="P35" s="69">
         <f t="shared" si="2"/>
-        <v>128782.5</v>
+        <v>128582.5</v>
       </c>
       <c r="Q35" s="285">
         <f t="shared" si="0"/>
-        <v>-800.5</v>
+        <v>-1000.5</v>
       </c>
       <c r="R35" s="46">
         <v>0</v>
@@ -12572,21 +12593,21 @@
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="372">
+      <c r="M49" s="382">
         <f>SUM(M5:M40)</f>
-        <v>1964537.8699999999</v>
-      </c>
-      <c r="N49" s="372">
+        <v>1964337.8699999999</v>
+      </c>
+      <c r="N49" s="382">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3956757.8699999996</v>
-      </c>
-      <c r="Q49" s="384">
+        <v>3956557.8699999996</v>
+      </c>
+      <c r="Q49" s="394">
         <f>SUM(Q5:Q40)</f>
-        <v>-796.13000000000466</v>
+        <v>-996.13000000000466</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -12617,10 +12638,10 @@
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="383"/>
+      <c r="N50" s="383"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="395"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12693,11 +12714,11 @@
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="386">
+      <c r="M53" s="360">
         <f>M49+N49</f>
-        <v>3279474.87</v>
-      </c>
-      <c r="N53" s="387"/>
+        <v>3279274.87</v>
+      </c>
+      <c r="N53" s="361"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13146,26 +13167,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="390" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="391"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="392">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="383"/>
+      <c r="L77" s="393"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="384" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="384"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13174,22 +13195,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="385" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="385"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="386" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="387"/>
+      <c r="K79" s="388">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="378"/>
+      <c r="L79" s="388"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13230,11 +13251,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="389">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="388"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13251,22 +13272,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="377" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="378"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="412" t="s">
+      <c r="I83" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="413"/>
-      <c r="K83" s="414">
+      <c r="J83" s="412"/>
+      <c r="K83" s="413">
         <f>K79+K81</f>
         <v>-2882883.05</v>
       </c>
-      <c r="L83" s="414"/>
+      <c r="L83" s="413"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13413,6 +13434,12 @@
     <sortCondition ref="J46:J56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13429,12 +13456,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14576,10 +14597,10 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -14602,10 +14623,10 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -14668,10 +14689,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -14690,8 +14711,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -14710,8 +14731,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -15215,10 +15236,10 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>99279.2</v>
@@ -15238,11 +15259,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="415"/>
-      <c r="J68" s="416"/>
+      <c r="I68" s="414"/>
+      <c r="J68" s="415"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15253,7 +15274,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15815,8 +15836,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15842,23 +15863,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="364"/>
+      <c r="C1" s="366" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="367"/>
+      <c r="G1" s="367"/>
+      <c r="H1" s="367"/>
+      <c r="I1" s="367"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="365"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15868,24 +15889,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="369"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="370"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="417" t="s">
+      <c r="R3" s="416" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15900,14 +15921,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="374"/>
+      <c r="H4" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="376"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15917,11 +15938,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="363"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="418"/>
+      <c r="R4" s="417"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -15952,7 +15973,7 @@
       <c r="J5" s="40">
         <v>44989</v>
       </c>
-      <c r="K5" s="359" t="s">
+      <c r="K5" s="418" t="s">
         <v>288</v>
       </c>
       <c r="L5" s="13">
@@ -15971,7 +15992,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="360">
+      <c r="R5" s="359">
         <v>250</v>
       </c>
     </row>
@@ -16134,11 +16155,11 @@
       <c r="I9" s="39">
         <v>5788.5</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="40">
+        <v>44993</v>
+      </c>
+      <c r="K9" s="350" t="s">
         <v>293</v>
-      </c>
-      <c r="K9" s="350" t="s">
-        <v>294</v>
       </c>
       <c r="L9" s="49">
         <v>4000</v>
@@ -16171,7 +16192,7 @@
         <v>9227</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="35">
         <v>44994</v>
@@ -16213,32 +16234,39 @@
       <c r="B11" s="32">
         <v>44995</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>9566</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>295</v>
+      </c>
       <c r="E11" s="35">
         <v>44995</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>153849</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>44995</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>1974</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="58"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>99973</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>42336</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" ref="P11:P40" si="2">N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>153849</v>
       </c>
       <c r="Q11" s="45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R11" s="46">
@@ -16250,30 +16278,45 @@
       <c r="B12" s="32">
         <v>44996</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>8365</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>296</v>
+      </c>
       <c r="E12" s="35">
         <v>44996</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>152331</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>44996</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="343"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>3688</v>
+      </c>
+      <c r="J12" s="40">
+        <v>44996</v>
+      </c>
+      <c r="K12" s="343" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" s="49">
+        <v>18078</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>52470+200+6053</f>
+        <v>58723</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>63477</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152331</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="0"/>
@@ -16288,30 +16331,39 @@
       <c r="B13" s="32">
         <v>44997</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>300</v>
+      </c>
       <c r="E13" s="35">
         <v>44997</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>153796</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>44997</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>775</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="344"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <f>81064</f>
+        <v>81064</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>69957</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>153796</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="0"/>
@@ -16326,30 +16378,39 @@
       <c r="B14" s="32">
         <v>44998</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>40135</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>301</v>
+      </c>
       <c r="E14" s="35">
         <v>44998</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>125011</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>44998</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>2719</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>32521+12383</f>
+        <v>44904</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>37253</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>125011</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="0"/>
@@ -16364,33 +16425,41 @@
       <c r="B15" s="32">
         <v>44999</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>13440.5</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>302</v>
+      </c>
       <c r="E15" s="35">
         <v>44999</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>123404</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>44999</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>2309</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="42">
-        <v>0</v>
+      <c r="M15" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="43">
         <v>0</v>
       </c>
-      <c r="P15" s="49">
+      <c r="P15" s="49" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" s="45" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="R15" s="46">
         <v>0</v>
@@ -16994,9 +17063,15 @@
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="340"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="49"/>
+      <c r="J32" s="340">
+        <v>44989</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" s="49">
+        <v>21975</v>
+      </c>
       <c r="M32" s="42">
         <v>0</v>
       </c>
@@ -17005,11 +17080,11 @@
       </c>
       <c r="P32" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21975</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21975</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -17025,9 +17100,15 @@
       <c r="G33" s="37"/>
       <c r="H33" s="38"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="338"/>
-      <c r="K33" s="350"/>
-      <c r="L33" s="84"/>
+      <c r="J33" s="338">
+        <v>44996</v>
+      </c>
+      <c r="K33" s="350" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" s="84">
+        <v>24587.26</v>
+      </c>
       <c r="M33" s="42">
         <v>0</v>
       </c>
@@ -17036,11 +17117,11 @@
       </c>
       <c r="P33" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24587.26</v>
       </c>
       <c r="Q33" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24587.26</v>
       </c>
       <c r="R33" s="46">
         <v>0</v>
@@ -17113,9 +17194,15 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="32">
+        <v>44995</v>
+      </c>
+      <c r="C36" s="90">
+        <v>8424</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>145</v>
+      </c>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="92"/>
@@ -17132,11 +17219,11 @@
       </c>
       <c r="P36" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8424</v>
       </c>
       <c r="Q36" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8424</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -17144,9 +17231,15 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="32">
+        <v>44995</v>
+      </c>
+      <c r="C37" s="93">
+        <v>2679</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>145</v>
+      </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="92"/>
@@ -17163,11 +17256,11 @@
       </c>
       <c r="P37" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2679</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2679</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -17514,21 +17607,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="372">
+      <c r="M49" s="382">
         <f>SUM(M5:M40)</f>
-        <v>307802</v>
-      </c>
-      <c r="N49" s="372">
+        <v>592466</v>
+      </c>
+      <c r="N49" s="382">
         <f>SUM(N5:N40)</f>
-        <v>238872</v>
-      </c>
-      <c r="P49" s="111">
+        <v>451895</v>
+      </c>
+      <c r="P49" s="111" t="e">
         <f>SUM(P5:P40)</f>
-        <v>686666.5</v>
-      </c>
-      <c r="Q49" s="384">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q49" s="394" t="e">
         <f>SUM(Q5:Q40)</f>
-        <v>-0.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17547,10 +17640,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="383"/>
+      <c r="N50" s="383"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="395"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>250</v>
@@ -17605,11 +17698,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="386">
+      <c r="M53" s="360">
         <f>M49+N49</f>
-        <v>546674</v>
-      </c>
-      <c r="N53" s="387"/>
+        <v>1044361</v>
+      </c>
+      <c r="N53" s="361"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17992,7 +18085,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>92726.5</v>
+        <v>177336</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -18000,7 +18093,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>543155</v>
+        <v>1251546</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -18008,7 +18101,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>21235</v>
+        <v>32700</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -18016,7 +18109,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>26031</v>
+        <v>90671.26</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -18034,50 +18127,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="390" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="391"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="392">
         <f>I75+L75</f>
-        <v>47266</v>
-      </c>
-      <c r="L77" s="383"/>
+        <v>123371.26</v>
+      </c>
+      <c r="L77" s="393"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="384" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="384"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>403162.5</v>
+        <v>950838.74</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="385" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="385"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="386" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="387"/>
+      <c r="K79" s="388">
         <f>F81+F82+F83</f>
-        <v>-1199150.17</v>
-      </c>
-      <c r="L79" s="378"/>
+        <v>-651473.92999999993</v>
+      </c>
+      <c r="L79" s="388"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -18111,18 +18204,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-1427687.17</v>
+        <v>-880010.92999999993</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="389">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="388"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -18139,22 +18232,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="377" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="378"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="412" t="s">
+      <c r="I83" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="413"/>
-      <c r="K83" s="414">
+      <c r="J83" s="412"/>
+      <c r="K83" s="413">
         <f>K79+K81</f>
-        <v>-4703328.24</v>
-      </c>
-      <c r="L83" s="414"/>
+        <v>-4155652</v>
+      </c>
+      <c r="L83" s="413"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -18298,13 +18391,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18320,6 +18406,13 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19269,10 +19362,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19289,10 +19382,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19349,10 +19442,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19371,8 +19464,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19391,8 +19484,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -19896,10 +19989,10 @@
         <f>SUM(G3:G66)</f>
         <v>1274425.81</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -19919,11 +20012,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="415"/>
-      <c r="J68" s="416"/>
+      <c r="I68" s="414"/>
+      <c r="J68" s="415"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19934,7 +20027,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="303">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3362,6 +3362,84 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3395,81 +3473,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3535,9 +3538,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5189,23 +5189,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="364"/>
-      <c r="C1" s="366" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="365"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5215,24 +5215,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="368" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="369"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="370" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="370"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="362" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="361" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5247,14 +5247,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="373" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="H4" s="375" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="376"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5264,11 +5264,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="363"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="372"/>
+      <c r="R4" s="362"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7103,11 +7103,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="382">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="382">
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -7115,7 +7115,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="394">
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7136,10 +7136,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="383"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="395"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7194,11 +7194,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="360">
+      <c r="M53" s="386">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="361"/>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7623,26 +7623,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="390" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="391"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="392">
+      <c r="K77" s="382">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="393"/>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="384" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="384"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7651,22 +7651,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="385" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="385"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="386" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="387"/>
-      <c r="K79" s="388">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="388"/>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7707,11 +7707,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="389">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="388"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7728,22 +7728,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="377" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="378"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="379" t="s">
+      <c r="I83" s="369" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="380"/>
-      <c r="K83" s="381">
+      <c r="J83" s="370"/>
+      <c r="K83" s="371">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="381"/>
+      <c r="L83" s="371"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7890,6 +7890,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -7906,12 +7912,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9230,10 +9230,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -9256,10 +9256,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -9316,10 +9316,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -9338,8 +9338,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -9358,8 +9358,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -9863,10 +9863,10 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -9886,11 +9886,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="407"/>
-      <c r="J68" s="408"/>
+      <c r="I68" s="408"/>
+      <c r="J68" s="409"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9901,7 +9901,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="411"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -10538,23 +10538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="364"/>
-      <c r="C1" s="366" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="365"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10564,24 +10564,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="368" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="369"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="370" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="370"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="362" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="371" t="s">
+      <c r="R3" s="361" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10596,14 +10596,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="373" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="H4" s="375" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="376"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10613,11 +10613,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="363"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="372"/>
+      <c r="R4" s="362"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12593,11 +12593,11 @@
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="382">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="382">
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -12605,7 +12605,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="394">
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -12638,10 +12638,10 @@
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="383"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="395"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12714,11 +12714,11 @@
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="360">
+      <c r="M53" s="386">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="361"/>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13167,26 +13167,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="390" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="391"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="392">
+      <c r="K77" s="382">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="393"/>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="384" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="384"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13195,22 +13195,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="385" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="385"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="386" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="387"/>
-      <c r="K79" s="388">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="388"/>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13251,11 +13251,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="389">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="388"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13272,22 +13272,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="377" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="378"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="411" t="s">
+      <c r="I83" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="412"/>
-      <c r="K83" s="413">
+      <c r="J83" s="413"/>
+      <c r="K83" s="414">
         <f>K79+K81</f>
         <v>-2882883.05</v>
       </c>
-      <c r="L83" s="413"/>
+      <c r="L83" s="414"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13434,12 +13434,6 @@
     <sortCondition ref="J46:J56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13456,6 +13450,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14597,10 +14597,10 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -14623,10 +14623,10 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -14689,10 +14689,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -14711,8 +14711,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -14731,8 +14731,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -15236,10 +15236,10 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>99279.2</v>
@@ -15259,11 +15259,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="414"/>
-      <c r="J68" s="415"/>
+      <c r="I68" s="415"/>
+      <c r="J68" s="416"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15274,7 +15274,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="411"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15836,8 +15836,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15863,23 +15863,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="364"/>
-      <c r="C1" s="366" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="392" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="365"/>
+      <c r="B2" s="391"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15889,24 +15889,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="368" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="369"/>
+      <c r="B3" s="394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="395"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="370" t="s">
+      <c r="H3" s="396" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="370"/>
+      <c r="I3" s="396"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="362" t="s">
+      <c r="P3" s="388" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="416" t="s">
+      <c r="R3" s="417" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15921,14 +15921,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="373" t="s">
+      <c r="E4" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="H4" s="375" t="s">
+      <c r="F4" s="364"/>
+      <c r="H4" s="365" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="376"/>
+      <c r="I4" s="366"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15938,11 +15938,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="363"/>
+      <c r="P4" s="389"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="417"/>
+      <c r="R4" s="418"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -15973,7 +15973,7 @@
       <c r="J5" s="40">
         <v>44989</v>
       </c>
-      <c r="K5" s="418" t="s">
+      <c r="K5" s="360" t="s">
         <v>288</v>
       </c>
       <c r="L5" s="13">
@@ -16447,19 +16447,19 @@
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="42" t="s">
-        <v>10</v>
+      <c r="M15" s="42">
+        <v>57589.5</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
-      </c>
-      <c r="P15" s="49" t="e">
+        <v>50065</v>
+      </c>
+      <c r="P15" s="49">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q15" s="45" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>123404</v>
+      </c>
+      <c r="Q15" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R15" s="46">
         <v>0</v>
@@ -17607,21 +17607,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="382">
+      <c r="M49" s="372">
         <f>SUM(M5:M40)</f>
-        <v>592466</v>
-      </c>
-      <c r="N49" s="382">
+        <v>650055.5</v>
+      </c>
+      <c r="N49" s="372">
         <f>SUM(N5:N40)</f>
-        <v>451895</v>
-      </c>
-      <c r="P49" s="111" t="e">
+        <v>501960</v>
+      </c>
+      <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q49" s="394" t="e">
+        <v>1452722.76</v>
+      </c>
+      <c r="Q49" s="384">
         <f>SUM(Q5:Q40)</f>
-        <v>#VALUE!</v>
+        <v>57664.759999999995</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17640,10 +17640,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="383"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="373"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="395"/>
+      <c r="Q50" s="385"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>250</v>
@@ -17698,11 +17698,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="360">
+      <c r="M53" s="386">
         <f>M49+N49</f>
-        <v>1044361</v>
-      </c>
-      <c r="N53" s="361"/>
+        <v>1152015.5</v>
+      </c>
+      <c r="N53" s="387"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -18127,26 +18127,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="390" t="s">
+      <c r="H77" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="391"/>
+      <c r="I77" s="381"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="392">
+      <c r="K77" s="382">
         <f>I75+L75</f>
         <v>123371.26</v>
       </c>
-      <c r="L77" s="393"/>
+      <c r="L77" s="383"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="384" t="s">
+      <c r="D78" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="384"/>
+      <c r="E78" s="374"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>950838.74</v>
@@ -18155,22 +18155,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="385" t="s">
+      <c r="D79" s="375" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="385"/>
+      <c r="E79" s="375"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="386" t="s">
+      <c r="I79" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="387"/>
-      <c r="K79" s="388">
+      <c r="J79" s="377"/>
+      <c r="K79" s="378">
         <f>F81+F82+F83</f>
         <v>-651473.92999999993</v>
       </c>
-      <c r="L79" s="388"/>
+      <c r="L79" s="378"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -18211,11 +18211,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="389">
+      <c r="K81" s="379">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="388"/>
+      <c r="L81" s="378"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -18232,22 +18232,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="377" t="s">
+      <c r="D83" s="367" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="378"/>
+      <c r="E83" s="368"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="411" t="s">
+      <c r="I83" s="412" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="412"/>
-      <c r="K83" s="413">
+      <c r="J83" s="413"/>
+      <c r="K83" s="414">
         <f>K79+K81</f>
         <v>-4155652</v>
       </c>
-      <c r="L83" s="413"/>
+      <c r="L83" s="414"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -18391,6 +18391,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18407,12 +18413,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19362,10 +19362,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="397"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="398"/>
+      <c r="L36" s="399"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19382,10 +19382,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="397"/>
+      <c r="J37" s="398"/>
+      <c r="K37" s="398"/>
+      <c r="L37" s="399"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19442,10 +19442,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="401"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19464,8 +19464,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="402"/>
+      <c r="J41" s="403"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19484,8 +19484,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="404"/>
+      <c r="J42" s="405"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -19989,10 +19989,10 @@
         <f>SUM(G3:G66)</f>
         <v>1274425.81</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="406" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="407"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -20012,11 +20012,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="410" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="414"/>
-      <c r="J68" s="415"/>
+      <c r="I68" s="415"/>
+      <c r="J68" s="416"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20027,7 +20027,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="411"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="315">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1118,6 +1118,42 @@
   </si>
   <si>
     <t>pastor-tostadas-pollo-quesos-mixiotes-salchicas</t>
+  </si>
+  <si>
+    <t>ALBICIA NOTA 3083</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 3686</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 3751</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 0025</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 422</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 1686</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 2012</t>
+  </si>
+  <si>
+    <t>ALBICIA Noa 2274</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 3002</t>
+  </si>
+  <si>
+    <t>salchicha-mole-pollo-quesos-chorizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNOS </t>
+  </si>
+  <si>
+    <t>CREMA-OIKKI-QUESO-YOGURT</t>
   </si>
 </sst>
 </file>
@@ -3365,6 +3401,39 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3439,39 +3508,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5189,23 +5225,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="365"/>
+      <c r="C1" s="367" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="366"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5215,24 +5251,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="370"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="371"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="363" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="372" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5247,14 +5283,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="375"/>
+      <c r="H4" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="377"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5264,11 +5300,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="364"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="362"/>
+      <c r="R4" s="373"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -5307,7 +5343,7 @@
         <v>31942</v>
       </c>
       <c r="P5" s="44">
-        <f>N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P10" si="0">N5+M5+L5+I5+C5</f>
         <v>158782</v>
       </c>
       <c r="Q5" s="45">
@@ -5351,11 +5387,11 @@
         <v>53042</v>
       </c>
       <c r="P6" s="49">
-        <f>N6+M6+L6+I6+C6</f>
+        <f t="shared" si="0"/>
         <v>111444</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
+        <f t="shared" ref="Q6:Q47" si="1">P6-F6</f>
         <v>1</v>
       </c>
       <c r="R6" s="46">
@@ -5397,7 +5433,7 @@
         <v>34321</v>
       </c>
       <c r="P7" s="49">
-        <f>N7+M7+L7+I7+C7</f>
+        <f t="shared" si="0"/>
         <v>118590</v>
       </c>
       <c r="Q7" s="45">
@@ -5441,11 +5477,11 @@
         <v>40113</v>
       </c>
       <c r="P8" s="49">
-        <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" si="0"/>
         <v>99136</v>
       </c>
       <c r="Q8" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="46">
@@ -5486,7 +5522,7 @@
         <v>39928</v>
       </c>
       <c r="P9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>152708</v>
       </c>
       <c r="Q9" s="45">
@@ -5538,11 +5574,11 @@
         <v>63679</v>
       </c>
       <c r="P10" s="49">
-        <f>N10+M10+L10+I10+C10</f>
+        <f t="shared" si="0"/>
         <v>160582</v>
       </c>
       <c r="Q10" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R10" s="46">
@@ -5587,7 +5623,7 @@
         <v>121023</v>
       </c>
       <c r="Q11" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="R11" s="46">
@@ -5634,7 +5670,7 @@
         <v>127155</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="46">
@@ -5686,7 +5722,7 @@
         <v>104143</v>
       </c>
       <c r="Q13" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="46">
@@ -5733,7 +5769,7 @@
         <v>122772</v>
       </c>
       <c r="Q14" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="46">
@@ -5779,7 +5815,7 @@
         <v>113415</v>
       </c>
       <c r="Q15" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="46">
@@ -5825,7 +5861,7 @@
         <v>135526</v>
       </c>
       <c r="Q16" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="46">
@@ -5876,7 +5912,7 @@
         <v>135562</v>
       </c>
       <c r="Q17" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="46">
@@ -5922,7 +5958,7 @@
         <v>117598</v>
       </c>
       <c r="Q18" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="46">
@@ -5974,7 +6010,7 @@
         <v>116442</v>
       </c>
       <c r="Q19" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="R19" s="46">
@@ -6020,7 +6056,7 @@
         <v>111687</v>
       </c>
       <c r="Q20" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="46">
@@ -6162,7 +6198,7 @@
         <v>97988</v>
       </c>
       <c r="Q23" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="46">
@@ -6213,7 +6249,7 @@
         <v>134101</v>
       </c>
       <c r="Q24" s="285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-200</v>
       </c>
       <c r="R24" s="46">
@@ -6258,7 +6294,7 @@
         <v>119517</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="46">
@@ -6289,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="46">
@@ -6323,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="46">
@@ -6365,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="46">
@@ -6407,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="46">
@@ -6449,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="46">
@@ -6485,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="46">
@@ -6521,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R32" s="46">
@@ -6563,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R33" s="46">
@@ -6605,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="46">
@@ -6644,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R35" s="46">
@@ -6680,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R36" s="46">
@@ -6716,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="46">
@@ -6752,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="46">
@@ -6788,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="46">
@@ -6824,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="46">
@@ -6860,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -6896,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -6932,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="46">
@@ -6968,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" s="46">
@@ -6998,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R45" s="46">
@@ -7028,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R46" s="46">
@@ -7058,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R47" s="46">
@@ -7103,11 +7139,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="372">
+      <c r="M49" s="383">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="372">
+      <c r="N49" s="383">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -7115,7 +7151,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="384">
+      <c r="Q49" s="395">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7136,10 +7172,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="384"/>
+      <c r="N50" s="384"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="396"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7194,11 +7230,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="386">
+      <c r="M53" s="361">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="387"/>
+      <c r="N53" s="362"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7623,26 +7659,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="391" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="392"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="393">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="383"/>
+      <c r="L77" s="394"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="385" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="385"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7651,22 +7687,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="386" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="386"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="387" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="388"/>
+      <c r="K79" s="389">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="378"/>
+      <c r="L79" s="389"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7707,11 +7743,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="390">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="389"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7728,22 +7764,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="379"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="369" t="s">
+      <c r="I83" s="380" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="370"/>
-      <c r="K83" s="371">
+      <c r="J83" s="381"/>
+      <c r="K83" s="382">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="371"/>
+      <c r="L83" s="382"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7890,12 +7926,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -7912,6 +7942,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10538,23 +10574,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="365"/>
+      <c r="C1" s="367" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="366"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10564,24 +10600,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="370"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="371"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="363" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="361" t="s">
+      <c r="R3" s="372" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10596,14 +10632,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="375"/>
+      <c r="H4" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="377"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10613,11 +10649,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="364"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="362"/>
+      <c r="R4" s="373"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10656,11 +10692,11 @@
         <v>45922</v>
       </c>
       <c r="P5" s="44">
-        <f>N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P10" si="0">N5+M5+L5+I5+C5</f>
         <v>128033.5</v>
       </c>
       <c r="Q5" s="45">
-        <f t="shared" ref="Q5:Q47" si="0">P5-F5</f>
+        <f t="shared" ref="Q5:Q47" si="1">P5-F5</f>
         <v>3.5</v>
       </c>
       <c r="R5" s="46">
@@ -10701,11 +10737,11 @@
         <v>51500</v>
       </c>
       <c r="P6" s="49">
-        <f>N6+M6+L6+I6+C6</f>
+        <f t="shared" si="0"/>
         <v>121278</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="46">
@@ -10747,7 +10783,7 @@
         <v>33213</v>
       </c>
       <c r="P7" s="49">
-        <f>N7+M7+L7+I7+C7</f>
+        <f t="shared" si="0"/>
         <v>150233</v>
       </c>
       <c r="Q7" s="45">
@@ -10791,7 +10827,7 @@
         <v>30576</v>
       </c>
       <c r="P8" s="49">
-        <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" si="0"/>
         <v>103265</v>
       </c>
       <c r="Q8" s="45">
@@ -10836,11 +10872,11 @@
         <v>46165</v>
       </c>
       <c r="P9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>138587</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="46">
@@ -10888,11 +10924,11 @@
         <v>61609</v>
       </c>
       <c r="P10" s="49">
-        <f>N10+M10+L10+I10+C10</f>
+        <f t="shared" si="0"/>
         <v>149140</v>
       </c>
       <c r="Q10" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="46">
@@ -10937,7 +10973,7 @@
         <v>104071</v>
       </c>
       <c r="Q11" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="46">
@@ -10984,7 +11020,7 @@
         <v>123799</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="46">
@@ -11031,7 +11067,7 @@
         <v>152604</v>
       </c>
       <c r="Q13" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="46">
@@ -11078,7 +11114,7 @@
         <v>158933</v>
       </c>
       <c r="Q14" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="46">
@@ -11124,7 +11160,7 @@
         <v>110600</v>
       </c>
       <c r="Q15" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="46">
@@ -11170,7 +11206,7 @@
         <v>116861.22</v>
       </c>
       <c r="Q16" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22000000000116415</v>
       </c>
       <c r="R16" s="46">
@@ -11225,7 +11261,7 @@
         <v>151929</v>
       </c>
       <c r="Q17" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="46">
@@ -11316,7 +11352,7 @@
         <v>104330</v>
       </c>
       <c r="Q19" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="46" t="s">
@@ -11362,7 +11398,7 @@
         <v>116483</v>
       </c>
       <c r="Q20" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="46">
@@ -11410,7 +11446,7 @@
         <v>108127</v>
       </c>
       <c r="Q21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="46">
@@ -11459,7 +11495,7 @@
         <v>88411</v>
       </c>
       <c r="Q22" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="46">
@@ -11506,7 +11542,7 @@
         <v>113106</v>
       </c>
       <c r="Q23" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="46">
@@ -11557,7 +11593,7 @@
         <v>137262</v>
       </c>
       <c r="Q24" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="46" t="s">
@@ -11602,7 +11638,7 @@
         <v>106557</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="46">
@@ -11647,7 +11683,7 @@
         <v>95986</v>
       </c>
       <c r="Q26" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="46">
@@ -11696,7 +11732,7 @@
         <v>114836</v>
       </c>
       <c r="Q27" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="46">
@@ -11742,7 +11778,7 @@
         <v>88290.65</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.35000000000582077</v>
       </c>
       <c r="R28" s="46">
@@ -11787,7 +11823,7 @@
         <v>124393</v>
       </c>
       <c r="Q29" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="46">
@@ -11883,7 +11919,7 @@
         <v>158795</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="46">
@@ -11928,7 +11964,7 @@
         <v>93683</v>
       </c>
       <c r="Q32" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R32" s="46">
@@ -11980,7 +12016,7 @@
         <v>143797</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R33" s="46">
@@ -12026,7 +12062,7 @@
         <v>110726</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="46">
@@ -12075,7 +12111,7 @@
         <v>128582.5</v>
       </c>
       <c r="Q35" s="285">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1000.5</v>
       </c>
       <c r="R35" s="46">
@@ -12121,7 +12157,7 @@
         <v>96003</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R36" s="46">
@@ -12166,7 +12202,7 @@
         <v>92756</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R37" s="46">
@@ -12197,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R38" s="46">
@@ -12228,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R39" s="46">
@@ -12259,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R40" s="46">
@@ -12295,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -12331,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -12367,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="46">
@@ -12403,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" s="46">
@@ -12440,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R45" s="46">
@@ -12482,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R46" s="46">
@@ -12524,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R47" s="46">
@@ -12593,11 +12629,11 @@
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="372">
+      <c r="M49" s="383">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="372">
+      <c r="N49" s="383">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -12605,7 +12641,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="384">
+      <c r="Q49" s="395">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -12638,10 +12674,10 @@
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="384"/>
+      <c r="N50" s="384"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="396"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12714,11 +12750,11 @@
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="386">
+      <c r="M53" s="361">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="387"/>
+      <c r="N53" s="362"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13167,26 +13203,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="391" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="392"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="393">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="383"/>
+      <c r="L77" s="394"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="385" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="385"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13195,22 +13231,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="386" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="386"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="387" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="388"/>
+      <c r="K79" s="389">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="378"/>
+      <c r="L79" s="389"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13251,11 +13287,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="390">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="389"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13272,10 +13308,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="379"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
@@ -13434,6 +13470,12 @@
     <sortCondition ref="J46:J56"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13450,12 +13492,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15836,8 +15872,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15863,23 +15899,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="390"/>
-      <c r="C1" s="392" t="s">
+      <c r="B1" s="365"/>
+      <c r="C1" s="367" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="391"/>
+      <c r="B2" s="366"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15889,21 +15925,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="394" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="395"/>
+      <c r="B3" s="369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="370"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="396" t="s">
+      <c r="H3" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="396"/>
+      <c r="I3" s="371"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="388" t="s">
+      <c r="P3" s="363" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="417" t="s">
@@ -15921,14 +15957,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="363" t="s">
+      <c r="E4" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="364"/>
-      <c r="H4" s="365" t="s">
+      <c r="F4" s="375"/>
+      <c r="H4" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="366"/>
+      <c r="I4" s="377"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15938,7 +15974,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="389"/>
+      <c r="P4" s="364"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -15986,7 +16022,7 @@
         <v>39573</v>
       </c>
       <c r="P5" s="44">
-        <f>N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P10" si="0">N5+M5+L5+I5+C5</f>
         <v>143512</v>
       </c>
       <c r="Q5" s="45">
@@ -16030,11 +16066,11 @@
         <v>38269</v>
       </c>
       <c r="P6" s="49">
-        <f>N6+M6+L6+I6+C6</f>
+        <f t="shared" si="0"/>
         <v>92267</v>
       </c>
       <c r="Q6" s="45">
-        <f t="shared" ref="Q6:Q47" si="0">P6-F6</f>
+        <f t="shared" ref="Q6:Q47" si="1">P6-F6</f>
         <v>0</v>
       </c>
       <c r="R6" s="46">
@@ -16076,7 +16112,7 @@
         <v>47444</v>
       </c>
       <c r="P7" s="49">
-        <f>N7+M7+L7+I7+C7</f>
+        <f t="shared" si="0"/>
         <v>131688</v>
       </c>
       <c r="Q7" s="45">
@@ -16121,7 +16157,7 @@
         <v>39113</v>
       </c>
       <c r="P8" s="49">
-        <f t="shared" ref="P8:P9" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" si="0"/>
         <v>117095</v>
       </c>
       <c r="Q8" s="45">
@@ -16172,11 +16208,11 @@
         <v>28405</v>
       </c>
       <c r="P9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92137</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="46">
@@ -16218,11 +16254,11 @@
         <v>46068</v>
       </c>
       <c r="P10" s="49">
-        <f>N10+M10+L10+I10+C10</f>
+        <f t="shared" si="0"/>
         <v>109967.5</v>
       </c>
       <c r="Q10" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
       <c r="R10" s="46">
@@ -16319,7 +16355,7 @@
         <v>152331</v>
       </c>
       <c r="Q12" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="46">
@@ -16366,7 +16402,7 @@
         <v>153796</v>
       </c>
       <c r="Q13" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="46">
@@ -16413,7 +16449,7 @@
         <v>125011</v>
       </c>
       <c r="Q14" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="46">
@@ -16458,7 +16494,7 @@
         <v>123404</v>
       </c>
       <c r="Q15" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="46">
@@ -16470,33 +16506,48 @@
       <c r="B16" s="32">
         <v>45000</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="33">
+        <v>19866</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>312</v>
+      </c>
       <c r="E16" s="35">
         <v>45000</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>101693</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45000</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="343"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="39">
+        <v>3801.5</v>
+      </c>
+      <c r="J16" s="40">
+        <v>45000</v>
+      </c>
+      <c r="K16" s="343" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="13">
+        <v>6766</v>
+      </c>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>40900+5522</f>
+        <v>46422</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>24843</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101698.5</v>
       </c>
       <c r="Q16" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="R16" s="46">
         <v>0</v>
@@ -16507,33 +16558,42 @@
       <c r="B17" s="32">
         <v>45001</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="33">
+        <v>7295</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>314</v>
+      </c>
       <c r="E17" s="35">
         <v>45001</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>172055</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45001</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>1987</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
       <c r="M17" s="42">
-        <v>0</v>
+        <f>63942+53400</f>
+        <v>117342</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>45433</v>
       </c>
       <c r="P17" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>172057</v>
       </c>
       <c r="Q17" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="R17" s="46">
         <v>0</v>
@@ -16605,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="46" t="s">
@@ -16642,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="46">
@@ -16679,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="46">
@@ -16716,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="46">
@@ -16754,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="46">
@@ -16791,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="46" t="s">
@@ -16828,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="46">
@@ -16865,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="46">
@@ -16905,7 +16965,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="46">
@@ -16942,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="46">
@@ -16979,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="46">
@@ -17046,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R31" s="46">
@@ -17083,7 +17143,7 @@
         <v>21975</v>
       </c>
       <c r="Q32" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21975</v>
       </c>
       <c r="R32" s="46">
@@ -17120,7 +17180,7 @@
         <v>24587.26</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24587.26</v>
       </c>
       <c r="R33" s="46">
@@ -17151,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R34" s="46">
@@ -17185,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R35" s="46">
@@ -17222,7 +17282,7 @@
         <v>8424</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8424</v>
       </c>
       <c r="R36" s="46">
@@ -17259,7 +17319,7 @@
         <v>2679</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2679</v>
       </c>
       <c r="R37" s="46">
@@ -17268,9 +17328,15 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
+      <c r="B38" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C38" s="93">
+        <v>10746</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>303</v>
+      </c>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="92"/>
@@ -17287,11 +17353,11 @@
       </c>
       <c r="P38" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10746</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10746</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -17299,9 +17365,15 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="96"/>
+      <c r="B39" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C39" s="93">
+        <v>9892</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>304</v>
+      </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="92"/>
@@ -17318,11 +17390,11 @@
       </c>
       <c r="P39" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9892</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9892</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -17330,9 +17402,15 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
+      <c r="B40" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C40" s="93">
+        <v>3962</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>305</v>
+      </c>
       <c r="E40" s="35"/>
       <c r="F40" s="97"/>
       <c r="G40" s="37"/>
@@ -17349,11 +17427,11 @@
       </c>
       <c r="P40" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3962</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3962</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -17361,9 +17439,15 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C41" s="93">
+        <v>5264</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>306</v>
+      </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
@@ -17382,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R41" s="46">
@@ -17391,9 +17475,15 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C42" s="93">
+        <v>1880</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>307</v>
+      </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
@@ -17412,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -17421,9 +17511,15 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C43" s="93">
+        <v>6448</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>308</v>
+      </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
@@ -17442,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R43" s="46">
@@ -17451,9 +17547,15 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C44" s="93">
+        <v>9864</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>309</v>
+      </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
@@ -17472,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R44" s="46">
@@ -17481,9 +17583,15 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="102"/>
+      <c r="B45" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C45" s="93">
+        <v>4235</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>310</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -17502,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R45" s="46">
@@ -17511,9 +17619,15 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="32">
+        <v>44999</v>
+      </c>
+      <c r="C46" s="93">
+        <v>3900</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>311</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
@@ -17532,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R46" s="46">
@@ -17562,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R47" s="46">
@@ -17607,21 +17721,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="372">
+      <c r="M49" s="383">
         <f>SUM(M5:M40)</f>
-        <v>650055.5</v>
-      </c>
-      <c r="N49" s="372">
+        <v>813819.5</v>
+      </c>
+      <c r="N49" s="383">
         <f>SUM(N5:N40)</f>
-        <v>501960</v>
+        <v>572236</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1452722.76</v>
-      </c>
-      <c r="Q49" s="384">
+        <v>1751078.26</v>
+      </c>
+      <c r="Q49" s="395">
         <f>SUM(Q5:Q40)</f>
-        <v>57664.759999999995</v>
+        <v>82272.259999999995</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17640,10 +17754,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="373"/>
-      <c r="N50" s="373"/>
+      <c r="M50" s="384"/>
+      <c r="N50" s="384"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="385"/>
+      <c r="Q50" s="396"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>250</v>
@@ -17698,11 +17812,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="386">
+      <c r="M53" s="361">
         <f>M49+N49</f>
-        <v>1152015.5</v>
-      </c>
-      <c r="N53" s="387"/>
+        <v>1386055.5</v>
+      </c>
+      <c r="N53" s="362"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -18085,7 +18199,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>177336</v>
+        <v>260688</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -18093,7 +18207,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1251546</v>
+        <v>1525294</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -18101,7 +18215,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>32700</v>
+        <v>38488.5</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -18109,7 +18223,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>90671.26</v>
+        <v>97437.26</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -18127,50 +18241,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="380" t="s">
+      <c r="H77" s="391" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="381"/>
+      <c r="I77" s="392"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="382">
+      <c r="K77" s="393">
         <f>I75+L75</f>
-        <v>123371.26</v>
-      </c>
-      <c r="L77" s="383"/>
+        <v>135925.76000000001</v>
+      </c>
+      <c r="L77" s="394"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="374" t="s">
+      <c r="D78" s="385" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="374"/>
+      <c r="E78" s="385"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>950838.74</v>
+        <v>1128680.24</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="375" t="s">
+      <c r="D79" s="386" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="375"/>
+      <c r="E79" s="386"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="376" t="s">
+      <c r="I79" s="387" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="377"/>
-      <c r="K79" s="378">
+      <c r="J79" s="388"/>
+      <c r="K79" s="389">
         <f>F81+F82+F83</f>
-        <v>-651473.92999999993</v>
-      </c>
-      <c r="L79" s="378"/>
+        <v>-473632.42999999993</v>
+      </c>
+      <c r="L79" s="389"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -18204,18 +18318,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-880010.92999999993</v>
+        <v>-702169.42999999993</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="379">
+      <c r="K81" s="390">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="378"/>
+      <c r="L81" s="389"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -18232,10 +18346,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="367" t="s">
+      <c r="D83" s="378" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="368"/>
+      <c r="E83" s="379"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
@@ -18245,7 +18359,7 @@
       <c r="J83" s="413"/>
       <c r="K83" s="414">
         <f>K79+K81</f>
-        <v>-4155652</v>
+        <v>-3977810.5</v>
       </c>
       <c r="L83" s="414"/>
     </row>
@@ -18391,12 +18505,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18413,6 +18521,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="323">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1154,6 +1154,30 @@
   </si>
   <si>
     <t>CREMA-OIKKI-QUESO-YOGURT</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-ENCHILADA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NOMINA # 11 Y Vac. Jose Manuel</t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-PEPERONI-SALAMI-CHISTORRA</t>
+  </si>
+  <si>
+    <t>CHORIZO-POLLO-PICAÑA-SALMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCUMENTO NOTAS </t>
+  </si>
+  <si>
+    <t>LOMO-JAMON-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>Transformador</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-LONGANIZA-PAN ARABE</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1551,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1636,6 +1660,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="84">
     <border>
@@ -2697,7 +2727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3362,9 +3392,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3401,6 +3428,81 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3434,81 +3536,6 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3575,6 +3602,13 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="24" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5225,23 +5259,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="365"/>
-      <c r="C1" s="367" t="s">
+      <c r="B1" s="389"/>
+      <c r="C1" s="391" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="366"/>
+      <c r="B2" s="390"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5251,24 +5285,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="369" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="370"/>
+      <c r="B3" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="394"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="371"/>
+      <c r="I3" s="395"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="363" t="s">
+      <c r="P3" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="372" t="s">
+      <c r="R3" s="360" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5283,14 +5317,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="374" t="s">
+      <c r="E4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="H4" s="376" t="s">
+      <c r="F4" s="363"/>
+      <c r="H4" s="364" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="377"/>
+      <c r="I4" s="365"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5300,11 +5334,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="364"/>
+      <c r="P4" s="388"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="373"/>
+      <c r="R4" s="361"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7139,11 +7173,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="383">
+      <c r="M49" s="371">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="383">
+      <c r="N49" s="371">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -7151,7 +7185,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="395">
+      <c r="Q49" s="383">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7172,10 +7206,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="384"/>
-      <c r="N50" s="384"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="372"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="396"/>
+      <c r="Q50" s="384"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7230,11 +7264,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="361">
+      <c r="M53" s="385">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="362"/>
+      <c r="N53" s="386"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7659,26 +7693,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="391" t="s">
+      <c r="H77" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="392"/>
+      <c r="I77" s="380"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="393">
+      <c r="K77" s="381">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="394"/>
+      <c r="L77" s="382"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="385" t="s">
+      <c r="D78" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="385"/>
+      <c r="E78" s="373"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7687,22 +7721,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="386" t="s">
+      <c r="D79" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="386"/>
+      <c r="E79" s="374"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="387" t="s">
+      <c r="I79" s="375" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="388"/>
-      <c r="K79" s="389">
+      <c r="J79" s="376"/>
+      <c r="K79" s="377">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="389"/>
+      <c r="L79" s="377"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7743,11 +7777,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="390">
+      <c r="K81" s="378">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="389"/>
+      <c r="L81" s="377"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7764,22 +7798,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="378" t="s">
+      <c r="D83" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="379"/>
+      <c r="E83" s="367"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="380" t="s">
+      <c r="I83" s="368" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="381"/>
-      <c r="K83" s="382">
+      <c r="J83" s="369"/>
+      <c r="K83" s="370">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="382"/>
+      <c r="L83" s="370"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -7926,6 +7960,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -7942,12 +7982,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8099,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="356">
+      <c r="I4" s="355">
         <v>44925</v>
       </c>
       <c r="J4" s="288">
@@ -9266,10 +9300,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -9292,10 +9326,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -9352,10 +9386,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -9374,8 +9408,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -9394,8 +9428,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -9899,10 +9933,10 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -9922,11 +9956,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="408"/>
-      <c r="J68" s="409"/>
+      <c r="I68" s="407"/>
+      <c r="J68" s="408"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9937,7 +9971,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -10545,10 +10579,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10574,23 +10608,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="365"/>
-      <c r="C1" s="367" t="s">
+      <c r="B1" s="389"/>
+      <c r="C1" s="391" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="366"/>
+      <c r="B2" s="390"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10600,24 +10634,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="369" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="370"/>
+      <c r="B3" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="394"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="371"/>
+      <c r="I3" s="395"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="363" t="s">
+      <c r="P3" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="372" t="s">
+      <c r="R3" s="360" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10632,14 +10666,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="374" t="s">
+      <c r="E4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="H4" s="376" t="s">
+      <c r="F4" s="363"/>
+      <c r="H4" s="364" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="377"/>
+      <c r="I4" s="365"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10649,11 +10683,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="364"/>
+      <c r="P4" s="388"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="373"/>
+      <c r="R4" s="361"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12629,11 +12663,11 @@
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="383">
+      <c r="M49" s="371">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="383">
+      <c r="N49" s="371">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -12641,7 +12675,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="395">
+      <c r="Q49" s="383">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -12674,10 +12708,10 @@
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="384"/>
-      <c r="N50" s="384"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="372"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="396"/>
+      <c r="Q50" s="384"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12750,11 +12784,11 @@
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="361">
+      <c r="M53" s="385">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="362"/>
+      <c r="N53" s="386"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13203,26 +13237,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="391" t="s">
+      <c r="H77" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="392"/>
+      <c r="I77" s="380"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="393">
+      <c r="K77" s="381">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="394"/>
+      <c r="L77" s="382"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="385" t="s">
+      <c r="D78" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="385"/>
+      <c r="E78" s="373"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13231,22 +13265,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="386" t="s">
+      <c r="D79" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="386"/>
+      <c r="E79" s="374"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="387" t="s">
+      <c r="I79" s="375" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="388"/>
-      <c r="K79" s="389">
+      <c r="J79" s="376"/>
+      <c r="K79" s="377">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="389"/>
+      <c r="L79" s="377"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13287,11 +13321,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="390">
+      <c r="K81" s="378">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="389"/>
+      <c r="L81" s="377"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13308,22 +13342,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="378" t="s">
+      <c r="D83" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="379"/>
+      <c r="E83" s="367"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="412" t="s">
+      <c r="I83" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="413"/>
-      <c r="K83" s="414">
+      <c r="J83" s="412"/>
+      <c r="K83" s="413">
         <f>K79+K81</f>
         <v>-2882883.05</v>
       </c>
-      <c r="L83" s="414"/>
+      <c r="L83" s="413"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13470,12 +13504,6 @@
     <sortCondition ref="J46:J56"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13492,6 +13520,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13670,7 +13704,7 @@
         <f t="shared" si="0"/>
         <v>63500.3</v>
       </c>
-      <c r="I5" s="355" t="s">
+      <c r="I5" s="354" t="s">
         <v>267</v>
       </c>
       <c r="J5" s="310">
@@ -13702,7 +13736,7 @@
         <f t="shared" si="0"/>
         <v>97811.32</v>
       </c>
-      <c r="I6" s="355" t="s">
+      <c r="I6" s="354" t="s">
         <v>268</v>
       </c>
       <c r="J6" s="310">
@@ -13734,7 +13768,7 @@
         <f t="shared" si="0"/>
         <v>23821.599999999999</v>
       </c>
-      <c r="I7" s="355" t="s">
+      <c r="I7" s="354" t="s">
         <v>269</v>
       </c>
       <c r="J7" s="310">
@@ -13766,7 +13800,7 @@
         <f t="shared" si="0"/>
         <v>28550.54</v>
       </c>
-      <c r="I8" s="355" t="s">
+      <c r="I8" s="354" t="s">
         <v>270</v>
       </c>
       <c r="J8" s="310">
@@ -13798,7 +13832,7 @@
         <f t="shared" si="0"/>
         <v>54776.1</v>
       </c>
-      <c r="I9" s="355" t="s">
+      <c r="I9" s="354" t="s">
         <v>271</v>
       </c>
       <c r="J9" s="310">
@@ -13831,7 +13865,7 @@
         <v>6216</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="355" t="s">
+      <c r="I10" s="354" t="s">
         <v>272</v>
       </c>
       <c r="J10" s="310">
@@ -13863,7 +13897,7 @@
         <f t="shared" si="0"/>
         <v>89707.48</v>
       </c>
-      <c r="I11" s="355" t="s">
+      <c r="I11" s="354" t="s">
         <v>273</v>
       </c>
       <c r="J11" s="310">
@@ -13895,7 +13929,7 @@
         <f t="shared" si="0"/>
         <v>44780.82</v>
       </c>
-      <c r="I12" s="355" t="s">
+      <c r="I12" s="354" t="s">
         <v>274</v>
       </c>
       <c r="J12" s="310">
@@ -13927,7 +13961,7 @@
         <f t="shared" si="0"/>
         <v>21573</v>
       </c>
-      <c r="I13" s="355" t="s">
+      <c r="I13" s="354" t="s">
         <v>275</v>
       </c>
       <c r="J13" s="310">
@@ -13959,7 +13993,7 @@
         <f t="shared" si="0"/>
         <v>30244.83</v>
       </c>
-      <c r="I14" s="355" t="s">
+      <c r="I14" s="354" t="s">
         <v>275</v>
       </c>
       <c r="J14" s="310">
@@ -13991,7 +14025,7 @@
         <f t="shared" si="0"/>
         <v>10627.4</v>
       </c>
-      <c r="I15" s="355" t="s">
+      <c r="I15" s="354" t="s">
         <v>276</v>
       </c>
       <c r="J15" s="310">
@@ -14023,7 +14057,7 @@
         <f t="shared" si="0"/>
         <v>106320.8</v>
       </c>
-      <c r="I16" s="355" t="s">
+      <c r="I16" s="354" t="s">
         <v>277</v>
       </c>
       <c r="J16" s="310">
@@ -14055,7 +14089,7 @@
         <f t="shared" si="0"/>
         <v>15558.9</v>
       </c>
-      <c r="I17" s="355" t="s">
+      <c r="I17" s="354" t="s">
         <v>277</v>
       </c>
       <c r="J17" s="310">
@@ -14087,7 +14121,7 @@
         <f t="shared" si="0"/>
         <v>38966</v>
       </c>
-      <c r="I18" s="355" t="s">
+      <c r="I18" s="354" t="s">
         <v>278</v>
       </c>
       <c r="J18" s="310">
@@ -14119,7 +14153,7 @@
         <f t="shared" si="0"/>
         <v>22837.8</v>
       </c>
-      <c r="I19" s="355" t="s">
+      <c r="I19" s="354" t="s">
         <v>279</v>
       </c>
       <c r="J19" s="310">
@@ -14151,7 +14185,7 @@
         <f t="shared" si="0"/>
         <v>3940.89</v>
       </c>
-      <c r="I20" s="355" t="s">
+      <c r="I20" s="354" t="s">
         <v>280</v>
       </c>
       <c r="J20" s="310">
@@ -14183,7 +14217,7 @@
         <f t="shared" si="0"/>
         <v>91161.2</v>
       </c>
-      <c r="I21" s="355" t="s">
+      <c r="I21" s="354" t="s">
         <v>281</v>
       </c>
       <c r="J21" s="310">
@@ -14216,7 +14250,7 @@
         <v>7864.6</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="355" t="s">
+      <c r="I22" s="354" t="s">
         <v>282</v>
       </c>
       <c r="J22" s="310">
@@ -14249,7 +14283,7 @@
         <v>56418.54</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="355" t="s">
+      <c r="I23" s="354" t="s">
         <v>283</v>
       </c>
       <c r="J23" s="310">
@@ -14282,7 +14316,7 @@
         <v>255285.95</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="355" t="s">
+      <c r="I24" s="354" t="s">
         <v>284</v>
       </c>
       <c r="J24" s="310">
@@ -14315,7 +14349,7 @@
         <v>7950</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="355" t="s">
+      <c r="I25" s="354" t="s">
         <v>285</v>
       </c>
       <c r="J25" s="310">
@@ -14348,7 +14382,7 @@
         <v>48571.5</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="355" t="s">
+      <c r="I26" s="354" t="s">
         <v>286</v>
       </c>
       <c r="J26" s="310">
@@ -14381,7 +14415,7 @@
         <v>22975.1</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="357">
+      <c r="I27" s="356">
         <v>44986</v>
       </c>
       <c r="J27" s="310"/>
@@ -14410,7 +14444,7 @@
         <v>6000</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="357">
+      <c r="I28" s="356">
         <v>44987</v>
       </c>
       <c r="J28" s="310"/>
@@ -14439,7 +14473,7 @@
         <v>5547</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="357">
+      <c r="I29" s="356">
         <v>44988</v>
       </c>
       <c r="J29" s="310"/>
@@ -14469,7 +14503,7 @@
         <v>89040.4</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="358"/>
+      <c r="I30" s="357"/>
       <c r="J30" s="281"/>
       <c r="K30" s="237"/>
       <c r="L30" s="224"/>
@@ -14633,10 +14667,10 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -14659,10 +14693,10 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -14725,10 +14759,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -14747,8 +14781,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -14767,8 +14801,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -15272,10 +15306,10 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>99279.2</v>
@@ -15295,11 +15329,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="415"/>
-      <c r="J68" s="416"/>
+      <c r="I68" s="414"/>
+      <c r="J68" s="415"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15310,7 +15344,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15872,8 +15906,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15899,23 +15933,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="365"/>
-      <c r="C1" s="367" t="s">
+      <c r="B1" s="389"/>
+      <c r="C1" s="391" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="366"/>
+      <c r="B2" s="390"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15925,24 +15959,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="369" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="370"/>
+      <c r="B3" s="393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="394"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="371" t="s">
+      <c r="H3" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="371"/>
+      <c r="I3" s="395"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="363" t="s">
+      <c r="P3" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="417" t="s">
+      <c r="R3" s="416" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15957,14 +15991,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="374" t="s">
+      <c r="E4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="375"/>
-      <c r="H4" s="376" t="s">
+      <c r="F4" s="363"/>
+      <c r="H4" s="364" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="377"/>
+      <c r="I4" s="365"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -15974,11 +16008,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="364"/>
+      <c r="P4" s="388"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="418"/>
+      <c r="R4" s="417"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -16009,7 +16043,7 @@
       <c r="J5" s="40">
         <v>44989</v>
       </c>
-      <c r="K5" s="360" t="s">
+      <c r="K5" s="359" t="s">
         <v>288</v>
       </c>
       <c r="L5" s="13">
@@ -16028,7 +16062,7 @@
       <c r="Q5" s="45">
         <v>0</v>
       </c>
-      <c r="R5" s="359">
+      <c r="R5" s="358">
         <v>250</v>
       </c>
     </row>
@@ -16194,7 +16228,7 @@
       <c r="J9" s="40">
         <v>44993</v>
       </c>
-      <c r="K9" s="350" t="s">
+      <c r="K9" s="349" t="s">
         <v>293</v>
       </c>
       <c r="L9" s="49">
@@ -16604,29 +16638,38 @@
       <c r="B18" s="32">
         <v>45002</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="33">
+        <v>5818</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="E18" s="35">
         <v>45002</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>145995</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45002</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>2988.5</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>4942+85847.5</f>
+        <v>90789.5</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>46399</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>145995</v>
       </c>
       <c r="Q18" s="45">
         <v>0</v>
@@ -16635,38 +16678,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="32">
         <v>45003</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>15935</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>315</v>
+      </c>
       <c r="E19" s="35">
         <v>45003</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>159079</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45003</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="345"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="39">
+        <v>3541</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45003</v>
+      </c>
+      <c r="K19" s="345" t="s">
+        <v>316</v>
+      </c>
+      <c r="L19" s="59">
+        <f>18993+4381</f>
+        <v>23374</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <f>48817.5+4092.48+4584+2048</f>
+        <v>59541.98</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>56688</v>
       </c>
       <c r="P19" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>159079.98000000001</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.98000000001047738</v>
       </c>
       <c r="R19" s="46" t="s">
         <v>11</v>
@@ -16677,29 +16736,37 @@
       <c r="B20" s="32">
         <v>45004</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>18926</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>317</v>
+      </c>
       <c r="E20" s="35">
         <v>45004</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>99717</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45004</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>1486.5</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <v>45892.5</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>33412</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99717</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
@@ -16714,66 +16781,96 @@
       <c r="B21" s="32">
         <v>45005</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>18054</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>318</v>
+      </c>
       <c r="E21" s="35">
         <v>45005</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>232252</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45005</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="55"/>
+      <c r="I21" s="39">
+        <v>2635</v>
+      </c>
+      <c r="J21" s="40">
+        <v>45005</v>
+      </c>
+      <c r="K21" s="418" t="s">
+        <v>319</v>
+      </c>
+      <c r="L21" s="55">
+        <v>157518</v>
+      </c>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>315303.5+42101</f>
+        <v>357404.5</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>49563</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>585174.5</v>
       </c>
       <c r="Q21" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R21" s="282">
+        <v>352922.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31"/>
       <c r="B22" s="32">
         <v>45006</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>12441</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>320</v>
+      </c>
       <c r="E22" s="35">
         <v>45006</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>125826</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45006</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="62"/>
+      <c r="I22" s="420">
+        <f>1122+5000</f>
+        <v>6122</v>
+      </c>
+      <c r="J22" s="40">
+        <v>45006</v>
+      </c>
+      <c r="K22" s="419" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" s="62">
+        <v>16750</v>
+      </c>
       <c r="M22" s="42">
-        <v>0</v>
+        <v>36544</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <f>53199+770</f>
+        <v>53969</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>125826</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="1"/>
@@ -16789,29 +16886,38 @@
       <c r="B23" s="32">
         <v>45007</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>17462</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>322</v>
+      </c>
       <c r="E23" s="35">
         <v>45007</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>101497</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45007</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>1756</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>40915+6605</f>
+        <v>47520</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>34759</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101497</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
@@ -16952,7 +17058,7 @@
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="337"/>
-      <c r="K27" s="347"/>
+      <c r="K27" s="346"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
         <v>0</v>
@@ -17026,7 +17132,7 @@
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="339"/>
-      <c r="K29" s="348"/>
+      <c r="K29" s="347"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
         <v>0</v>
@@ -17093,7 +17199,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="39"/>
       <c r="J31" s="338"/>
-      <c r="K31" s="349"/>
+      <c r="K31" s="348"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
         <v>0</v>
@@ -17163,7 +17269,7 @@
       <c r="J33" s="338">
         <v>44996</v>
       </c>
-      <c r="K33" s="350" t="s">
+      <c r="K33" s="349" t="s">
         <v>299</v>
       </c>
       <c r="L33" s="84">
@@ -17197,9 +17303,16 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="338"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="49"/>
+      <c r="J34" s="338">
+        <v>45003</v>
+      </c>
+      <c r="K34" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" s="49">
+        <f>27880</f>
+        <v>27880</v>
+      </c>
       <c r="M34" s="42">
         <v>0</v>
       </c>
@@ -17208,11 +17321,11 @@
       </c>
       <c r="P34" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27880</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27880</v>
       </c>
       <c r="R34" s="46">
         <v>0</v>
@@ -17343,7 +17456,7 @@
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
       <c r="J38" s="338"/>
-      <c r="K38" s="351"/>
+      <c r="K38" s="350"/>
       <c r="L38" s="49"/>
       <c r="M38" s="42">
         <v>0</v>
@@ -17380,7 +17493,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
       <c r="J39" s="340"/>
-      <c r="K39" s="351"/>
+      <c r="K39" s="350"/>
       <c r="L39" s="49"/>
       <c r="M39" s="42">
         <v>0</v>
@@ -17721,21 +17834,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="383">
+      <c r="M49" s="371">
         <f>SUM(M5:M40)</f>
-        <v>813819.5</v>
-      </c>
-      <c r="N49" s="383">
+        <v>1451511.98</v>
+      </c>
+      <c r="N49" s="371">
         <f>SUM(N5:N40)</f>
-        <v>572236</v>
+        <v>847026</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1751078.26</v>
-      </c>
-      <c r="Q49" s="395">
+        <v>2996247.7399999998</v>
+      </c>
+      <c r="Q49" s="383">
         <f>SUM(Q5:Q40)</f>
-        <v>82272.259999999995</v>
+        <v>110153.24</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17754,13 +17867,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="384"/>
-      <c r="N50" s="384"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="372"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="396"/>
+      <c r="Q50" s="384"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>250</v>
+        <v>353172.5</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17812,11 +17925,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="361">
+      <c r="M53" s="385">
         <f>M49+N49</f>
-        <v>1386055.5</v>
-      </c>
-      <c r="N53" s="362"/>
+        <v>2298537.98</v>
+      </c>
+      <c r="N53" s="386"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -17867,7 +17980,7 @@
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
       <c r="J56" s="341"/>
-      <c r="K56" s="352"/>
+      <c r="K56" s="351"/>
       <c r="L56" s="68"/>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
@@ -17975,7 +18088,7 @@
       <c r="H62" s="106"/>
       <c r="I62" s="103"/>
       <c r="J62" s="342"/>
-      <c r="K62" s="353"/>
+      <c r="K62" s="352"/>
       <c r="L62" s="84"/>
       <c r="M62" s="113"/>
       <c r="N62" s="113"/>
@@ -18011,7 +18124,7 @@
       <c r="H64" s="106"/>
       <c r="I64" s="103"/>
       <c r="J64" s="342"/>
-      <c r="K64" s="353"/>
+      <c r="K64" s="352"/>
       <c r="L64" s="84"/>
       <c r="M64" s="113"/>
       <c r="N64" s="113"/>
@@ -18065,7 +18178,7 @@
       <c r="H67" s="106"/>
       <c r="I67" s="103"/>
       <c r="J67" s="342"/>
-      <c r="K67" s="354"/>
+      <c r="K67" s="353"/>
       <c r="L67" s="84"/>
       <c r="M67" s="113"/>
       <c r="N67" s="113"/>
@@ -18199,7 +18312,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>260688</v>
+        <v>349324</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -18207,7 +18320,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>1525294</v>
+        <v>2389660</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -18215,7 +18328,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>38488.5</v>
+        <v>57017.5</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -18223,7 +18336,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>97437.26</v>
+        <v>322959.26</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -18241,50 +18354,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="391" t="s">
+      <c r="H77" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="392"/>
+      <c r="I77" s="380"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="393">
+      <c r="K77" s="381">
         <f>I75+L75</f>
-        <v>135925.76000000001</v>
-      </c>
-      <c r="L77" s="394"/>
+        <v>379976.76</v>
+      </c>
+      <c r="L77" s="382"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="385" t="s">
+      <c r="D78" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="385"/>
+      <c r="E78" s="373"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1128680.24</v>
+        <v>1660359.24</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="386" t="s">
+      <c r="D79" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="386"/>
+      <c r="E79" s="374"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="387" t="s">
+      <c r="I79" s="375" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="388"/>
-      <c r="K79" s="389">
+      <c r="J79" s="376"/>
+      <c r="K79" s="377">
         <f>F81+F82+F83</f>
-        <v>-473632.42999999993</v>
-      </c>
-      <c r="L79" s="389"/>
+        <v>58046.570000000065</v>
+      </c>
+      <c r="L79" s="377"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -18318,18 +18431,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-702169.42999999993</v>
+        <v>-170490.42999999993</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="390">
+      <c r="K81" s="378">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="389"/>
+      <c r="L81" s="377"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -18346,22 +18459,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="378" t="s">
+      <c r="D83" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="379"/>
+      <c r="E83" s="367"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="412" t="s">
+      <c r="I83" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="413"/>
-      <c r="K83" s="414">
+      <c r="J83" s="412"/>
+      <c r="K83" s="413">
         <f>K79+K81</f>
-        <v>-3977810.5</v>
-      </c>
-      <c r="L83" s="414"/>
+        <v>-3446131.5</v>
+      </c>
+      <c r="L83" s="413"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -18505,6 +18618,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -18521,12 +18640,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19476,10 +19589,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="397"/>
-      <c r="J36" s="398"/>
-      <c r="K36" s="398"/>
-      <c r="L36" s="399"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="397"/>
+      <c r="K36" s="397"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19496,10 +19609,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="397"/>
-      <c r="J37" s="398"/>
-      <c r="K37" s="398"/>
-      <c r="L37" s="399"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="397"/>
+      <c r="K37" s="397"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19556,10 +19669,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="400" t="s">
+      <c r="I40" s="399" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="401"/>
+      <c r="J40" s="400"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19578,8 +19691,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="402"/>
-      <c r="J41" s="403"/>
+      <c r="I41" s="401"/>
+      <c r="J41" s="402"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19598,8 +19711,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="404"/>
-      <c r="J42" s="405"/>
+      <c r="I42" s="403"/>
+      <c r="J42" s="404"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -20103,10 +20216,10 @@
         <f>SUM(G3:G66)</f>
         <v>1274425.81</v>
       </c>
-      <c r="I67" s="406" t="s">
+      <c r="I67" s="405" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="407"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -20126,11 +20239,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="410" t="s">
+      <c r="G68" s="409" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="415"/>
-      <c r="J68" s="416"/>
+      <c r="I68" s="414"/>
+      <c r="J68" s="415"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20141,7 +20254,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="411"/>
+      <c r="G69" s="410"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #03  MARZO 2023/BALANCE  ZAVALETA   MARZO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="336">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1178,6 +1178,45 @@
   </si>
   <si>
     <t>POLLO-QUESOS-LONGANIZA-PAN ARABE</t>
+  </si>
+  <si>
+    <t>PASTOR-MAIZ-MOLE-JAMON-POLLO-QUESOS-RYBEYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESOS-LONGANIZA  </t>
+  </si>
+  <si>
+    <t>CREMA-POLLO-LONGANIZA-ENCHILADA</t>
+  </si>
+  <si>
+    <t>NOMINA # 12</t>
+  </si>
+  <si>
+    <t>PASTOR-SALSAS-POLLO-QUESOS-ROASBEFF-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-TOSTADAS-PATE-SALCHICHONERIA-PASTOR-ARABE</t>
+  </si>
+  <si>
+    <t>quesos-pollo-longaniza-</t>
+  </si>
+  <si>
+    <t>REC BASURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLETE </t>
+  </si>
+  <si>
+    <t>Fumigacion</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Camaras Hansel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguro carga </t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3428,6 +3467,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="24" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3602,13 +3648,8 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="15" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5259,23 +5300,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="389"/>
-      <c r="C1" s="391" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="394" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-      <c r="M1" s="392"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="390"/>
+      <c r="B2" s="393"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -5285,24 +5326,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="394"/>
+      <c r="B3" s="396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="397"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="395" t="s">
+      <c r="H3" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="395"/>
+      <c r="I3" s="398"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="387" t="s">
+      <c r="P3" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="360" t="s">
+      <c r="R3" s="363" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5317,14 +5358,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="363"/>
-      <c r="H4" s="364" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="365"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -5334,11 +5375,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="388"/>
+      <c r="P4" s="391"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="361"/>
+      <c r="R4" s="364"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -7173,11 +7214,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="371">
+      <c r="M49" s="374">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="371">
+      <c r="N49" s="374">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -7185,7 +7226,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="383">
+      <c r="Q49" s="386">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -7206,10 +7247,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="372"/>
-      <c r="N50" s="372"/>
+      <c r="M50" s="375"/>
+      <c r="N50" s="375"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="384"/>
+      <c r="Q50" s="387"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -7264,11 +7305,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="385">
+      <c r="M53" s="388">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="386"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -7693,26 +7734,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="379" t="s">
+      <c r="H77" s="382" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="380"/>
+      <c r="I77" s="383"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="381">
+      <c r="K77" s="384">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="382"/>
+      <c r="L77" s="385"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="373" t="s">
+      <c r="D78" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="373"/>
+      <c r="E78" s="376"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -7721,22 +7762,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="374" t="s">
+      <c r="D79" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="374"/>
+      <c r="E79" s="377"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="375" t="s">
+      <c r="I79" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="376"/>
-      <c r="K79" s="377">
+      <c r="J79" s="379"/>
+      <c r="K79" s="380">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="377"/>
+      <c r="L79" s="380"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -7777,11 +7818,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="378">
+      <c r="K81" s="381">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="377"/>
+      <c r="L81" s="380"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -7798,22 +7839,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="366" t="s">
+      <c r="D83" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="367"/>
+      <c r="E83" s="370"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="368" t="s">
+      <c r="I83" s="371" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="369"/>
-      <c r="K83" s="370">
+      <c r="J83" s="372"/>
+      <c r="K83" s="373">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="370"/>
+      <c r="L83" s="373"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -9300,10 +9341,10 @@
         <f t="shared" si="0"/>
         <v>14253.22</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="400"/>
+      <c r="K36" s="400"/>
+      <c r="L36" s="401"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -9326,10 +9367,10 @@
         <f t="shared" si="0"/>
         <v>9786.4</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="399"/>
+      <c r="J37" s="400"/>
+      <c r="K37" s="400"/>
+      <c r="L37" s="401"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -9386,10 +9427,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="402" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="403"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -9408,8 +9449,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -9428,8 +9469,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -9933,10 +9974,10 @@
         <f>SUM(G3:G66)</f>
         <v>423610.18</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="409"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -9956,11 +9997,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="412" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="407"/>
-      <c r="J68" s="408"/>
+      <c r="I68" s="410"/>
+      <c r="J68" s="411"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -9971,7 +10012,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="413"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -10579,10 +10620,10 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10608,23 +10649,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="389"/>
-      <c r="C1" s="391" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="394" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-      <c r="M1" s="392"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="390"/>
+      <c r="B2" s="393"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -10634,24 +10675,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="394"/>
+      <c r="B3" s="396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="397"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="395" t="s">
+      <c r="H3" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="395"/>
+      <c r="I3" s="398"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="387" t="s">
+      <c r="P3" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="360" t="s">
+      <c r="R3" s="363" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10666,14 +10707,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="363"/>
-      <c r="H4" s="364" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="365"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -10683,11 +10724,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="388"/>
+      <c r="P4" s="391"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="361"/>
+      <c r="R4" s="364"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -12663,11 +12704,11 @@
       <c r="L49" s="49">
         <v>1856</v>
       </c>
-      <c r="M49" s="371">
+      <c r="M49" s="374">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="371">
+      <c r="N49" s="374">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -12675,7 +12716,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="383">
+      <c r="Q49" s="386">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -12708,10 +12749,10 @@
       <c r="L50" s="89">
         <v>4698</v>
       </c>
-      <c r="M50" s="372"/>
-      <c r="N50" s="372"/>
+      <c r="M50" s="375"/>
+      <c r="N50" s="375"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="384"/>
+      <c r="Q50" s="387"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -12784,11 +12825,11 @@
       <c r="L53" s="49">
         <v>3340</v>
       </c>
-      <c r="M53" s="385">
+      <c r="M53" s="388">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="386"/>
+      <c r="N53" s="389"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13237,26 +13278,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="379" t="s">
+      <c r="H77" s="382" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="380"/>
+      <c r="I77" s="383"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="381">
+      <c r="K77" s="384">
         <f>I75+L75</f>
         <v>399779.21</v>
       </c>
-      <c r="L77" s="382"/>
+      <c r="L77" s="385"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="373" t="s">
+      <c r="D78" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="373"/>
+      <c r="E78" s="376"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>2223607.69</v>
@@ -13265,22 +13306,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="374" t="s">
+      <c r="D79" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="374"/>
+      <c r="E79" s="377"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="375" t="s">
+      <c r="I79" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="376"/>
-      <c r="K79" s="377">
+      <c r="J79" s="379"/>
+      <c r="K79" s="380">
         <f>F81+F82+F83</f>
         <v>621295.02</v>
       </c>
-      <c r="L79" s="377"/>
+      <c r="L79" s="380"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13321,11 +13362,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="378">
+      <c r="K81" s="381">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="377"/>
+      <c r="L81" s="380"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13342,22 +13383,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="366" t="s">
+      <c r="D83" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="367"/>
+      <c r="E83" s="370"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="411" t="s">
+      <c r="I83" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="412"/>
-      <c r="K83" s="413">
+      <c r="J83" s="415"/>
+      <c r="K83" s="416">
         <f>K79+K81</f>
         <v>-2882883.05</v>
       </c>
-      <c r="L83" s="413"/>
+      <c r="L83" s="416"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14667,10 +14708,10 @@
         <f t="shared" si="0"/>
         <v>11208</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="400"/>
+      <c r="K36" s="400"/>
+      <c r="L36" s="401"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -14693,10 +14734,10 @@
         <f t="shared" si="0"/>
         <v>4184.6000000000004</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="399"/>
+      <c r="J37" s="400"/>
+      <c r="K37" s="400"/>
+      <c r="L37" s="401"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -14759,10 +14800,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="402" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="403"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -14781,8 +14822,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -14801,8 +14842,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -15306,10 +15347,10 @@
         <f>SUM(G3:G66)</f>
         <v>1830849.67</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="409"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>99279.2</v>
@@ -15329,11 +15370,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="412" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="414"/>
-      <c r="J68" s="415"/>
+      <c r="I68" s="417"/>
+      <c r="J68" s="418"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15344,7 +15385,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="413"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -15906,8 +15947,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15933,23 +15974,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="389"/>
-      <c r="C1" s="391" t="s">
+      <c r="B1" s="392"/>
+      <c r="C1" s="394" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="392"/>
-      <c r="J1" s="392"/>
-      <c r="K1" s="392"/>
-      <c r="L1" s="392"/>
-      <c r="M1" s="392"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="390"/>
+      <c r="B2" s="393"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -15959,24 +16000,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="393" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="394"/>
+      <c r="B3" s="396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="397"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="395" t="s">
+      <c r="H3" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="395"/>
+      <c r="I3" s="398"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="387" t="s">
+      <c r="P3" s="390" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="416" t="s">
+      <c r="R3" s="419" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15991,14 +16032,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="363"/>
-      <c r="H4" s="364" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="365"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16008,11 +16049,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="388"/>
+      <c r="P4" s="391"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="417"/>
+      <c r="R4" s="420"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -16333,7 +16374,7 @@
         <v>42336</v>
       </c>
       <c r="P11" s="49">
-        <f t="shared" ref="P11:P40" si="2">N11+M11+L11+I11+C11</f>
+        <f t="shared" ref="P11:P43" si="2">N11+M11+L11+I11+C11</f>
         <v>153849</v>
       </c>
       <c r="Q11" s="45">
@@ -16803,7 +16844,7 @@
       <c r="J21" s="40">
         <v>45005</v>
       </c>
-      <c r="K21" s="418" t="s">
+      <c r="K21" s="360" t="s">
         <v>319</v>
       </c>
       <c r="L21" s="55">
@@ -16848,14 +16889,14 @@
       <c r="H22" s="38">
         <v>45006</v>
       </c>
-      <c r="I22" s="420">
+      <c r="I22" s="362">
         <f>1122+5000</f>
         <v>6122</v>
       </c>
       <c r="J22" s="40">
         <v>45006</v>
       </c>
-      <c r="K22" s="419" t="s">
+      <c r="K22" s="361" t="s">
         <v>321</v>
       </c>
       <c r="L22" s="62">
@@ -16932,29 +16973,38 @@
       <c r="B24" s="32">
         <v>45008</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>27688</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>323</v>
+      </c>
       <c r="E24" s="35">
         <v>45008</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>95455</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45008</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39">
+        <v>2125</v>
+      </c>
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="67"/>
       <c r="M24" s="42">
-        <v>0</v>
+        <f>4655.5+29221.5+1131</f>
+        <v>35008</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>30634</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>95455</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="1"/>
@@ -16969,29 +17019,38 @@
       <c r="B25" s="32">
         <v>45009</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>6094</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>324</v>
+      </c>
       <c r="E25" s="35">
         <v>45009</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>153900</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45009</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>4678.5</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <f>84336.5+13436</f>
+        <v>97772.5</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>45355</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>153900</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="1"/>
@@ -17006,29 +17065,44 @@
       <c r="B26" s="32">
         <v>45010</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>13761.5</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>325</v>
+      </c>
       <c r="E26" s="35">
         <v>45010</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>138127</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45010</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="39">
+        <v>5100</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45010</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="L26" s="71">
+        <v>24469</v>
+      </c>
       <c r="M26" s="42">
-        <v>0</v>
+        <f>28684.5+6220</f>
+        <v>34904.5</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>59892</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138127</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="1"/>
@@ -17046,29 +17120,37 @@
       <c r="B27" s="32">
         <v>45011</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>325</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="E27" s="35">
         <v>45011</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>88838</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45011</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>1229</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="346"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <v>58608</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>28676</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88838</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="1"/>
@@ -17083,29 +17165,38 @@
       <c r="B28" s="32">
         <v>45012</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>34835.5</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>327</v>
+      </c>
       <c r="E28" s="35">
         <v>45012</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>117497</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45012</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>2206</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <f>24101.5+10438</f>
+        <v>34539.5</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>45916</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>117497</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="1"/>
@@ -17120,29 +17211,37 @@
       <c r="B29" s="32">
         <v>45013</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>12972</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>328</v>
+      </c>
       <c r="E29" s="35">
         <v>45013</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>94090</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45013</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>2106</v>
+      </c>
       <c r="J29" s="339"/>
       <c r="K29" s="347"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <v>38138</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>40874</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>94090</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="1"/>
@@ -17157,29 +17256,38 @@
       <c r="B30" s="32">
         <v>45014</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>17010.5</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>329</v>
+      </c>
       <c r="E30" s="35">
         <v>45014</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>110786</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45014</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>1087</v>
+      </c>
       <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>44992.5+5522+2023</f>
+        <v>52537.5</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>40151</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>110786</v>
       </c>
       <c r="Q30" s="45" t="s">
         <v>11</v>
@@ -17208,7 +17316,6 @@
         <v>0</v>
       </c>
       <c r="P31" s="69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q31" s="45">
@@ -17245,12 +17352,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="69">
-        <f t="shared" si="2"/>
-        <v>21975</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="1"/>
-        <v>21975</v>
+        <v>0</v>
       </c>
       <c r="R32" s="46">
         <v>0</v>
@@ -17282,12 +17388,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="69">
-        <f t="shared" si="2"/>
-        <v>24587.26</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="45">
         <f t="shared" si="1"/>
-        <v>24587.26</v>
+        <v>0</v>
       </c>
       <c r="R33" s="46">
         <v>0</v>
@@ -17320,12 +17425,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="69">
-        <f t="shared" si="2"/>
-        <v>27880</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="45">
         <f t="shared" si="1"/>
-        <v>27880</v>
+        <v>0</v>
       </c>
       <c r="R34" s="46">
         <v>0</v>
@@ -17344,9 +17448,15 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
+      <c r="J35" s="87">
+        <v>45010</v>
+      </c>
+      <c r="K35" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" s="89">
+        <v>31677.3</v>
+      </c>
       <c r="M35" s="42">
         <v>0</v>
       </c>
@@ -17354,7 +17464,6 @@
         <v>0</v>
       </c>
       <c r="P35" s="69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q35" s="45">
@@ -17370,7 +17479,7 @@
       <c r="B36" s="32">
         <v>44995</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="421">
         <v>8424</v>
       </c>
       <c r="D36" s="91" t="s">
@@ -17391,12 +17500,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="69">
-        <f t="shared" si="2"/>
-        <v>8424</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="45">
         <f t="shared" si="1"/>
-        <v>8424</v>
+        <v>0</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -17407,7 +17515,7 @@
       <c r="B37" s="32">
         <v>44995</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="422">
         <v>2679</v>
       </c>
       <c r="D37" s="94" t="s">
@@ -17418,9 +17526,15 @@
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="338"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="49"/>
+      <c r="J37" s="338">
+        <v>44991</v>
+      </c>
+      <c r="K37" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" s="49">
+        <v>8777.7800000000007</v>
+      </c>
       <c r="M37" s="42">
         <v>0</v>
       </c>
@@ -17428,12 +17542,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="69">
-        <f t="shared" si="2"/>
-        <v>2679</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="1"/>
-        <v>2679</v>
+        <v>0</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -17444,7 +17557,7 @@
       <c r="B38" s="32">
         <v>44999</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="422">
         <v>10746</v>
       </c>
       <c r="D38" s="94" t="s">
@@ -17455,9 +17568,15 @@
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="350"/>
-      <c r="L38" s="49"/>
+      <c r="J38" s="338">
+        <v>44995</v>
+      </c>
+      <c r="K38" s="350" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" s="49">
+        <v>28000</v>
+      </c>
       <c r="M38" s="42">
         <v>0</v>
       </c>
@@ -17465,12 +17584,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="69">
-        <f t="shared" si="2"/>
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="45">
         <f t="shared" si="1"/>
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -17481,7 +17599,7 @@
       <c r="B39" s="32">
         <v>44999</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="422">
         <v>9892</v>
       </c>
       <c r="D39" s="96" t="s">
@@ -17492,9 +17610,15 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="340"/>
-      <c r="K39" s="350"/>
-      <c r="L39" s="49"/>
+      <c r="J39" s="340">
+        <v>44998</v>
+      </c>
+      <c r="K39" s="350" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" s="49">
+        <v>1856</v>
+      </c>
       <c r="M39" s="42">
         <v>0</v>
       </c>
@@ -17502,12 +17626,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="69">
-        <f t="shared" si="2"/>
-        <v>9892</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="45">
         <f t="shared" si="1"/>
-        <v>9892</v>
+        <v>0</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -17518,7 +17641,7 @@
       <c r="B40" s="32">
         <v>44999</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="422">
         <v>3962</v>
       </c>
       <c r="D40" s="94" t="s">
@@ -17529,9 +17652,15 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="338">
+        <v>44999</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" s="49">
+        <v>6264</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
@@ -17539,12 +17668,11 @@
         <v>0</v>
       </c>
       <c r="P40" s="69">
-        <f t="shared" si="2"/>
-        <v>3962</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="45">
         <f t="shared" si="1"/>
-        <v>3962</v>
+        <v>0</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -17555,7 +17683,7 @@
       <c r="B41" s="32">
         <v>44999</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="422">
         <v>5264</v>
       </c>
       <c r="D41" s="102" t="s">
@@ -17566,9 +17694,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="338"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="338">
+        <v>44999</v>
+      </c>
+      <c r="K41" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="L41" s="49">
+        <v>17782.8</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -17591,7 +17725,7 @@
       <c r="B42" s="32">
         <v>44999</v>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="422">
         <v>1880</v>
       </c>
       <c r="D42" s="102" t="s">
@@ -17602,9 +17736,15 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="338"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="338">
+        <v>44999</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" s="49">
+        <v>5104</v>
+      </c>
       <c r="M42" s="42">
         <v>0</v>
       </c>
@@ -17627,7 +17767,7 @@
       <c r="B43" s="32">
         <v>44999</v>
       </c>
-      <c r="C43" s="93">
+      <c r="C43" s="422">
         <v>6448</v>
       </c>
       <c r="D43" s="102" t="s">
@@ -17638,9 +17778,15 @@
       <c r="G43" s="37"/>
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="338"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="338">
+        <v>45007</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" s="49">
+        <v>28000</v>
+      </c>
       <c r="M43" s="42">
         <v>0</v>
       </c>
@@ -17663,7 +17809,7 @@
       <c r="B44" s="32">
         <v>44999</v>
       </c>
-      <c r="C44" s="93">
+      <c r="C44" s="422">
         <v>9864</v>
       </c>
       <c r="D44" s="102" t="s">
@@ -17674,9 +17820,15 @@
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="338"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="338">
+        <v>45009</v>
+      </c>
+      <c r="K44" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="49">
+        <v>1232.79</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -17699,7 +17851,7 @@
       <c r="B45" s="32">
         <v>44999</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="422">
         <v>4235</v>
       </c>
       <c r="D45" s="102" t="s">
@@ -17710,9 +17862,15 @@
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="338"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="49"/>
+      <c r="J45" s="338">
+        <v>45012</v>
+      </c>
+      <c r="K45" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="L45" s="49">
+        <v>1098</v>
+      </c>
       <c r="M45" s="42">
         <v>0</v>
       </c>
@@ -17735,7 +17893,7 @@
       <c r="B46" s="32">
         <v>44999</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="422">
         <v>3900</v>
       </c>
       <c r="D46" s="102" t="s">
@@ -17746,9 +17904,15 @@
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="338"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="338">
+        <v>45013</v>
+      </c>
+      <c r="K46" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" s="49">
+        <v>3770</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -17768,17 +17932,29 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="32">
+        <v>45002</v>
+      </c>
+      <c r="C47" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>232</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="338">
+        <v>45014</v>
+      </c>
+      <c r="K47" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" s="49">
+        <v>3763.04</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -17798,9 +17974,15 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="102"/>
+      <c r="B48" s="32">
+        <v>45006</v>
+      </c>
+      <c r="C48" s="93">
+        <v>120239.3</v>
+      </c>
+      <c r="D48" s="102" t="s">
+        <v>232</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
@@ -17834,21 +18016,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="88"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="371">
+      <c r="M49" s="374">
         <f>SUM(M5:M40)</f>
-        <v>1451511.98</v>
-      </c>
-      <c r="N49" s="371">
+        <v>1803019.98</v>
+      </c>
+      <c r="N49" s="374">
         <f>SUM(N5:N40)</f>
-        <v>847026</v>
+        <v>1138524</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2996247.7399999998</v>
-      </c>
-      <c r="Q49" s="383">
+        <v>3684795.48</v>
+      </c>
+      <c r="Q49" s="386">
         <f>SUM(Q5:Q40)</f>
-        <v>110153.24</v>
+        <v>7.9800000000104774</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -17867,10 +18049,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="372"/>
-      <c r="N50" s="372"/>
+      <c r="M50" s="375"/>
+      <c r="N50" s="375"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="384"/>
+      <c r="Q50" s="387"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -17925,11 +18107,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="65"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="385">
+      <c r="M53" s="388">
         <f>M49+N49</f>
-        <v>2298537.98</v>
-      </c>
-      <c r="N53" s="386"/>
+        <v>2941543.98</v>
+      </c>
+      <c r="N53" s="389"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -18312,7 +18494,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>349324</v>
+        <v>782249.8</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -18320,7 +18502,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2389660</v>
+        <v>3188353</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -18328,7 +18510,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>57017.5</v>
+        <v>75549</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -18336,7 +18518,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>322959.26</v>
+        <v>460284.97</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -18354,50 +18536,50 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="379" t="s">
+      <c r="H77" s="382" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="380"/>
+      <c r="I77" s="383"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="381">
+      <c r="K77" s="384">
         <f>I75+L75</f>
-        <v>379976.76</v>
-      </c>
-      <c r="L77" s="382"/>
+        <v>535833.97</v>
+      </c>
+      <c r="L77" s="385"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="373" t="s">
+      <c r="D78" s="376" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="373"/>
+      <c r="E78" s="376"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1660359.24</v>
+        <v>1870269.2300000002</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="374" t="s">
+      <c r="D79" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="374"/>
+      <c r="E79" s="377"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="375" t="s">
+      <c r="I79" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="376"/>
-      <c r="K79" s="377">
+      <c r="J79" s="379"/>
+      <c r="K79" s="380">
         <f>F81+F82+F83</f>
-        <v>58046.570000000065</v>
-      </c>
-      <c r="L79" s="377"/>
+        <v>267956.56000000029</v>
+      </c>
+      <c r="L79" s="380"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -18431,18 +18613,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>-170490.42999999993</v>
+        <v>39419.560000000289</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="378">
+      <c r="K81" s="381">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="377"/>
+      <c r="L81" s="380"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -18459,22 +18641,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="366" t="s">
+      <c r="D83" s="369" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="367"/>
+      <c r="E83" s="370"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="411" t="s">
+      <c r="I83" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="412"/>
-      <c r="K83" s="413">
+      <c r="J83" s="415"/>
+      <c r="K83" s="416">
         <f>K79+K81</f>
-        <v>-3446131.5</v>
-      </c>
-      <c r="L83" s="413"/>
+        <v>-3236221.51</v>
+      </c>
+      <c r="L83" s="416"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -19589,10 +19771,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="396"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="398"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="400"/>
+      <c r="K36" s="400"/>
+      <c r="L36" s="401"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19609,10 +19791,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="396"/>
-      <c r="J37" s="397"/>
-      <c r="K37" s="397"/>
-      <c r="L37" s="398"/>
+      <c r="I37" s="399"/>
+      <c r="J37" s="400"/>
+      <c r="K37" s="400"/>
+      <c r="L37" s="401"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19669,10 +19851,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="399" t="s">
+      <c r="I40" s="402" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="400"/>
+      <c r="J40" s="403"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19691,8 +19873,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="401"/>
-      <c r="J41" s="402"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="405"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19711,8 +19893,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="403"/>
-      <c r="J42" s="404"/>
+      <c r="I42" s="406"/>
+      <c r="J42" s="407"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -20216,10 +20398,10 @@
         <f>SUM(G3:G66)</f>
         <v>1274425.81</v>
       </c>
-      <c r="I67" s="405" t="s">
+      <c r="I67" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="406"/>
+      <c r="J67" s="409"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -20239,11 +20421,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="409" t="s">
+      <c r="G68" s="412" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="414"/>
-      <c r="J68" s="415"/>
+      <c r="I68" s="417"/>
+      <c r="J68" s="418"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20254,7 +20436,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="410"/>
+      <c r="G69" s="413"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
